--- a/data/门店发布统计.xlsx
+++ b/data/门店发布统计.xlsx
@@ -373,7 +373,7 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -709,17 +709,17 @@
     <row r="5" customHeight="true" ht="14.0">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>兴宁桥烤鸡（邱隘店）</t>
+          <t>蟹浔鮮·潮汕生腌熟醉（联丰店）</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>异国料理</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -744,22 +744,22 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满50.00返32.00;</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="U5" s="1" t="inlineStr">
         <is>
-          <t>王瑛</t>
+          <t>吴琴琴</t>
         </is>
       </c>
       <c r="V5" s="1" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="X5" s="1" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="Y5" s="1" t="inlineStr">
@@ -836,12 +836,12 @@
     <row r="6" customHeight="true" ht="14.0">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>蟹浔鮮·潮汕生腌熟醉（联丰店）</t>
+          <t>汤城新语新中式茶饮（天水广场店）</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>异国料理</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -871,22 +871,22 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满50.00返32.00;</t>
+          <t>基础返利6.00;满22.00返10.00;</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S6" s="1" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="T6" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U6" s="1" t="inlineStr">
         <is>
-          <t>吴琴琴</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V6" s="1" t="inlineStr">
@@ -951,24 +951,24 @@
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="7" customHeight="true" ht="14.0">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>汤城新语新中式茶饮（天水广场店）</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -998,22 +998,22 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满22.00返10.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
@@ -1043,12 +1043,12 @@
       </c>
       <c r="Q7" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S7" s="1" t="inlineStr">
@@ -1058,12 +1058,12 @@
       </c>
       <c r="T7" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U7" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V7" s="1" t="inlineStr">
@@ -1078,24 +1078,24 @@
       </c>
       <c r="X7" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="Y7" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="8" customHeight="true" ht="14.0">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>梁弄大糕呆呆美糕</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -1125,22 +1125,22 @@
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满20.00返8.00;</t>
         </is>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
@@ -1170,12 +1170,12 @@
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S8" s="1" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
@@ -1217,7 +1217,7 @@
     <row r="9" customHeight="true" ht="14.0">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕</t>
+          <t>梁弄大糕呆呆美糕（清湖路店）</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
@@ -1344,17 +1344,17 @@
     <row r="10" customHeight="true" ht="14.0">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕（清湖路店）</t>
+          <t>川婆娘·地道老川川菜</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>余姚市</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
@@ -1379,22 +1379,22 @@
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返8.00;</t>
+          <t>基础返利6.00;满25.00返15.00;</t>
         </is>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="T10" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U10" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V10" s="1" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="X10" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>88.00</t>
         </is>
       </c>
       <c r="Y10" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
@@ -1852,12 +1852,12 @@
     <row r="14" customHeight="true" ht="14.0">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返8.00;</t>
+          <t>基础返利6.00;满50.00返27.00;满20.00返12.00;</t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>23.00;8.00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -1932,12 +1932,12 @@
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S14" s="1" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="U14" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V14" s="1" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">
@@ -1979,17 +1979,17 @@
     <row r="15" customHeight="true" ht="14.0">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>酒小六Club现调鸡尾酒，洋酒，啤酒</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
@@ -2014,17 +2014,17 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满50.00返27.00;满20.00返12.00;</t>
+          <t>基础返利6.00;满25.00返8.00;</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>23.00;8.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S15" s="1" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="U15" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V15" s="1" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="Y15" s="1" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2278,32 +2278,32 @@
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M17" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N17" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>144.00</t>
+          <t>64.00</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
@@ -2415,22 +2415,22 @@
       </c>
       <c r="L18" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M18" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N18" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
@@ -2741,7 +2741,7 @@
     <row r="21" customHeight="true" ht="14.0">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>嵊州小吃（范江岸路店）</t>
+          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
@@ -2776,17 +2776,17 @@
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满30.00返13.00;</t>
         </is>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
@@ -2821,12 +2821,12 @@
       </c>
       <c r="Q21" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S21" s="1" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>140.00</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
@@ -2868,7 +2868,7 @@
     <row r="22" customHeight="true" ht="14.0">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>超能鹿战队·轻食·减脂餐</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
@@ -2903,17 +2903,17 @@
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满30.00返13.00;</t>
         </is>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M22" s="1" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
@@ -2948,12 +2948,12 @@
       </c>
       <c r="Q22" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S22" s="1" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>140.00</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
@@ -2995,17 +2995,17 @@
     <row r="23" customHeight="true" ht="14.0">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>叙茶拾光ChaTime</t>
+          <t>川川婆娘·地道老川菜</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>余姚市</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
@@ -3030,22 +3030,22 @@
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满25.00返15.00;</t>
         </is>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="T23" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U23" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V23" s="1" t="inlineStr">
@@ -3110,24 +3110,24 @@
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>88.00</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="24" customHeight="true" ht="14.0">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>余老哥月半湾夜宵城透明餐厅</t>
+          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
@@ -3157,17 +3157,17 @@
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返8.00;</t>
+          <t>基础返利6.00;满23.00返11.00;</t>
         </is>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="T24" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U24" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V24" s="1" t="inlineStr">
@@ -3242,19 +3242,19 @@
       </c>
       <c r="Y24" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="25" customHeight="true" ht="14.0">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>袁小姐冒菜·小火锅</t>
+          <t>嵊州小吃（范江岸路店）</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>⽕锅冒菜</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
@@ -3284,22 +3284,22 @@
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P25" s="1" t="inlineStr">
@@ -3329,12 +3329,12 @@
       </c>
       <c r="Q25" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S25" s="1" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="U25" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V25" s="1" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>48.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
@@ -3376,17 +3376,17 @@
     <row r="26" customHeight="true" ht="14.0">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
@@ -3411,17 +3411,17 @@
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返10.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
@@ -3456,12 +3456,12 @@
       </c>
       <c r="Q26" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S26" s="1" t="inlineStr">
@@ -3471,12 +3471,12 @@
       </c>
       <c r="T26" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U26" s="1" t="inlineStr">
         <is>
-          <t>刘忠伟</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V26" s="1" t="inlineStr">
@@ -3491,29 +3491,29 @@
       </c>
       <c r="X26" s="1" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y26" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="27" customHeight="true" ht="14.0">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>榴火火品质干层蛋糕</t>
+          <t>饭香源农家小炒（小碗菜）</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>北仑区</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
@@ -3538,22 +3538,22 @@
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满100.00返20.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P27" s="1" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="U27" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V27" s="1" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="X27" s="1" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Y27" s="1" t="inlineStr">
@@ -3630,7 +3630,7 @@
     <row r="28" customHeight="true" ht="14.0">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>八闽·寻味（肉燕盖浇饭）</t>
+          <t>饭香木桶饭</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>北仑区</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
@@ -3725,12 +3725,12 @@
       </c>
       <c r="T28" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U28" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V28" s="1" t="inlineStr">
@@ -3745,19 +3745,19 @@
       </c>
       <c r="X28" s="1" t="inlineStr">
         <is>
-          <t>114.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y28" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="29" customHeight="true" ht="14.0">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>西引①手作意面·焗饭</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
@@ -3852,12 +3852,12 @@
       </c>
       <c r="T29" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U29" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V29" s="1" t="inlineStr">
@@ -3872,24 +3872,24 @@
       </c>
       <c r="X29" s="1" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="Y29" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="30" customHeight="true" ht="14.0">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>余老哥月半湾夜宵城透明餐厅</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
@@ -3919,17 +3919,17 @@
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返11.00;</t>
+          <t>基础返利6.00;满30.00返8.00;</t>
         </is>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="U30" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V30" s="1" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="X30" s="1" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="Y30" s="1" t="inlineStr">
@@ -4011,7 +4011,7 @@
     <row r="31" customHeight="true" ht="14.0">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>平价烧烤小吃</t>
+          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
@@ -4046,22 +4046,22 @@
       </c>
       <c r="H31" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满110.00返52.00;</t>
+          <t>基础返利6.00;满30.00返10.00;</t>
         </is>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>58.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P31" s="1" t="inlineStr">
@@ -4091,12 +4091,12 @@
       </c>
       <c r="Q31" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S31" s="1" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="U31" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>刘忠伟</t>
         </is>
       </c>
       <c r="V31" s="1" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="X31" s="1" t="inlineStr">
         <is>
-          <t>147.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="Y31" s="1" t="inlineStr">
@@ -4138,12 +4138,12 @@
     <row r="32" customHeight="true" ht="14.0">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>储缘蛋糕（北仑店）</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
@@ -4173,22 +4173,22 @@
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返25.00;</t>
+          <t>基础返利6.00;满25.00返11.00;</t>
         </is>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="O32" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P32" s="1" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="Q32" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S32" s="1" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="T32" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U32" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V32" s="1" t="inlineStr">
@@ -4253,29 +4253,29 @@
       </c>
       <c r="X32" s="1" t="inlineStr">
         <is>
-          <t>74.00</t>
+          <t>29.00</t>
         </is>
       </c>
       <c r="Y32" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="33" customHeight="true" ht="14.0">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>潮汕猪肚鸡汤饭</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
@@ -4290,32 +4290,32 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>需品鉴意见</t>
+          <t>霸王餐需品鉴意见(需图需字)</t>
         </is>
       </c>
       <c r="H33" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满25.00返11.00;</t>
         </is>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="O33" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P33" s="1" t="inlineStr">
@@ -4345,12 +4345,12 @@
       </c>
       <c r="Q33" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S33" s="1" t="inlineStr">
@@ -4360,12 +4360,12 @@
       </c>
       <c r="T33" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U33" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V33" s="1" t="inlineStr">
@@ -4380,29 +4380,29 @@
       </c>
       <c r="X33" s="1" t="inlineStr">
         <is>
-          <t>65.00</t>
+          <t>29.00</t>
         </is>
       </c>
       <c r="Y33" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="34" customHeight="true" ht="14.0">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>乇娘拌粉</t>
+          <t>平价烧烤小吃</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
@@ -4427,22 +4427,22 @@
       </c>
       <c r="H34" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返12.00;</t>
+          <t>基础返利6.00;满110.00返52.00;</t>
         </is>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>58.00</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P34" s="1" t="inlineStr">
@@ -4487,12 +4487,12 @@
       </c>
       <c r="T34" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U34" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V34" s="1" t="inlineStr">
@@ -4507,29 +4507,29 @@
       </c>
       <c r="X34" s="1" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>147.00</t>
         </is>
       </c>
       <c r="Y34" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="35" customHeight="true" ht="14.0">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
+          <t>储缘蛋糕（北仑店）</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>北仑区</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
@@ -4554,22 +4554,22 @@
       </c>
       <c r="H35" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满23.00返10.00;</t>
+          <t>基础返利6.00;满30.00返25.00;</t>
         </is>
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="O35" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P35" s="1" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="U35" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V35" s="1" t="inlineStr">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="X35" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>130.00</t>
         </is>
       </c>
       <c r="Y35" s="1" t="inlineStr">
@@ -4646,8 +4646,7 @@
     <row r="36" customHeight="true" ht="14.0">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（
-高新店）</t>
+          <t>潮汕猪肚鸡汤饭</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -4672,27 +4671,27 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
+          <t>需品鉴意见</t>
         </is>
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满26.00返12.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
@@ -4702,22 +4701,22 @@
       </c>
       <c r="L36" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M36" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N36" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P36" s="1" t="inlineStr">
@@ -4742,12 +4741,12 @@
       </c>
       <c r="T36" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U36" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V36" s="1" t="inlineStr">
@@ -4762,29 +4761,29 @@
       </c>
       <c r="X36" s="1" t="inlineStr">
         <is>
-          <t>75.00</t>
+          <t>52.00</t>
         </is>
       </c>
       <c r="Y36" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="37" customHeight="true" ht="14.0">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>二姐美味小吃</t>
+          <t>乇娘拌粉</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
@@ -4809,27 +4808,27 @@
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满23.00返10.00;</t>
+          <t>基础返利6.00;满20.00返12.00;</t>
         </is>
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L37" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M37" s="1" t="inlineStr">
@@ -4844,7 +4843,7 @@
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P37" s="1" t="inlineStr">
@@ -4874,7 +4873,7 @@
       </c>
       <c r="U37" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V37" s="1" t="inlineStr">
@@ -4889,7 +4888,7 @@
       </c>
       <c r="X37" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>65.00</t>
         </is>
       </c>
       <c r="Y37" s="1" t="inlineStr">
@@ -4901,17 +4900,17 @@
     <row r="38" customHeight="true" ht="14.0">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
+          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
@@ -4926,7 +4925,7 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
@@ -4936,27 +4935,27 @@
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返13.00;</t>
+          <t>基础返利6.00;满23.00返10.00;</t>
         </is>
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L38" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M38" s="1" t="inlineStr">
@@ -4971,7 +4970,7 @@
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P38" s="1" t="inlineStr">
@@ -4981,12 +4980,12 @@
       </c>
       <c r="Q38" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R38" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S38" s="1" t="inlineStr">
@@ -5016,7 +5015,7 @@
       </c>
       <c r="X38" s="1" t="inlineStr">
         <is>
-          <t>135.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="Y38" s="1" t="inlineStr">
@@ -5028,7 +5027,8 @@
     <row r="39" customHeight="true" ht="14.0">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>八闽寻味（肉燕盖浇饭）透明餐厅</t>
+          <t>泰滋味·泰式海南鸡（
+高新店）</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
@@ -5038,117 +5038,879 @@
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H39" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满26.00返12.00;</t>
+        </is>
+      </c>
+      <c r="I39" s="1" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="J39" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="K39" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L39" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M39" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N39" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O39" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P39" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q39" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R39" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S39" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T39" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="U39" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="V39" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W39" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X39" s="1" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="Y39" s="1" t="inlineStr">
+        <is>
+          <t>业务员:张洁茹</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" customHeight="true" ht="14.0">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>二姐美味小吃</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G40" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H40" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满23.00返10.00;</t>
+        </is>
+      </c>
+      <c r="I40" s="1" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="J40" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="K40" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L40" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M40" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N40" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O40" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P40" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q40" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R40" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S40" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T40" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U40" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V40" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W40" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X40" s="1" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="Y40" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" customHeight="true" ht="14.0">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>鱼你在一起（宁波港隆时代广场店）</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H41" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满30.00返13.00;</t>
+        </is>
+      </c>
+      <c r="I41" s="1" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="J41" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="K41" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L41" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M41" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N41" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O41" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P41" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q41" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="R41" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S41" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T41" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U41" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V41" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W41" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X41" s="1" t="inlineStr">
+        <is>
+          <t>165.00</t>
+        </is>
+      </c>
+      <c r="Y41" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" customHeight="true" ht="14.0">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>重庆小面（第6档口小味道美食城店）</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H42" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满20.00返10.00;</t>
+        </is>
+      </c>
+      <c r="I42" s="1" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="J42" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="K42" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L42" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M42" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N42" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O42" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P42" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q42" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R42" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S42" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T42" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V42" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W42" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X42" s="1" t="inlineStr">
+        <is>
+          <t>111.00</t>
+        </is>
+      </c>
+      <c r="Y42" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" customHeight="true" ht="14.0">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>牛大碗牛腩饭牛腩煲（南商店）</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
           <t>饿了么</t>
         </is>
       </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="D43" s="1" t="inlineStr">
         <is>
           <t>浙江省</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E43" s="1" t="inlineStr">
         <is>
           <t>宁波市</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F43" s="1" t="inlineStr">
         <is>
           <t>鄞州区</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G43" s="1" t="inlineStr">
         <is>
           <t>霸王餐需品鉴意见(需图需字)</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="J39" s="1" t="inlineStr">
-        <is>
-          <t>2024-10-22</t>
-        </is>
-      </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="H43" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返12.00;</t>
+        </is>
+      </c>
+      <c r="I43" s="1" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="J43" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="K43" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L43" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M43" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N43" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O43" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P43" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q43" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R43" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S43" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T43" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V43" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W43" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X43" s="1" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="Y43" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" customHeight="true" ht="14.0">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>猪小八</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>烧烤夜宵</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H44" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满20.00返11.00;</t>
+        </is>
+      </c>
+      <c r="I44" s="1" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="J44" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="K44" s="1" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="L39" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M39" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N39" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O39" s="1" t="inlineStr">
+      <c r="L44" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M44" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N44" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O44" s="1" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P39" s="1" t="inlineStr">
+      <c r="P44" s="1" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q39" s="1" t="inlineStr">
+      <c r="Q44" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R39" s="1" t="inlineStr">
+      <c r="R44" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="S39" s="1" t="inlineStr">
+      <c r="S44" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
         </is>
       </c>
-      <c r="T39" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U39" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V39" s="1" t="inlineStr">
+      <c r="T44" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="U44" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="V44" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="W39" s="1" t="inlineStr">
+      <c r="W44" s="1" t="inlineStr">
         <is>
           <t>预授权类型</t>
         </is>
       </c>
-      <c r="X39" s="1" t="inlineStr">
-        <is>
-          <t>114.00</t>
-        </is>
-      </c>
-      <c r="Y39" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
+      <c r="X44" s="1" t="inlineStr">
+        <is>
+          <t>130.00</t>
+        </is>
+      </c>
+      <c r="Y44" s="1" t="inlineStr">
+        <is>
+          <t>业务员:张洁茹</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" customHeight="true" ht="14.0">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>一煲口福</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>镇海区</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H45" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满26.00返12.00;</t>
+        </is>
+      </c>
+      <c r="I45" s="1" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="J45" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="K45" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L45" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M45" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N45" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O45" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P45" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q45" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R45" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S45" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T45" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="U45" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="V45" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W45" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X45" s="1" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="Y45" s="1" t="inlineStr">
+        <is>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>

--- a/data/门店发布统计.xlsx
+++ b/data/门店发布统计.xlsx
@@ -363,17 +363,17 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>每单返利7.00</t>
+          <t>基础返利6.00;满25.00返18.00;满15.00返8.00;</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t/>
+          <t>7.00;7.00</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -490,79 +490,79 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>每单返利7.00</t>
+          <t>基础返利6.00;满25.00返18.00;满15.00返8.00;</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
+          <t>7.00;7.00</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>王瑛</t>
+        </is>
+      </c>
+      <c r="V3" s="1" t="inlineStr">
+        <is>
           <t/>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>2024-10-25</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q3" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R3" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S3" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T3" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U3" s="1" t="inlineStr">
-        <is>
-          <t>王瑛</t>
-        </is>
-      </c>
-      <c r="V3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="W3" s="1" t="inlineStr">
         <is>
           <t>预充值类型</t>
@@ -570,7 +570,7 @@
       </c>
       <c r="X3" s="1" t="inlineStr">
         <is>
-          <t>294.00</t>
+          <t>252.00</t>
         </is>
       </c>
       <c r="Y3" s="1" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -709,12 +709,12 @@
     <row r="5" customHeight="true" ht="14.0">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>蟹浔鮮·潮汕生腌熟醉（联丰店）</t>
+          <t>真味豆浆</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>异国料理</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -744,32 +744,32 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满50.00返32.00;</t>
+          <t>基础返利6.00;满20.00返14.00;</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N5" s="1" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S5" s="1" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="U5" s="1" t="inlineStr">
         <is>
-          <t>吴琴琴</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V5" s="1" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="X5" s="1" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="Y5" s="1" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -963,12 +963,12 @@
     <row r="7" customHeight="true" ht="14.0">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>张域小珀一碗酸奶</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -988,32 +988,32 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
+          <t>需品鉴意见</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="U7" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王瑛</t>
         </is>
       </c>
       <c r="V7" s="1" t="inlineStr">
@@ -1073,24 +1073,24 @@
       </c>
       <c r="W7" s="1" t="inlineStr">
         <is>
-          <t>预授权类型</t>
+          <t>预充值类型</t>
         </is>
       </c>
       <c r="X7" s="1" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>65.00</t>
         </is>
       </c>
       <c r="Y7" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>商户:13291965903</t>
         </is>
       </c>
     </row>
     <row r="8" customHeight="true" ht="14.0">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕</t>
+          <t>张域小珀一碗酸奶</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
@@ -1115,32 +1115,32 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
+          <t>需品鉴意见</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返8.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
@@ -1170,12 +1170,12 @@
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S8" s="1" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="U8" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王瑛</t>
         </is>
       </c>
       <c r="V8" s="1" t="inlineStr">
@@ -1200,34 +1200,34 @@
       </c>
       <c r="W8" s="1" t="inlineStr">
         <is>
-          <t>预授权类型</t>
+          <t>预充值类型</t>
         </is>
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>65.00</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>商户:13291965903</t>
         </is>
       </c>
     </row>
     <row r="9" customHeight="true" ht="14.0">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕（清湖路店）</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -1252,22 +1252,22 @@
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返8.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
@@ -1297,12 +1297,12 @@
       </c>
       <c r="Q9" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S9" s="1" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>39.00</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
@@ -1344,12 +1344,12 @@
     <row r="10" customHeight="true" ht="14.0">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>川婆娘·地道老川川菜</t>
+          <t>梁弄大糕呆呆美糕</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>余姚市</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
@@ -1379,22 +1379,22 @@
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返15.00;</t>
+          <t>基础返利6.00;满20.00返8.00;</t>
         </is>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="T10" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U10" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V10" s="1" t="inlineStr">
@@ -1459,19 +1459,19 @@
       </c>
       <c r="X10" s="1" t="inlineStr">
         <is>
-          <t>88.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="Y10" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="11" customHeight="true" ht="14.0">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>西施凉皮（宁波大学店）</t>
+          <t>梁弄大糕呆呆美糕（清湖路店）</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
@@ -1506,22 +1506,22 @@
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满20.00返8.00;</t>
         </is>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
@@ -1566,12 +1566,12 @@
       </c>
       <c r="T11" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U11" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V11" s="1" t="inlineStr">
@@ -1586,29 +1586,29 @@
       </c>
       <c r="X11" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="Y11" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="12" customHeight="true" ht="14.0">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>西施·凉皮（宁波大学店）</t>
+          <t>川婆娘·地道老川川菜</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>余姚市</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
@@ -1633,22 +1633,22 @@
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满25.00返15.00;</t>
         </is>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>71.00</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
@@ -1725,17 +1725,17 @@
     <row r="13" customHeight="true" ht="14.0">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>西施凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
@@ -1760,22 +1760,22 @@
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满24.00返8.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="T13" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U13" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V13" s="1" t="inlineStr">
@@ -1840,29 +1840,29 @@
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y13" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="14" customHeight="true" ht="14.0">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>西施·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满50.00返27.00;满20.00返12.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>23.00;8.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -1932,12 +1932,12 @@
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S14" s="1" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="T14" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U14" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V14" s="1" t="inlineStr">
@@ -1967,29 +1967,29 @@
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="15" customHeight="true" ht="14.0">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
@@ -2014,22 +2014,22 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返8.00;</t>
+          <t>基础返利6.00;满24.00返8.00;</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="U15" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V15" s="1" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y15" s="1" t="inlineStr">
@@ -2106,12 +2106,12 @@
     <row r="16" customHeight="true" ht="14.0">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>稻香过桥米线（余姚店）</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>余姚市</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
@@ -2141,22 +2141,22 @@
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返12.00;</t>
+          <t>基础返利6.00;满20.00返12.00;满50.00返27.00;</t>
         </is>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>8.00;23.00</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P16" s="1" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="Q16" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S16" s="1" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="T16" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U16" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V16" s="1" t="inlineStr">
@@ -2221,29 +2221,29 @@
       </c>
       <c r="X16" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="Y16" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="17" customHeight="true" ht="14.0">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>西北阁（炒饭·炒面·炒菜）</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
@@ -2268,17 +2268,17 @@
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返14.00;</t>
+          <t>基础返利6.00;满25.00返8.00;</t>
         </is>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
@@ -2288,24 +2288,24 @@
       </c>
       <c r="L17" s="1" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" s="1" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M17" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N17" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O17" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="U17" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V17" s="1" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>64.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
@@ -2360,7 +2360,7 @@
     <row r="18" customHeight="true" ht="14.0">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>西北阁（炒饭·炒面·炒菜）</t>
+          <t>稻香过桥米线（余姚店）</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>余姚市</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
@@ -2395,42 +2395,42 @@
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返14.00;</t>
+          <t>基础返利6.00;满20.00返12.00;</t>
         </is>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M18" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N18" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
@@ -2455,12 +2455,12 @@
       </c>
       <c r="T18" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U18" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V18" s="1" t="inlineStr">
@@ -2475,29 +2475,29 @@
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="19" customHeight="true" ht="14.0">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>西北阁（炒饭·炒面·炒菜）</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
@@ -2522,27 +2522,27 @@
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返12.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M19" s="1" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="Q19" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S19" s="1" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="U19" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V19" s="1" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="X19" s="1" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>52.00</t>
         </is>
       </c>
       <c r="Y19" s="1" t="inlineStr">
@@ -2614,17 +2614,17 @@
     <row r="20" customHeight="true" ht="14.0">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>西北阁（炒饭·炒面·炒菜）</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
@@ -2649,42 +2649,42 @@
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返12.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L20" s="1" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L20" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M20" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N20" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
@@ -2694,12 +2694,12 @@
       </c>
       <c r="Q20" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S20" s="1" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="U20" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V20" s="1" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="X20" s="1" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>64.00</t>
         </is>
       </c>
       <c r="Y20" s="1" t="inlineStr">
@@ -2741,7 +2741,7 @@
     <row r="21" customHeight="true" ht="14.0">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
@@ -2776,22 +2776,22 @@
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返13.00;</t>
+          <t>基础返利6.00;满30.00返12.00;</t>
         </is>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
@@ -2821,12 +2821,12 @@
       </c>
       <c r="Q21" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S21" s="1" t="inlineStr">
@@ -2836,12 +2836,12 @@
       </c>
       <c r="T21" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U21" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V21" s="1" t="inlineStr">
@@ -2856,19 +2856,19 @@
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>140.00</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="22" customHeight="true" ht="14.0">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
@@ -2903,22 +2903,22 @@
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返13.00;</t>
+          <t>基础返利6.00;满30.00返12.00;</t>
         </is>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
@@ -2948,12 +2948,12 @@
       </c>
       <c r="Q22" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S22" s="1" t="inlineStr">
@@ -2963,12 +2963,12 @@
       </c>
       <c r="T22" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U22" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V22" s="1" t="inlineStr">
@@ -2983,24 +2983,24 @@
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>140.00</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="23" customHeight="true" ht="14.0">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>川川婆娘·地道老川菜</t>
+          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>余姚市</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
@@ -3030,17 +3030,17 @@
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返15.00;</t>
+          <t>基础返利6.00;满30.00返13.00;</t>
         </is>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="U23" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V23" s="1" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>88.00</t>
+          <t>140.00</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
@@ -3122,7 +3122,7 @@
     <row r="24" customHeight="true" ht="14.0">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
+          <t>超能鹿战队·轻食·减脂餐</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
@@ -3157,22 +3157,22 @@
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满23.00返11.00;</t>
+          <t>基础返利6.00;满30.00返13.00;</t>
         </is>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P24" s="1" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>140.00</t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
@@ -3249,17 +3249,17 @@
     <row r="25" customHeight="true" ht="14.0">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>嵊州小吃（范江岸路店）</t>
+          <t>川川婆娘·地道老川菜</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>余姚市</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
@@ -3284,17 +3284,17 @@
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满25.00返15.00;</t>
         </is>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
@@ -3329,12 +3329,12 @@
       </c>
       <c r="Q25" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S25" s="1" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="U25" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V25" s="1" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>71.00</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
@@ -3376,7 +3376,7 @@
     <row r="26" customHeight="true" ht="14.0">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
@@ -3411,22 +3411,22 @@
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满23.00返11.00;</t>
         </is>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P26" s="1" t="inlineStr">
@@ -3456,12 +3456,12 @@
       </c>
       <c r="Q26" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S26" s="1" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="X26" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="Y26" s="1" t="inlineStr">
@@ -3503,12 +3503,12 @@
     <row r="27" customHeight="true" ht="14.0">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>饭香源农家小炒（小碗菜）</t>
+          <t>嵊州小吃（范江岸路店）</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
@@ -3538,17 +3538,17 @@
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
@@ -3583,12 +3583,12 @@
       </c>
       <c r="Q27" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S27" s="1" t="inlineStr">
@@ -3598,12 +3598,12 @@
       </c>
       <c r="T27" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U27" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V27" s="1" t="inlineStr">
@@ -3618,29 +3618,29 @@
       </c>
       <c r="X27" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y27" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="28" customHeight="true" ht="14.0">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>饭香木桶饭</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
@@ -3665,22 +3665,22 @@
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P28" s="1" t="inlineStr">
@@ -3710,12 +3710,12 @@
       </c>
       <c r="Q28" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S28" s="1" t="inlineStr">
@@ -3725,12 +3725,12 @@
       </c>
       <c r="T28" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U28" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V28" s="1" t="inlineStr">
@@ -3750,19 +3750,19 @@
       </c>
       <c r="Y28" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="29" customHeight="true" ht="14.0">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>西引①手作意面·焗饭</t>
+          <t>饭香木桶饭</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>北仑区</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
@@ -3792,27 +3792,27 @@
       </c>
       <c r="H29" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返11.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M29" s="1" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="P29" s="1" t="inlineStr">
@@ -3852,12 +3852,12 @@
       </c>
       <c r="T29" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U29" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V29" s="1" t="inlineStr">
@@ -3877,24 +3877,24 @@
       </c>
       <c r="Y29" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="30" customHeight="true" ht="14.0">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>余老哥月半湾夜宵城透明餐厅</t>
+          <t>叙茶拾光ChaTime</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>北仑区</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
@@ -3919,17 +3919,17 @@
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返8.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="U30" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V30" s="1" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="X30" s="1" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="Y30" s="1" t="inlineStr">
@@ -4011,12 +4011,12 @@
     <row r="31" customHeight="true" ht="14.0">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
+          <t>西引①手作意面·焗饭</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
@@ -4046,22 +4046,22 @@
       </c>
       <c r="H31" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返10.00;</t>
+          <t>基础返利6.00;满25.00返11.00;</t>
         </is>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P31" s="1" t="inlineStr">
@@ -4106,12 +4106,12 @@
       </c>
       <c r="T31" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U31" s="1" t="inlineStr">
         <is>
-          <t>刘忠伟</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V31" s="1" t="inlineStr">
@@ -4131,24 +4131,24 @@
       </c>
       <c r="Y31" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="32" customHeight="true" ht="14.0">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>余老哥月半湾夜宵城透明餐厅</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
@@ -4173,17 +4173,17 @@
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返11.00;</t>
+          <t>基础返利6.00;满30.00返8.00;</t>
         </is>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="U32" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V32" s="1" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="X32" s="1" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="Y32" s="1" t="inlineStr">
@@ -4265,7 +4265,7 @@
     <row r="33" customHeight="true" ht="14.0">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>巧匠凉皮（热干面凉面）</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
@@ -4300,17 +4300,17 @@
       </c>
       <c r="H33" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返11.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="X33" s="1" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="Y33" s="1" t="inlineStr">
@@ -4392,12 +4392,12 @@
     <row r="34" customHeight="true" ht="14.0">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>平价烧烤小吃</t>
+          <t>袁小姐冒菜·小火锅</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
@@ -4427,17 +4427,17 @@
       </c>
       <c r="H34" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满110.00返52.00;</t>
+          <t>基础返利0.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>58.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
@@ -4472,12 +4472,12 @@
       </c>
       <c r="Q34" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S34" s="1" t="inlineStr">
@@ -4487,12 +4487,12 @@
       </c>
       <c r="T34" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U34" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V34" s="1" t="inlineStr">
@@ -4507,24 +4507,24 @@
       </c>
       <c r="X34" s="1" t="inlineStr">
         <is>
-          <t>147.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="Y34" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="35" customHeight="true" ht="14.0">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>储缘蛋糕（北仑店）</t>
+          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
@@ -4554,17 +4554,17 @@
       </c>
       <c r="H35" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返25.00;</t>
+          <t>基础返利6.00;满30.00返10.00;</t>
         </is>
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="Q35" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R35" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S35" s="1" t="inlineStr">
@@ -4614,12 +4614,12 @@
       </c>
       <c r="T35" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U35" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>刘忠伟</t>
         </is>
       </c>
       <c r="V35" s="1" t="inlineStr">
@@ -4634,24 +4634,24 @@
       </c>
       <c r="X35" s="1" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="Y35" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="36" customHeight="true" ht="14.0">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>潮汕猪肚鸡汤饭</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
@@ -4671,52 +4671,52 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>需品鉴意见</t>
+          <t>霸王餐需品鉴意见(需图需字)</t>
         </is>
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满25.00返11.00;</t>
         </is>
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L36" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M36" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N36" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P36" s="1" t="inlineStr">
@@ -4726,12 +4726,12 @@
       </c>
       <c r="Q36" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R36" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S36" s="1" t="inlineStr">
@@ -4741,12 +4741,12 @@
       </c>
       <c r="T36" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U36" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V36" s="1" t="inlineStr">
@@ -4761,19 +4761,19 @@
       </c>
       <c r="X36" s="1" t="inlineStr">
         <is>
-          <t>52.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="Y36" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="37" customHeight="true" ht="14.0">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>乇娘拌粉</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
@@ -4808,27 +4808,27 @@
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返12.00;</t>
+          <t>基础返利6.00;满25.00返11.00;</t>
         </is>
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L37" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M37" s="1" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P37" s="1" t="inlineStr">
@@ -4853,12 +4853,12 @@
       </c>
       <c r="Q37" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R37" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S37" s="1" t="inlineStr">
@@ -4868,12 +4868,12 @@
       </c>
       <c r="T37" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U37" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V37" s="1" t="inlineStr">
@@ -4888,29 +4888,29 @@
       </c>
       <c r="X37" s="1" t="inlineStr">
         <is>
-          <t>65.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="Y37" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="38" customHeight="true" ht="14.0">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
+          <t>储缘蛋糕（北仑店）</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>北仑区</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
@@ -4935,22 +4935,22 @@
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满23.00返10.00;</t>
+          <t>基础返利6.00;满30.00返25.00;</t>
         </is>
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L38" s="1" t="inlineStr">
@@ -4960,17 +4960,17 @@
       </c>
       <c r="M38" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N38" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P38" s="1" t="inlineStr">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="U38" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V38" s="1" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="X38" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>102.00</t>
         </is>
       </c>
       <c r="Y38" s="1" t="inlineStr">
@@ -5027,8 +5027,7 @@
     <row r="39" customHeight="true" ht="14.0">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（
-高新店）</t>
+          <t>潮汕猪肚鸡汤饭</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
@@ -5053,27 +5052,27 @@
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
+          <t>需品鉴意见</t>
         </is>
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满26.00返12.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J39" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K39" s="1" t="inlineStr">
@@ -5083,22 +5082,22 @@
       </c>
       <c r="L39" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M39" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N39" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O39" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P39" s="1" t="inlineStr">
@@ -5123,12 +5122,12 @@
       </c>
       <c r="T39" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U39" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V39" s="1" t="inlineStr">
@@ -5143,29 +5142,29 @@
       </c>
       <c r="X39" s="1" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>52.00</t>
         </is>
       </c>
       <c r="Y39" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="40" customHeight="true" ht="14.0">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>二姐美味小吃</t>
+          <t>乇娘拌粉</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
@@ -5190,27 +5189,27 @@
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满23.00返10.00;</t>
+          <t>基础返利6.00;满20.00返12.00;</t>
         </is>
       </c>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="J40" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L40" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M40" s="1" t="inlineStr">
@@ -5225,7 +5224,7 @@
       </c>
       <c r="O40" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="P40" s="1" t="inlineStr">
@@ -5255,7 +5254,7 @@
       </c>
       <c r="U40" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V40" s="1" t="inlineStr">
@@ -5270,7 +5269,7 @@
       </c>
       <c r="X40" s="1" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="Y40" s="1" t="inlineStr">
@@ -5282,17 +5281,17 @@
     <row r="41" customHeight="true" ht="14.0">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
+          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
@@ -5307,7 +5306,7 @@
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
@@ -5317,27 +5316,27 @@
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返13.00;</t>
+          <t>基础返利6.00;满23.00返10.00;</t>
         </is>
       </c>
       <c r="I41" s="1" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J41" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L41" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M41" s="1" t="inlineStr">
@@ -5352,7 +5351,7 @@
       </c>
       <c r="O41" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P41" s="1" t="inlineStr">
@@ -5362,12 +5361,12 @@
       </c>
       <c r="Q41" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R41" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S41" s="1" t="inlineStr">
@@ -5397,7 +5396,7 @@
       </c>
       <c r="X41" s="1" t="inlineStr">
         <is>
-          <t>165.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="Y41" s="1" t="inlineStr">
@@ -5409,7 +5408,7 @@
     <row r="42" customHeight="true" ht="14.0">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>重庆小面（第6档口小味道美食城店）</t>
+          <t>胖子家酸菜鱼</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -5434,7 +5433,7 @@
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>北仑区</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
@@ -5454,7 +5453,7 @@
       </c>
       <c r="J42" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K42" s="1" t="inlineStr">
@@ -5504,12 +5503,12 @@
       </c>
       <c r="T42" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U42" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V42" s="1" t="inlineStr">
@@ -5524,19 +5523,20 @@
       </c>
       <c r="X42" s="1" t="inlineStr">
         <is>
-          <t>111.00</t>
+          <t>54.00</t>
         </is>
       </c>
       <c r="Y42" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="43" customHeight="true" ht="14.0">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>牛大碗牛腩饭牛腩煲（南商店）</t>
+          <t>泰滋味·泰式海南鸡（
+高新店）</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D43" s="1" t="inlineStr">
@@ -5571,17 +5571,17 @@
       </c>
       <c r="H43" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
+          <t>基础返利6.00;满26.00返12.00;</t>
         </is>
       </c>
       <c r="I43" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J43" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K43" s="1" t="inlineStr">
@@ -5631,12 +5631,12 @@
       </c>
       <c r="T43" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U43" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V43" s="1" t="inlineStr">
@@ -5651,24 +5651,24 @@
       </c>
       <c r="X43" s="1" t="inlineStr">
         <is>
-          <t>92.00</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="Y43" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="44" customHeight="true" ht="14.0">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>猪小八</t>
+          <t>二姐美味小吃</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr">
@@ -5698,22 +5698,22 @@
       </c>
       <c r="H44" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返11.00;</t>
+          <t>基础返利6.00;满23.00返10.00;</t>
         </is>
       </c>
       <c r="I44" s="1" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J44" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L44" s="1" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="O44" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P44" s="1" t="inlineStr">
@@ -5743,12 +5743,12 @@
       </c>
       <c r="Q44" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R44" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S44" s="1" t="inlineStr">
@@ -5758,12 +5758,12 @@
       </c>
       <c r="T44" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U44" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V44" s="1" t="inlineStr">
@@ -5778,19 +5778,19 @@
       </c>
       <c r="X44" s="1" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y44" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="45" customHeight="true" ht="14.0">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>一煲口福</t>
+          <t>鱼你在一起（宁波港隆时代广场店）</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
@@ -5825,90 +5825,471 @@
       </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满26.00返12.00;</t>
+          <t>基础返利6.00;满30.00返13.00;</t>
         </is>
       </c>
       <c r="I45" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="J45" s="1" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="K45" s="1" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L45" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M45" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N45" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O45" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P45" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q45" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="R45" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S45" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T45" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U45" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V45" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W45" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X45" s="1" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="Y45" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" customHeight="true" ht="14.0">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>重庆小面（第6档口小味道美食城店）</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H46" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满20.00返10.00;</t>
+        </is>
+      </c>
+      <c r="I46" s="1" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="J46" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="K46" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L46" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M46" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N46" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O46" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P46" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q46" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R46" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S46" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T46" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U46" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V46" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W46" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X46" s="1" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="Y46" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" customHeight="true" ht="14.0">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>牛大碗牛腩饭牛腩煲（南商店）</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>饿了么</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H47" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返12.00;</t>
+        </is>
+      </c>
+      <c r="I47" s="1" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="J47" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="K47" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L47" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M47" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N47" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O47" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P47" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q47" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R47" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S47" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T47" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U47" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V47" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W47" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X47" s="1" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="Y47" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" customHeight="true" ht="14.0">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>韩之味.石锅拌饭</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>北仑区</t>
+        </is>
+      </c>
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <t>需品鉴意见</t>
+        </is>
+      </c>
+      <c r="H48" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返9.00;</t>
+        </is>
+      </c>
+      <c r="I48" s="1" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="J48" s="1" t="inlineStr">
+        <is>
+          <t>2024-10-28</t>
+        </is>
+      </c>
+      <c r="K48" s="1" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="L45" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M45" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N45" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O45" s="1" t="inlineStr">
+      <c r="L48" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M48" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N48" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O48" s="1" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P45" s="1" t="inlineStr">
+      <c r="P48" s="1" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q45" s="1" t="inlineStr">
+      <c r="Q48" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="R45" s="1" t="inlineStr">
+      <c r="R48" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="S45" s="1" t="inlineStr">
+      <c r="S48" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
         </is>
       </c>
-      <c r="T45" s="1" t="inlineStr">
+      <c r="T48" s="1" t="inlineStr">
         <is>
           <t>张洁茹</t>
         </is>
       </c>
-      <c r="U45" s="1" t="inlineStr">
+      <c r="U48" s="1" t="inlineStr">
         <is>
           <t>张洁茹</t>
         </is>
       </c>
-      <c r="V45" s="1" t="inlineStr">
+      <c r="V48" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="W45" s="1" t="inlineStr">
+      <c r="W48" s="1" t="inlineStr">
         <is>
           <t>预授权类型</t>
         </is>
       </c>
-      <c r="X45" s="1" t="inlineStr">
-        <is>
-          <t>150.00</t>
-        </is>
-      </c>
-      <c r="Y45" s="1" t="inlineStr">
+      <c r="X48" s="1" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+      <c r="Y48" s="1" t="inlineStr">
         <is>
           <t>业务员:张洁茹</t>
         </is>

--- a/data/门店发布统计.xlsx
+++ b/data/门店发布统计.xlsx
@@ -358,27 +358,27 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>需品鉴意见</t>
+          <t>霸王餐需品鉴意见(需图需字)</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返18.00;满15.00返8.00;</t>
+          <t>基础返利6.00;满20.00返17.00;</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>7.00;7.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -398,7 +398,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -448,7 +448,7 @@
       </c>
       <c r="Y2" s="1" t="inlineStr">
         <is>
-          <t>商户:13545368898</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
@@ -485,32 +485,32 @@
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>需品鉴意见</t>
+          <t>霸王餐需品鉴意见(需图需字)</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返18.00;满15.00返8.00;</t>
+          <t>基础返利6.00;满20.00返10.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>7.00;7.00</t>
+          <t>10.00;15.00</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
@@ -570,24 +570,24 @@
       </c>
       <c r="X3" s="1" t="inlineStr">
         <is>
-          <t>252.00</t>
+          <t>136.00</t>
         </is>
       </c>
       <c r="Y3" s="1" t="inlineStr">
         <is>
-          <t>商户:13545368898</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="4" customHeight="true" ht="14.0">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜…</t>
+          <t>冒千味成都火锅麻辣烫..</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -617,22 +617,22 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返12.00;</t>
+          <t>基础返利6.00;满28.00返10.00;</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="U4" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V4" s="1" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="X4" s="1" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y4" s="1" t="inlineStr">
@@ -709,12 +709,12 @@
     <row r="5" customHeight="true" ht="14.0">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>真味豆浆</t>
+          <t>云燕芳·姨妈热饮·鲜…</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -744,32 +744,32 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返14.00;</t>
+          <t>基础返利6.00;满20.00返12.00;</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N5" s="1" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S5" s="1" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="U5" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V5" s="1" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="X5" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="Y5" s="1" t="inlineStr">
@@ -836,17 +836,17 @@
     <row r="6" customHeight="true" ht="14.0">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>汤城新语新中式茶饮（天水广场店）</t>
+          <t>兴宁桥烤鸡（邱隘店）</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -871,17 +871,17 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满22.00返10.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S6" s="1" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="T6" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U6" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>王瑛</t>
         </is>
       </c>
       <c r="V6" s="1" t="inlineStr">
@@ -951,24 +951,24 @@
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="7" customHeight="true" ht="14.0">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>张域小珀一碗酸奶</t>
+          <t>真味豆浆</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -993,32 +993,32 @@
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>需品鉴意见</t>
+          <t>霸王餐需品鉴意见(需图需字)</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满20.00返14.00;</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
@@ -1043,12 +1043,12 @@
       </c>
       <c r="Q7" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S7" s="1" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="U7" s="1" t="inlineStr">
         <is>
-          <t>王瑛</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V7" s="1" t="inlineStr">
@@ -1073,34 +1073,34 @@
       </c>
       <c r="W7" s="1" t="inlineStr">
         <is>
-          <t>预充值类型</t>
+          <t>预授权类型</t>
         </is>
       </c>
       <c r="X7" s="1" t="inlineStr">
         <is>
-          <t>65.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="Y7" s="1" t="inlineStr">
         <is>
-          <t>商户:13291965903</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="8" customHeight="true" ht="14.0">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>张域小珀一碗酸奶</t>
+          <t>汤城新语新中式茶饮（天水广场店）</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
@@ -1115,32 +1115,32 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>需品鉴意见</t>
+          <t>霸王餐需品鉴意见(需图需字)</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满22.00返10.00;</t>
         </is>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
@@ -1170,12 +1170,12 @@
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S8" s="1" t="inlineStr">
@@ -1185,12 +1185,12 @@
       </c>
       <c r="T8" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U8" s="1" t="inlineStr">
         <is>
-          <t>王瑛</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V8" s="1" t="inlineStr">
@@ -1200,17 +1200,17 @@
       </c>
       <c r="W8" s="1" t="inlineStr">
         <is>
-          <t>预充值类型</t>
+          <t>预授权类型</t>
         </is>
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t>65.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
         <is>
-          <t>商户:13291965903</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>71.00</t>
+          <t>88.00</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="X16" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y16" s="1" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
@@ -2487,17 +2487,17 @@
     <row r="19" customHeight="true" ht="14.0">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>西北阁（炒饭·炒面·炒菜）</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
@@ -2522,27 +2522,27 @@
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满30.00返12.00;</t>
         </is>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M19" s="1" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="Q19" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S19" s="1" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="U19" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V19" s="1" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="X19" s="1" t="inlineStr">
         <is>
-          <t>52.00</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="Y19" s="1" t="inlineStr">
@@ -2614,17 +2614,17 @@
     <row r="20" customHeight="true" ht="14.0">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>西北阁（炒饭·炒面·炒菜）</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
@@ -2649,44 +2649,44 @@
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满30.00返12.00;</t>
         </is>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O20" s="1" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M20" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N20" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O20" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -2694,12 +2694,12 @@
       </c>
       <c r="Q20" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S20" s="1" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="U20" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V20" s="1" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="X20" s="1" t="inlineStr">
         <is>
-          <t>64.00</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="Y20" s="1" t="inlineStr">
@@ -2741,7 +2741,7 @@
     <row r="21" customHeight="true" ht="14.0">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
@@ -2776,22 +2776,22 @@
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返12.00;</t>
+          <t>基础返利6.00;满30.00返13.00;</t>
         </is>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
@@ -2821,12 +2821,12 @@
       </c>
       <c r="Q21" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S21" s="1" t="inlineStr">
@@ -2836,12 +2836,12 @@
       </c>
       <c r="T21" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U21" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V21" s="1" t="inlineStr">
@@ -2856,19 +2856,19 @@
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>140.00</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="22" customHeight="true" ht="14.0">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>超能鹿战队·轻食·减脂餐</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
@@ -2903,22 +2903,22 @@
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返12.00;</t>
+          <t>基础返利6.00;满30.00返13.00;</t>
         </is>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
@@ -2948,12 +2948,12 @@
       </c>
       <c r="Q22" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S22" s="1" t="inlineStr">
@@ -2963,12 +2963,12 @@
       </c>
       <c r="T22" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U22" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V22" s="1" t="inlineStr">
@@ -2983,24 +2983,24 @@
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>140.00</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="23" customHeight="true" ht="14.0">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
+          <t>川川婆娘·地道老川菜</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>余姚市</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
@@ -3030,17 +3030,17 @@
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返13.00;</t>
+          <t>基础返利6.00;满25.00返15.00;</t>
         </is>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="U23" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V23" s="1" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>140.00</t>
+          <t>88.00</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
@@ -3122,7 +3122,7 @@
     <row r="24" customHeight="true" ht="14.0">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐</t>
+          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
@@ -3157,22 +3157,22 @@
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返13.00;</t>
+          <t>基础返利6.00;满23.00返11.00;</t>
         </is>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P24" s="1" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t>140.00</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
@@ -3249,17 +3249,17 @@
     <row r="25" customHeight="true" ht="14.0">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>川川婆娘·地道老川菜</t>
+          <t>嵊州小吃（范江岸路店）</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>余姚市</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
@@ -3284,17 +3284,17 @@
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返15.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
@@ -3329,12 +3329,12 @@
       </c>
       <c r="Q25" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S25" s="1" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="U25" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V25" s="1" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>71.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
@@ -3376,7 +3376,7 @@
     <row r="26" customHeight="true" ht="14.0">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
@@ -3411,22 +3411,22 @@
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满23.00返11.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P26" s="1" t="inlineStr">
@@ -3456,12 +3456,12 @@
       </c>
       <c r="Q26" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S26" s="1" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="X26" s="1" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y26" s="1" t="inlineStr">
@@ -3503,12 +3503,12 @@
     <row r="27" customHeight="true" ht="14.0">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>嵊州小吃（范江岸路店）</t>
+          <t>饭香木桶饭</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>北仑区</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
@@ -3538,22 +3538,22 @@
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P27" s="1" t="inlineStr">
@@ -3583,12 +3583,12 @@
       </c>
       <c r="Q27" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S27" s="1" t="inlineStr">
@@ -3598,12 +3598,12 @@
       </c>
       <c r="T27" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U27" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V27" s="1" t="inlineStr">
@@ -3618,29 +3618,29 @@
       </c>
       <c r="X27" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>54.00</t>
         </is>
       </c>
       <c r="Y27" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="28" customHeight="true" ht="14.0">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>叙茶拾光ChaTime</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>北仑区</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
@@ -3665,22 +3665,22 @@
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P28" s="1" t="inlineStr">
@@ -3710,12 +3710,12 @@
       </c>
       <c r="Q28" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S28" s="1" t="inlineStr">
@@ -3725,12 +3725,12 @@
       </c>
       <c r="T28" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U28" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V28" s="1" t="inlineStr">
@@ -3745,24 +3745,24 @@
       </c>
       <c r="X28" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="Y28" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="29" customHeight="true" ht="14.0">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>饭香木桶饭</t>
+          <t>西引①手作意面·焗饭</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
@@ -3792,22 +3792,22 @@
       </c>
       <c r="H29" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满25.00返11.00;</t>
         </is>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P29" s="1" t="inlineStr">
@@ -3852,12 +3852,12 @@
       </c>
       <c r="T29" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U29" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V29" s="1" t="inlineStr">
@@ -3872,29 +3872,29 @@
       </c>
       <c r="X29" s="1" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="Y29" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="30" customHeight="true" ht="14.0">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>叙茶拾光ChaTime</t>
+          <t>余老哥月半湾夜宵城透明餐厅</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
@@ -3919,17 +3919,17 @@
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满30.00返10.00;</t>
         </is>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="U30" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V30" s="1" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="X30" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="Y30" s="1" t="inlineStr">
@@ -4011,7 +4011,7 @@
     <row r="31" customHeight="true" ht="14.0">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>西引①手作意面·焗饭</t>
+          <t>巧匠凉皮（热干面凉面）</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
@@ -4046,17 +4046,17 @@
       </c>
       <c r="H31" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返11.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
@@ -4106,12 +4106,12 @@
       </c>
       <c r="T31" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U31" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V31" s="1" t="inlineStr">
@@ -4126,19 +4126,19 @@
       </c>
       <c r="X31" s="1" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="Y31" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="32" customHeight="true" ht="14.0">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>余老哥月半湾夜宵城透明餐厅</t>
+          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
@@ -4173,22 +4173,22 @@
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返8.00;</t>
+          <t>基础返利6.00;满35.00返15.00;</t>
         </is>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="O32" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P32" s="1" t="inlineStr">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="U32" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>刘忠伟</t>
         </is>
       </c>
       <c r="V32" s="1" t="inlineStr">
@@ -4265,7 +4265,7 @@
     <row r="33" customHeight="true" ht="14.0">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>巧匠凉皮（热干面凉面）</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
@@ -4300,17 +4300,17 @@
       </c>
       <c r="H33" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满25.00返11.00;</t>
         </is>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="X33" s="1" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="Y33" s="1" t="inlineStr">
@@ -4392,17 +4392,17 @@
     <row r="34" customHeight="true" ht="14.0">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>袁小姐冒菜·小火锅</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>⽕锅冒菜</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
@@ -4427,17 +4427,17 @@
       </c>
       <c r="H34" s="1" t="inlineStr">
         <is>
-          <t>基础返利0.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满25.00返11.00;</t>
         </is>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
@@ -4487,12 +4487,12 @@
       </c>
       <c r="T34" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U34" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V34" s="1" t="inlineStr">
@@ -4507,24 +4507,24 @@
       </c>
       <c r="X34" s="1" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="Y34" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="35" customHeight="true" ht="14.0">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
+          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
@@ -4554,17 +4554,17 @@
       </c>
       <c r="H35" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返10.00;</t>
+          <t>基础返利6.00;满25.00返11.00;</t>
         </is>
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
@@ -4614,12 +4614,12 @@
       </c>
       <c r="T35" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U35" s="1" t="inlineStr">
         <is>
-          <t>刘忠伟</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V35" s="1" t="inlineStr">
@@ -4634,24 +4634,24 @@
       </c>
       <c r="X35" s="1" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y35" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="36" customHeight="true" ht="14.0">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
@@ -4681,22 +4681,22 @@
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返11.00;</t>
+          <t>基础返利6.00;满40.00返19.00;</t>
         </is>
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L36" s="1" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P36" s="1" t="inlineStr">
@@ -4741,12 +4741,12 @@
       </c>
       <c r="T36" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U36" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V36" s="1" t="inlineStr">
@@ -4761,29 +4761,29 @@
       </c>
       <c r="X36" s="1" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y36" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="37" customHeight="true" ht="14.0">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>平价烧烤小吃</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
@@ -4808,17 +4808,17 @@
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返11.00;</t>
+          <t>基础返利6.00;满110.00返52.00;</t>
         </is>
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>58.00</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
@@ -4853,12 +4853,12 @@
       </c>
       <c r="Q37" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R37" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S37" s="1" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="X37" s="1" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>92.00</t>
         </is>
       </c>
       <c r="Y37" s="1" t="inlineStr">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
@@ -4955,22 +4955,22 @@
       </c>
       <c r="L38" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M38" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N38" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P38" s="1" t="inlineStr">
@@ -5027,17 +5027,17 @@
     <row r="39" customHeight="true" ht="14.0">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>潮汕猪肚鸡汤饭</t>
+          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr">
@@ -5057,27 +5057,27 @@
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>需品鉴意见</t>
+          <t>霸王餐需品鉴意见(需图需字)</t>
         </is>
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满23.00返10.00;</t>
         </is>
       </c>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J39" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L39" s="1" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="O39" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P39" s="1" t="inlineStr">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="X39" s="1" t="inlineStr">
         <is>
-          <t>52.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="Y39" s="1" t="inlineStr">
@@ -5154,7 +5154,7 @@
     <row r="40" customHeight="true" ht="14.0">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>乇娘拌粉</t>
+          <t>乇娘拌粉（世纪东方店）透明餐厅</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -5189,17 +5189,17 @@
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返12.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J40" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K40" s="1" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="L40" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M40" s="1" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O40" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P40" s="1" t="inlineStr">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="X40" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>164.00</t>
         </is>
       </c>
       <c r="Y40" s="1" t="inlineStr">
@@ -5281,17 +5281,18 @@
     <row r="41" customHeight="true" ht="14.0">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
+          <t>泰滋味·泰式海南鸡（
+高新店）</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
@@ -5306,7 +5307,7 @@
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
@@ -5316,42 +5317,42 @@
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满23.00返10.00;</t>
+          <t>基础返利6.00;满26.00返12.00;</t>
         </is>
       </c>
       <c r="I41" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J41" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L41" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M41" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N41" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O41" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P41" s="1" t="inlineStr">
@@ -5376,12 +5377,12 @@
       </c>
       <c r="T41" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U41" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V41" s="1" t="inlineStr">
@@ -5396,19 +5397,19 @@
       </c>
       <c r="X41" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="Y41" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="42" customHeight="true" ht="14.0">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>胖子家酸菜鱼</t>
+          <t>二姐美味小吃</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -5433,7 +5434,7 @@
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
@@ -5443,22 +5444,22 @@
       </c>
       <c r="H42" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满23.00返10.00;</t>
         </is>
       </c>
       <c r="I42" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J42" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L42" s="1" t="inlineStr">
@@ -5478,7 +5479,7 @@
       </c>
       <c r="O42" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P42" s="1" t="inlineStr">
@@ -5503,12 +5504,12 @@
       </c>
       <c r="T42" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U42" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V42" s="1" t="inlineStr">
@@ -5523,20 +5524,19 @@
       </c>
       <c r="X42" s="1" t="inlineStr">
         <is>
-          <t>54.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y42" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="43" customHeight="true" ht="14.0">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（
-高新店）</t>
+          <t>鱼你在一起（宁波港隆时代广场店）</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
@@ -5571,17 +5571,17 @@
       </c>
       <c r="H43" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满26.00返12.00;</t>
+          <t>基础返利6.00;满30.00返13.00;</t>
         </is>
       </c>
       <c r="I43" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="J43" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K43" s="1" t="inlineStr">
@@ -5616,12 +5616,12 @@
       </c>
       <c r="Q43" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R43" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S43" s="1" t="inlineStr">
@@ -5631,12 +5631,12 @@
       </c>
       <c r="T43" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U43" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V43" s="1" t="inlineStr">
@@ -5651,19 +5651,19 @@
       </c>
       <c r="X43" s="1" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>175.00</t>
         </is>
       </c>
       <c r="Y43" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="44" customHeight="true" ht="14.0">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>二姐美味小吃</t>
+          <t>韩之味.石锅拌饭</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>北仑区</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
@@ -5698,22 +5698,22 @@
       </c>
       <c r="H44" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满23.00返10.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I44" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J44" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L44" s="1" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="O44" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P44" s="1" t="inlineStr">
@@ -5743,12 +5743,12 @@
       </c>
       <c r="Q44" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R44" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S44" s="1" t="inlineStr">
@@ -5758,12 +5758,12 @@
       </c>
       <c r="T44" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U44" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V44" s="1" t="inlineStr">
@@ -5778,24 +5778,24 @@
       </c>
       <c r="X44" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>108.00</t>
         </is>
       </c>
       <c r="Y44" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="45" customHeight="true" ht="14.0">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
+          <t>BELLACAKE蛋糕·甜品</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr">
@@ -5825,17 +5825,17 @@
       </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返13.00;</t>
+          <t>基础返利6.00;满80.00返37.00;</t>
         </is>
       </c>
       <c r="I45" s="1" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="J45" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K45" s="1" t="inlineStr">
@@ -5845,22 +5845,22 @@
       </c>
       <c r="L45" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M45" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N45" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O45" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P45" s="1" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="Q45" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R45" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S45" s="1" t="inlineStr">
@@ -5885,12 +5885,12 @@
       </c>
       <c r="T45" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U45" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V45" s="1" t="inlineStr">
@@ -5905,19 +5905,19 @@
       </c>
       <c r="X45" s="1" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>274.00</t>
         </is>
       </c>
       <c r="Y45" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="46" customHeight="true" ht="14.0">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>重庆小面（第6档口小味道美食城店）</t>
+          <t>南雲上品·瓦香鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D46" s="1" t="inlineStr">
@@ -5942,42 +5942,42 @@
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
+          <t>无需品鉴意见</t>
         </is>
       </c>
       <c r="H46" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满25.00返9.00;</t>
         </is>
       </c>
       <c r="I46" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="J46" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K46" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L46" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M46" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N46" s="1" t="inlineStr">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="O46" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P46" s="1" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="X46" s="1" t="inlineStr">
         <is>
-          <t>72.00</t>
+          <t>240.00</t>
         </is>
       </c>
       <c r="Y46" s="1" t="inlineStr">
@@ -6044,7 +6044,7 @@
     <row r="47" customHeight="true" ht="14.0">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>牛大碗牛腩饭牛腩煲（南商店）</t>
+          <t>南雲上品·瓦香鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
@@ -6079,27 +6079,27 @@
       </c>
       <c r="H47" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
+          <t>基础返利6.00;满25.00返9.00;</t>
         </is>
       </c>
       <c r="I47" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="J47" s="1" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="K47" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L47" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M47" s="1" t="inlineStr">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="O47" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P47" s="1" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="X47" s="1" t="inlineStr">
         <is>
-          <t>77.00</t>
+          <t>240.00</t>
         </is>
       </c>
       <c r="Y47" s="1" t="inlineStr">
@@ -6171,127 +6171,254 @@
     <row r="48" customHeight="true" ht="14.0">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>韩之味.石锅拌饭</t>
+          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
+          <t>饿了么</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>海曙区</t>
+        </is>
+      </c>
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H48" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满30.00返15.00;</t>
+        </is>
+      </c>
+      <c r="I48" s="1" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="J48" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="K48" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L48" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M48" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N48" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O48" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P48" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q48" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R48" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S48" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T48" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U48" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V48" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W48" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X48" s="1" t="inlineStr">
+        <is>
+          <t>275.00</t>
+        </is>
+      </c>
+      <c r="Y48" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" customHeight="true" ht="14.0">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>电商产品</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
           <t>美团</t>
         </is>
       </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="D49" s="1" t="inlineStr">
         <is>
           <t>浙江省</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E49" s="1" t="inlineStr">
         <is>
           <t>宁波市</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
-        <is>
-          <t>北仑区</t>
-        </is>
-      </c>
-      <c r="G48" s="1" t="inlineStr">
-        <is>
-          <t>需品鉴意见</t>
-        </is>
-      </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返9.00;</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="J48" s="1" t="inlineStr">
-        <is>
-          <t>2024-10-28</t>
-        </is>
-      </c>
-      <c r="K48" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L48" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M48" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N48" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O48" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P48" s="1" t="inlineStr">
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>海曙区</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H49" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满78.00返35.00;</t>
+        </is>
+      </c>
+      <c r="I49" s="1" t="inlineStr">
+        <is>
+          <t>43.00</t>
+        </is>
+      </c>
+      <c r="J49" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="K49" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L49" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M49" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N49" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O49" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P49" s="1" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q48" s="1" t="inlineStr">
+      <c r="Q49" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="R48" s="1" t="inlineStr">
+      <c r="R49" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="S48" s="1" t="inlineStr">
+      <c r="S49" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
         </is>
       </c>
-      <c r="T48" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U48" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V48" s="1" t="inlineStr">
+      <c r="T49" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U49" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V49" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="W48" s="1" t="inlineStr">
+      <c r="W49" s="1" t="inlineStr">
         <is>
           <t>预授权类型</t>
         </is>
       </c>
-      <c r="X48" s="1" t="inlineStr">
-        <is>
-          <t>120.00</t>
-        </is>
-      </c>
-      <c r="Y48" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
+      <c r="X49" s="1" t="inlineStr">
+        <is>
+          <t>275.00</t>
+        </is>
+      </c>
+      <c r="Y49" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>

--- a/data/门店发布统计.xlsx
+++ b/data/门店发布统计.xlsx
@@ -328,17 +328,17 @@
     <row r="2" customHeight="true" ht="14.0">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>吉小果新鲜水果</t>
+          <t>云燕芳·姨妈热饮·鲜…</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>水果果切</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -353,7 +353,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -363,59 +363,59 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返17.00;</t>
+          <t>基础返利6.00;满20.00返12.00;</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>2024-11-01</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="S2" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -423,12 +423,12 @@
       </c>
       <c r="T2" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U2" s="1" t="inlineStr">
         <is>
-          <t>王瑛</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V2" s="1" t="inlineStr">
@@ -438,34 +438,34 @@
       </c>
       <c r="W2" s="1" t="inlineStr">
         <is>
-          <t>预充值类型</t>
+          <t>预授权类型</t>
         </is>
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="3" customHeight="true" ht="14.0">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>吉小果（果切·果捞·灵峰路店）</t>
+          <t>兴宁桥烤鸡（邱隘店）</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>水果果切</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -490,22 +490,22 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;满30.00返15.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>10.00;15.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="T3" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U3" s="1" t="inlineStr">
@@ -565,29 +565,29 @@
       </c>
       <c r="W3" s="1" t="inlineStr">
         <is>
-          <t>预充值类型</t>
+          <t>预授权类型</t>
         </is>
       </c>
       <c r="X3" s="1" t="inlineStr">
         <is>
-          <t>136.00</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="Y3" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="4" customHeight="true" ht="14.0">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>冒千味成都火锅麻辣烫..</t>
+          <t>汤城新语新中式茶饮（天水广场店）</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>⽕锅冒菜</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -617,22 +617,22 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满28.00返10.00;</t>
+          <t>基础返利6.00;满22.00返10.00;</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S4" s="1" t="inlineStr">
@@ -677,12 +677,12 @@
       </c>
       <c r="T4" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U4" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V4" s="1" t="inlineStr">
@@ -697,24 +697,24 @@
       </c>
       <c r="X4" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y4" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="5" customHeight="true" ht="14.0">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜…</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返12.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="U5" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V5" s="1" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="X5" s="1" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>39.00</t>
         </is>
       </c>
       <c r="Y5" s="1" t="inlineStr">
@@ -836,7 +836,7 @@
     <row r="6" customHeight="true" ht="14.0">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>兴宁桥烤鸡（邱隘店）</t>
+          <t>梁弄大糕呆呆美糕</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -871,17 +871,17 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满20.00返8.00;</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S6" s="1" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="U6" s="1" t="inlineStr">
         <is>
-          <t>王瑛</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V6" s="1" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
@@ -963,17 +963,17 @@
     <row r="7" customHeight="true" ht="14.0">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>真味豆浆</t>
+          <t>梁弄大糕呆呆美糕（清湖路店）</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -998,44 +998,44 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返14.00;</t>
+          <t>基础返利6.00;满20.00返8.00;</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M7" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N7" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="X7" s="1" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="Y7" s="1" t="inlineStr">
@@ -1090,12 +1090,12 @@
     <row r="8" customHeight="true" ht="14.0">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>汤城新语新中式茶饮（天水广场店）</t>
+          <t>西施凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -1125,22 +1125,22 @@
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满22.00返10.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
@@ -1217,17 +1217,17 @@
     <row r="9" customHeight="true" ht="14.0">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>西施·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -1252,27 +1252,27 @@
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr">
@@ -1297,12 +1297,12 @@
       </c>
       <c r="Q9" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S9" s="1" t="inlineStr">
@@ -1312,12 +1312,12 @@
       </c>
       <c r="T9" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U9" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V9" s="1" t="inlineStr">
@@ -1332,29 +1332,29 @@
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="10" customHeight="true" ht="14.0">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
@@ -1379,22 +1379,22 @@
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返8.00;</t>
+          <t>基础返利6.00;满24.00返8.00;</t>
         </is>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="U10" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V10" s="1" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="X10" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y10" s="1" t="inlineStr">
@@ -1471,17 +1471,17 @@
     <row r="11" customHeight="true" ht="14.0">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕（清湖路店）</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
@@ -1506,22 +1506,22 @@
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返8.00;</t>
+          <t>基础返利6.00;满20.00返12.00;满50.00返27.00;</t>
         </is>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>8.00;23.00</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S11" s="1" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="U11" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V11" s="1" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="X11" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="Y11" s="1" t="inlineStr">
@@ -1598,12 +1598,12 @@
     <row r="12" customHeight="true" ht="14.0">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>川婆娘·地道老川川菜</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>余姚市</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
@@ -1633,22 +1633,22 @@
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返15.00;</t>
+          <t>基础返利6.00;满25.00返8.00;</t>
         </is>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
@@ -1693,12 +1693,12 @@
       </c>
       <c r="T12" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U12" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V12" s="1" t="inlineStr">
@@ -1713,24 +1713,24 @@
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>88.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="13" customHeight="true" ht="14.0">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>西施凉皮（宁波大学店）</t>
+          <t>稻香过桥米线（余姚店）</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>余姚市</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
@@ -1760,22 +1760,22 @@
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满20.00返12.00;</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y13" s="1" t="inlineStr">
@@ -1852,12 +1852,12 @@
     <row r="14" customHeight="true" ht="14.0">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>西施·凉皮（宁波大学店）</t>
+          <t>西北阁（炒饭·炒面·炒菜）</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满20.00返11.00;</t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M14" s="1" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="T14" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U14" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V14" s="1" t="inlineStr">
@@ -1967,29 +1967,29 @@
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="15" customHeight="true" ht="14.0">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
@@ -2014,22 +2014,22 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满24.00返8.00;</t>
+          <t>基础返利6.00;满30.00返12.00;</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S15" s="1" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="U15" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V15" s="1" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y15" s="1" t="inlineStr">
@@ -2106,17 +2106,17 @@
     <row r="16" customHeight="true" ht="14.0">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
@@ -2141,22 +2141,22 @@
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返12.00;满50.00返27.00;</t>
+          <t>基础返利6.00;满30.00返12.00;</t>
         </is>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>8.00;23.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P16" s="1" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="U16" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V16" s="1" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="X16" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y16" s="1" t="inlineStr">
@@ -2233,7 +2233,7 @@
     <row r="17" customHeight="true" ht="14.0">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返8.00;</t>
+          <t>基础返利6.00;满30.00返13.00;</t>
         </is>
       </c>
       <c r="I17" s="1" t="inlineStr">
@@ -2278,12 +2278,12 @@
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
@@ -2328,12 +2328,12 @@
       </c>
       <c r="T17" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U17" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V17" s="1" t="inlineStr">
@@ -2348,24 +2348,24 @@
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>62.00</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="18" customHeight="true" ht="14.0">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>稻香过桥米线（余姚店）</t>
+          <t>超能鹿战队·轻食·减脂餐</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>余姚市</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
@@ -2395,22 +2395,22 @@
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返12.00;</t>
+          <t>基础返利6.00;满30.00返13.00;</t>
         </is>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="U18" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V18" s="1" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>62.00</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
@@ -2487,7 +2487,7 @@
     <row r="19" customHeight="true" ht="14.0">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
@@ -2522,22 +2522,22 @@
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返12.00;</t>
+          <t>基础返利6.00;满23.00返11.00;</t>
         </is>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="Q19" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S19" s="1" t="inlineStr">
@@ -2582,12 +2582,12 @@
       </c>
       <c r="T19" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U19" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V19" s="1" t="inlineStr">
@@ -2602,19 +2602,19 @@
       </c>
       <c r="X19" s="1" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="Y19" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="20" customHeight="true" ht="14.0">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>嵊州小吃（范江岸路店）</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
@@ -2649,22 +2649,22 @@
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返12.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="T20" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U20" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V20" s="1" t="inlineStr">
@@ -2729,19 +2729,19 @@
       </c>
       <c r="X20" s="1" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>87.00</t>
         </is>
       </c>
       <c r="Y20" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="21" customHeight="true" ht="14.0">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
@@ -2776,22 +2776,22 @@
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返13.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
@@ -2821,12 +2821,12 @@
       </c>
       <c r="Q21" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S21" s="1" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>140.00</t>
+          <t>87.00</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
@@ -2868,12 +2868,12 @@
     <row r="22" customHeight="true" ht="14.0">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐</t>
+          <t>饭香木桶饭</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>北仑区</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
@@ -2903,22 +2903,22 @@
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返13.00;</t>
+          <t>基础返利6.00;满20.00返8.00;</t>
         </is>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
@@ -2963,12 +2963,12 @@
       </c>
       <c r="T22" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U22" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V22" s="1" t="inlineStr">
@@ -2983,29 +2983,29 @@
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>140.00</t>
+          <t>138.00</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="23" customHeight="true" ht="14.0">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>川川婆娘·地道老川菜</t>
+          <t>西引①手作意面·焗饭</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>余姚市</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
@@ -3030,22 +3030,22 @@
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返15.00;</t>
+          <t>基础返利6.00;满25.00返11.00;</t>
         </is>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="U23" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V23" s="1" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>88.00</t>
+          <t>82.00</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
@@ -3122,12 +3122,12 @@
     <row r="24" customHeight="true" ht="14.0">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
+          <t>余老哥月半湾夜宵城透明餐厅</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
@@ -3157,17 +3157,17 @@
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满23.00返11.00;</t>
+          <t>基础返利6.00;满50.00返23.00;</t>
         </is>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="T24" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U24" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V24" s="1" t="inlineStr">
@@ -3237,24 +3237,24 @@
       </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>168.00</t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="25" customHeight="true" ht="14.0">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>嵊州小吃（范江岸路店）</t>
+          <t>袁小姐冒菜·小火锅</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
@@ -3284,22 +3284,22 @@
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P25" s="1" t="inlineStr">
@@ -3329,12 +3329,12 @@
       </c>
       <c r="Q25" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S25" s="1" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="U25" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V25" s="1" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
@@ -3376,17 +3376,17 @@
     <row r="26" customHeight="true" ht="14.0">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
@@ -3411,17 +3411,17 @@
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满50.00返23.00;</t>
         </is>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
@@ -3431,22 +3431,22 @@
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M26" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N26" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P26" s="1" t="inlineStr">
@@ -3456,12 +3456,12 @@
       </c>
       <c r="Q26" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S26" s="1" t="inlineStr">
@@ -3471,12 +3471,12 @@
       </c>
       <c r="T26" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U26" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>刘忠伟</t>
         </is>
       </c>
       <c r="V26" s="1" t="inlineStr">
@@ -3491,24 +3491,24 @@
       </c>
       <c r="X26" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>168.00</t>
         </is>
       </c>
       <c r="Y26" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="27" customHeight="true" ht="14.0">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>饭香木桶饭</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
@@ -3538,22 +3538,22 @@
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满25.00返11.00;</t>
         </is>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P27" s="1" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="U27" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V27" s="1" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="X27" s="1" t="inlineStr">
         <is>
-          <t>54.00</t>
+          <t>148.00</t>
         </is>
       </c>
       <c r="Y27" s="1" t="inlineStr">
@@ -3630,17 +3630,17 @@
     <row r="28" customHeight="true" ht="14.0">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>叙茶拾光ChaTime</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
@@ -3665,17 +3665,17 @@
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满25.00返11.00;</t>
         </is>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M28" s="1" t="inlineStr">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P28" s="1" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="X28" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>148.00</t>
         </is>
       </c>
       <c r="Y28" s="1" t="inlineStr">
@@ -3757,12 +3757,12 @@
     <row r="29" customHeight="true" ht="14.0">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>西引①手作意面·焗饭</t>
+          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
@@ -3792,27 +3792,27 @@
       </c>
       <c r="H29" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返11.00;</t>
+          <t>基础返利6.00;满40.00返20.00;</t>
         </is>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M29" s="1" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P29" s="1" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="U29" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V29" s="1" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="X29" s="1" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="Y29" s="1" t="inlineStr">
@@ -3884,17 +3884,17 @@
     <row r="30" customHeight="true" ht="14.0">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>余老哥月半湾夜宵城透明餐厅</t>
+          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
@@ -3919,22 +3919,22 @@
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返10.00;</t>
+          <t>基础返利6.00;满25.00返12.00;</t>
         </is>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P30" s="1" t="inlineStr">
@@ -3979,12 +3979,12 @@
       </c>
       <c r="T30" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U30" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V30" s="1" t="inlineStr">
@@ -3999,24 +3999,24 @@
       </c>
       <c r="X30" s="1" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="Y30" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="31" customHeight="true" ht="14.0">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>巧匠凉皮（热干面凉面）</t>
+          <t>平价烧烤小吃</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
@@ -4046,17 +4046,17 @@
       </c>
       <c r="H31" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满110.00返52.00;</t>
         </is>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>58.00</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
@@ -4091,12 +4091,12 @@
       </c>
       <c r="Q31" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S31" s="1" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="X31" s="1" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>57.00</t>
         </is>
       </c>
       <c r="Y31" s="1" t="inlineStr">
@@ -4138,7 +4138,7 @@
     <row r="32" customHeight="true" ht="14.0">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
+          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
@@ -4173,22 +4173,22 @@
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满35.00返15.00;</t>
+          <t>基础返利6.00;满23.00返10.00;</t>
         </is>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="O32" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P32" s="1" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="Q32" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S32" s="1" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="T32" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U32" s="1" t="inlineStr">
         <is>
-          <t>刘忠伟</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V32" s="1" t="inlineStr">
@@ -4253,24 +4253,25 @@
       </c>
       <c r="X32" s="1" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y32" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="33" customHeight="true" ht="14.0">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>泰滋味·泰式海南鸡（
+高新店）</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
@@ -4290,7 +4291,7 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
@@ -4300,7 +4301,7 @@
       </c>
       <c r="H33" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返11.00;</t>
+          <t>基础返利6.00;满26.00返12.00;</t>
         </is>
       </c>
       <c r="I33" s="1" t="inlineStr">
@@ -4310,12 +4311,12 @@
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
@@ -4335,7 +4336,7 @@
       </c>
       <c r="O33" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P33" s="1" t="inlineStr">
@@ -4345,12 +4346,12 @@
       </c>
       <c r="Q33" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S33" s="1" t="inlineStr">
@@ -4380,7 +4381,7 @@
       </c>
       <c r="X33" s="1" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>57.00</t>
         </is>
       </c>
       <c r="Y33" s="1" t="inlineStr">
@@ -4392,17 +4393,17 @@
     <row r="34" customHeight="true" ht="14.0">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>鱼你在一起（宁波港隆时代广场店）</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
@@ -4417,7 +4418,7 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
@@ -4427,42 +4428,42 @@
       </c>
       <c r="H34" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返11.00;</t>
+          <t>基础返利6.00;满30.00返13.00;</t>
         </is>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M34" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N34" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P34" s="1" t="inlineStr">
@@ -4487,12 +4488,12 @@
       </c>
       <c r="T34" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U34" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V34" s="1" t="inlineStr">
@@ -4507,19 +4508,19 @@
       </c>
       <c r="X34" s="1" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y34" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="35" customHeight="true" ht="14.0">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
+          <t>韩之味.石锅拌饭</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -4544,7 +4545,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>北仑区</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
@@ -4554,22 +4555,22 @@
       </c>
       <c r="H35" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返11.00;</t>
+          <t>基础返利6.00;满25.00返8.00;</t>
         </is>
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
@@ -4589,7 +4590,7 @@
       </c>
       <c r="O35" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P35" s="1" t="inlineStr">
@@ -4614,12 +4615,12 @@
       </c>
       <c r="T35" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U35" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V35" s="1" t="inlineStr">
@@ -4634,24 +4635,24 @@
       </c>
       <c r="X35" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>120.00</t>
         </is>
       </c>
       <c r="Y35" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="36" customHeight="true" ht="14.0">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
+          <t>BELLACAKE蛋糕·甜品</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
@@ -4681,22 +4682,22 @@
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满40.00返19.00;</t>
+          <t>基础返利6.00;满30.00返20.00;</t>
         </is>
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L36" s="1" t="inlineStr">
@@ -4716,7 +4717,7 @@
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P36" s="1" t="inlineStr">
@@ -4726,12 +4727,12 @@
       </c>
       <c r="Q36" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R36" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S36" s="1" t="inlineStr">
@@ -4741,12 +4742,12 @@
       </c>
       <c r="T36" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U36" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V36" s="1" t="inlineStr">
@@ -4761,24 +4762,24 @@
       </c>
       <c r="X36" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y36" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="37" customHeight="true" ht="14.0">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>平价烧烤小吃</t>
+          <t>鑫悦衢州鸭头</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
@@ -4798,7 +4799,7 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>慈溪市</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
@@ -4808,22 +4809,22 @@
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满110.00返52.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>58.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L37" s="1" t="inlineStr">
@@ -4843,7 +4844,7 @@
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P37" s="1" t="inlineStr">
@@ -4868,12 +4869,12 @@
       </c>
       <c r="T37" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U37" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V37" s="1" t="inlineStr">
@@ -4888,29 +4889,29 @@
       </c>
       <c r="X37" s="1" t="inlineStr">
         <is>
-          <t>92.00</t>
+          <t>65.00</t>
         </is>
       </c>
       <c r="Y37" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="38" customHeight="true" ht="14.0">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>储缘蛋糕（北仑店）</t>
+          <t>哆味鲜烧爆汁饭</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
@@ -4925,7 +4926,7 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
@@ -4935,17 +4936,17 @@
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返25.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
@@ -4955,22 +4956,22 @@
       </c>
       <c r="L38" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M38" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N38" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P38" s="1" t="inlineStr">
@@ -4980,12 +4981,12 @@
       </c>
       <c r="Q38" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R38" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S38" s="1" t="inlineStr">
@@ -5000,7 +5001,7 @@
       </c>
       <c r="U38" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V38" s="1" t="inlineStr">
@@ -5015,7 +5016,7 @@
       </c>
       <c r="X38" s="1" t="inlineStr">
         <is>
-          <t>102.00</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="Y38" s="1" t="inlineStr">
@@ -5027,32 +5028,32 @@
     <row r="39" customHeight="true" ht="14.0">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
+          <t>嫣然苡茉（柳州城中万达店）</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>浙江省</t>
+          <t>广西壮族自治区</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>宁波市</t>
+          <t>柳州市</t>
         </is>
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>城中区</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
@@ -5062,57 +5063,57 @@
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满23.00返10.00;</t>
+          <t>基础返利6.00;满25.00返22.00;</t>
         </is>
       </c>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J39" s="1" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-08</t>
         </is>
       </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L39" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M39" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N39" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O39" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P39" s="1" t="inlineStr">
         <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="Q39" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q39" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="R39" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="S39" s="1" t="inlineStr">
@@ -5127,7 +5128,7 @@
       </c>
       <c r="U39" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>肖莹</t>
         </is>
       </c>
       <c r="V39" s="1" t="inlineStr">
@@ -5142,1281 +5143,10 @@
       </c>
       <c r="X39" s="1" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>300.00</t>
         </is>
       </c>
       <c r="Y39" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" customHeight="true" ht="14.0">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>乇娘拌粉（世纪东方店）透明餐厅</t>
-        </is>
-      </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E40" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F40" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G40" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="J40" s="1" t="inlineStr">
-        <is>
-          <t>2024-11-01</t>
-        </is>
-      </c>
-      <c r="K40" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="L40" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M40" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N40" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O40" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P40" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q40" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R40" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S40" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T40" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U40" s="1" t="inlineStr">
-        <is>
-          <t>王雨婷</t>
-        </is>
-      </c>
-      <c r="V40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W40" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X40" s="1" t="inlineStr">
-        <is>
-          <t>164.00</t>
-        </is>
-      </c>
-      <c r="Y40" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" customHeight="true" ht="14.0">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>泰滋味·泰式海南鸡（
-高新店）</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F41" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G41" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满26.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="J41" s="1" t="inlineStr">
-        <is>
-          <t>2024-11-01</t>
-        </is>
-      </c>
-      <c r="K41" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L41" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M41" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N41" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O41" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P41" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q41" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R41" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S41" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T41" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U41" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W41" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X41" s="1" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="Y41" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" customHeight="true" ht="14.0">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>二姐美味小吃</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E42" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F42" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G42" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满23.00返10.00;</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J42" s="1" t="inlineStr">
-        <is>
-          <t>2024-11-01</t>
-        </is>
-      </c>
-      <c r="K42" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L42" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M42" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N42" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O42" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P42" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q42" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R42" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S42" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T42" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U42" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W42" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X42" s="1" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
-      <c r="Y42" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" customHeight="true" ht="14.0">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F43" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G43" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满30.00返13.00;</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
-        <is>
-          <t>17.00</t>
-        </is>
-      </c>
-      <c r="J43" s="1" t="inlineStr">
-        <is>
-          <t>2024-11-01</t>
-        </is>
-      </c>
-      <c r="K43" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L43" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M43" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N43" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O43" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P43" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q43" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="R43" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="S43" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T43" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U43" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W43" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X43" s="1" t="inlineStr">
-        <is>
-          <t>175.00</t>
-        </is>
-      </c>
-      <c r="Y43" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" customHeight="true" ht="14.0">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>韩之味.石锅拌饭</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E44" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F44" s="1" t="inlineStr">
-        <is>
-          <t>北仑区</t>
-        </is>
-      </c>
-      <c r="G44" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="J44" s="1" t="inlineStr">
-        <is>
-          <t>2024-11-01</t>
-        </is>
-      </c>
-      <c r="K44" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L44" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M44" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N44" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O44" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P44" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q44" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="R44" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="S44" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T44" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U44" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W44" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X44" s="1" t="inlineStr">
-        <is>
-          <t>108.00</t>
-        </is>
-      </c>
-      <c r="Y44" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="45" customHeight="true" ht="14.0">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>BELLACAKE蛋糕·甜品</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F45" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G45" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满80.00返37.00;</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
-        <is>
-          <t>43.00</t>
-        </is>
-      </c>
-      <c r="J45" s="1" t="inlineStr">
-        <is>
-          <t>2024-11-01</t>
-        </is>
-      </c>
-      <c r="K45" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L45" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M45" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N45" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O45" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P45" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q45" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R45" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S45" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T45" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U45" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W45" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X45" s="1" t="inlineStr">
-        <is>
-          <t>274.00</t>
-        </is>
-      </c>
-      <c r="Y45" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="46" customHeight="true" ht="14.0">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>南雲上品·瓦香鸡（宁波大学店）</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E46" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F46" s="1" t="inlineStr">
-        <is>
-          <t>江北区</t>
-        </is>
-      </c>
-      <c r="G46" s="1" t="inlineStr">
-        <is>
-          <t>无需品鉴意见</t>
-        </is>
-      </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返9.00;</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="J46" s="1" t="inlineStr">
-        <is>
-          <t>2024-11-01</t>
-        </is>
-      </c>
-      <c r="K46" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L46" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N46" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O46" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P46" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q46" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R46" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S46" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T46" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U46" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W46" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X46" s="1" t="inlineStr">
-        <is>
-          <t>240.00</t>
-        </is>
-      </c>
-      <c r="Y46" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" customHeight="true" ht="14.0">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>南雲上品·瓦香鸡（宁波大学店）</t>
-        </is>
-      </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F47" s="1" t="inlineStr">
-        <is>
-          <t>江北区</t>
-        </is>
-      </c>
-      <c r="G47" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返9.00;</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="J47" s="1" t="inlineStr">
-        <is>
-          <t>2024-11-01</t>
-        </is>
-      </c>
-      <c r="K47" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L47" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M47" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N47" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O47" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P47" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q47" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R47" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S47" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T47" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U47" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W47" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X47" s="1" t="inlineStr">
-        <is>
-          <t>240.00</t>
-        </is>
-      </c>
-      <c r="Y47" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" customHeight="true" ht="14.0">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>电商产品</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F48" s="1" t="inlineStr">
-        <is>
-          <t>海曙区</t>
-        </is>
-      </c>
-      <c r="G48" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满30.00返15.00;</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="J48" s="1" t="inlineStr">
-        <is>
-          <t>2024-11-01</t>
-        </is>
-      </c>
-      <c r="K48" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L48" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M48" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N48" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O48" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P48" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q48" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R48" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S48" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T48" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U48" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W48" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X48" s="1" t="inlineStr">
-        <is>
-          <t>275.00</t>
-        </is>
-      </c>
-      <c r="Y48" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" customHeight="true" ht="14.0">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>电商产品</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E49" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F49" s="1" t="inlineStr">
-        <is>
-          <t>海曙区</t>
-        </is>
-      </c>
-      <c r="G49" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满78.00返35.00;</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
-        <is>
-          <t>43.00</t>
-        </is>
-      </c>
-      <c r="J49" s="1" t="inlineStr">
-        <is>
-          <t>2024-11-01</t>
-        </is>
-      </c>
-      <c r="K49" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L49" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M49" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N49" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O49" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P49" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q49" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R49" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S49" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T49" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U49" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W49" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X49" s="1" t="inlineStr">
-        <is>
-          <t>275.00</t>
-        </is>
-      </c>
-      <c r="Y49" s="1" t="inlineStr">
         <is>
           <t>业务员:曾坤丽</t>
         </is>

--- a/data/门店发布统计.xlsx
+++ b/data/门店发布统计.xlsx
@@ -363,17 +363,17 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返12.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -403,19 +403,19 @@
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="S2" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -443,7 +443,7 @@
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
@@ -455,17 +455,17 @@
     <row r="3" customHeight="true" ht="14.0">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>兴宁桥烤鸡（邱隘店）</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -490,22 +490,22 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -525,24 +525,24 @@
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q3" s="1" t="inlineStr">
+      <c r="R3" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="R3" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="S3" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -555,7 +555,7 @@
       </c>
       <c r="U3" s="1" t="inlineStr">
         <is>
-          <t>王瑛</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V3" s="1" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="X3" s="1" t="inlineStr">
         <is>
-          <t>36.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="Y3" s="1" t="inlineStr">
@@ -582,12 +582,12 @@
     <row r="4" customHeight="true" ht="14.0">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>汤城新语新中式茶饮（天水广场店）</t>
+          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>奉化区</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -617,22 +617,22 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满22.00返10.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -652,22 +652,22 @@
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q4" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S4" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="U4" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V4" s="1" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="X4" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y4" s="1" t="inlineStr">
@@ -709,12 +709,12 @@
     <row r="5" customHeight="true" ht="14.0">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>梁弄大糕呆呆美糕</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -779,22 +779,22 @@
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S5" s="1" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="X5" s="1" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="Y5" s="1" t="inlineStr">
@@ -836,7 +836,7 @@
     <row r="6" customHeight="true" ht="14.0">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕</t>
+          <t>梁弄大糕呆呆美糕（清湖路店）</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
@@ -871,17 +871,17 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返8.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -911,19 +911,19 @@
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q6" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q6" s="1" t="inlineStr">
+      <c r="R6" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R6" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S6" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -951,7 +951,7 @@
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="7" customHeight="true" ht="14.0">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕（清湖路店）</t>
+          <t>西施凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -998,22 +998,22 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返8.00;</t>
+          <t>基础返利6.00;满20.00返12.00;</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1033,24 +1033,24 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q7" s="1" t="inlineStr">
+      <c r="R7" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R7" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S7" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -1058,12 +1058,12 @@
       </c>
       <c r="T7" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U7" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V7" s="1" t="inlineStr">
@@ -1078,19 +1078,19 @@
       </c>
       <c r="X7" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y7" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="8" customHeight="true" ht="14.0">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>西施凉皮（宁波大学店）</t>
+          <t>西施·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
@@ -1125,17 +1125,17 @@
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -1165,12 +1165,12 @@
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q8" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q8" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
@@ -1217,17 +1217,17 @@
     <row r="9" customHeight="true" ht="14.0">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>西施·凉皮（宁波大学店）</t>
+          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>余姚市</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -1252,17 +1252,17 @@
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满20.00返18.00;</t>
         </is>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
@@ -1292,19 +1292,19 @@
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q9" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q9" s="1" t="inlineStr">
+      <c r="R9" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R9" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S9" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
@@ -1379,17 +1379,17 @@
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满24.00返8.00;</t>
+          <t>基础返利6.00;满24.00返10.00;</t>
         </is>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
@@ -1419,12 +1419,12 @@
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q10" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q10" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
         </is>
       </c>
       <c r="R10" s="1" t="inlineStr">
@@ -1506,17 +1506,17 @@
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返12.00;满50.00返27.00;</t>
+          <t>基础返利6.00;满50.00返30.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>8.00;23.00</t>
+          <t>20.00;5.00</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
@@ -1546,12 +1546,12 @@
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q11" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q11" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
@@ -1633,17 +1633,17 @@
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返8.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
@@ -1673,19 +1673,19 @@
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q12" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q12" s="1" t="inlineStr">
+      <c r="R12" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R12" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S12" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
@@ -1725,12 +1725,12 @@
     <row r="13" customHeight="true" ht="14.0">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>稻香过桥米线（余姚店）</t>
+          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>余姚市</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
@@ -1760,22 +1760,22 @@
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返12.00;</t>
+          <t>基础返利6.00;满30.00返10.00;</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y13" s="1" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="14" customHeight="true" ht="14.0">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>西北阁（炒饭·炒面·炒菜）</t>
+          <t>九幺妹·现炒湘菜（海曙店）</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
@@ -1887,22 +1887,22 @@
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返11.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
@@ -1932,12 +1932,12 @@
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S14" s="1" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">
@@ -1979,7 +1979,7 @@
     <row r="15" customHeight="true" ht="14.0">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
@@ -2014,17 +2014,17 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返12.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
@@ -2054,19 +2054,19 @@
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q15" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q15" s="1" t="inlineStr">
+      <c r="R15" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="R15" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="S15" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="Y15" s="1" t="inlineStr">
@@ -2106,17 +2106,17 @@
     <row r="16" customHeight="true" ht="14.0">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>十一的大骨米线</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
@@ -2141,22 +2141,22 @@
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返12.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P16" s="1" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="Q16" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S16" s="1" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="X16" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="Y16" s="1" t="inlineStr">
@@ -2233,17 +2233,17 @@
     <row r="17" customHeight="true" ht="14.0">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
+          <t>鲁爷·生炒鸡（骆驼店）</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
@@ -2268,17 +2268,17 @@
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返13.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
@@ -2328,12 +2328,12 @@
       </c>
       <c r="T17" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U17" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V17" s="1" t="inlineStr">
@@ -2348,19 +2348,19 @@
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>62.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="18" customHeight="true" ht="14.0">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐</t>
+          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
@@ -2395,22 +2395,22 @@
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返13.00;</t>
+          <t>基础返利6.00;满23.00返13.00;</t>
         </is>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -2430,24 +2430,24 @@
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q18" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q18" s="1" t="inlineStr">
+      <c r="R18" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R18" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S18" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>62.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
@@ -2487,7 +2487,7 @@
     <row r="19" customHeight="true" ht="14.0">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满23.00返11.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I19" s="1" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
@@ -2562,17 +2562,17 @@
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q19" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q19" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S19" s="1" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="X19" s="1" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="Y19" s="1" t="inlineStr">
@@ -2614,12 +2614,12 @@
     <row r="20" customHeight="true" ht="14.0">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>嵊州小吃（范江岸路店）</t>
+          <t>饭香木桶饭</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>北仑区</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
@@ -2649,22 +2649,22 @@
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2684,22 +2684,22 @@
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q20" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q20" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="S20" s="1" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="T20" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U20" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V20" s="1" t="inlineStr">
@@ -2729,19 +2729,19 @@
       </c>
       <c r="X20" s="1" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>150.00</t>
         </is>
       </c>
       <c r="Y20" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="21" customHeight="true" ht="14.0">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>西引①手作意面·焗饭</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
@@ -2776,17 +2776,17 @@
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
@@ -2816,17 +2816,17 @@
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q21" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q21" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S21" s="1" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
@@ -2868,12 +2868,12 @@
     <row r="22" customHeight="true" ht="14.0">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>饭香木桶饭</t>
+          <t>袁小姐冒菜·小火锅</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
@@ -2903,22 +2903,22 @@
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返8.00;</t>
+          <t>基础返利6.00;满20.00返12.00;</t>
         </is>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2938,24 +2938,24 @@
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q22" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q22" s="1" t="inlineStr">
+      <c r="R22" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R22" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S22" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -2963,12 +2963,12 @@
       </c>
       <c r="T22" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U22" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V22" s="1" t="inlineStr">
@@ -2983,24 +2983,24 @@
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>138.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="23" customHeight="true" ht="14.0">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>西引①手作意面·焗饭</t>
+          <t>八闽·寻味（肉燕盖浇饭）</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
@@ -3030,22 +3030,22 @@
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返11.00;</t>
+          <t>基础返利6.00;满50.00返25.00;</t>
         </is>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3065,24 +3065,24 @@
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q23" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q23" s="1" t="inlineStr">
+      <c r="R23" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R23" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S23" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="U23" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V23" s="1" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>82.00</t>
+          <t>150.00</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
@@ -3122,7 +3122,7 @@
     <row r="24" customHeight="true" ht="14.0">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>余老哥月半湾夜宵城透明餐厅</t>
+          <t>酒夜王炸</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
@@ -3157,17 +3157,17 @@
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满50.00返23.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="L24" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M24" s="1" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P24" s="1" t="inlineStr">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="U24" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V24" s="1" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t>168.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
@@ -3249,12 +3249,12 @@
     <row r="25" customHeight="true" ht="14.0">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>袁小姐冒菜·小火锅</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>⽕锅冒菜</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
@@ -3284,17 +3284,17 @@
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
@@ -3324,19 +3324,19 @@
       </c>
       <c r="P25" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q25" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q25" s="1" t="inlineStr">
+      <c r="R25" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R25" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S25" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -3344,12 +3344,12 @@
       </c>
       <c r="T25" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U25" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V25" s="1" t="inlineStr">
@@ -3364,29 +3364,29 @@
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="26" customHeight="true" ht="14.0">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>余老哥.月半湾夜宵城（炒菜·烧烤·小龙虾）</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
@@ -3411,59 +3411,59 @@
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满50.00返23.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M26" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N26" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P26" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q26" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q26" s="1" t="inlineStr">
+      <c r="R26" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R26" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S26" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="U26" s="1" t="inlineStr">
         <is>
-          <t>刘忠伟</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V26" s="1" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="X26" s="1" t="inlineStr">
         <is>
-          <t>168.00</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="Y26" s="1" t="inlineStr">
@@ -3503,12 +3503,12 @@
     <row r="27" customHeight="true" ht="14.0">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>平价烧烤小吃</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
@@ -3538,17 +3538,17 @@
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返11.00;</t>
+          <t>基础返利6.00;满110.00返52.00;</t>
         </is>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>58.00</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
@@ -3583,12 +3583,12 @@
       </c>
       <c r="Q27" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S27" s="1" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="X27" s="1" t="inlineStr">
         <is>
-          <t>148.00</t>
+          <t>57.00</t>
         </is>
       </c>
       <c r="Y27" s="1" t="inlineStr">
@@ -3630,7 +3630,7 @@
     <row r="28" customHeight="true" ht="14.0">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>乇娘拌粉（世纪东方店）透明餐厅</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
@@ -3665,27 +3665,27 @@
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返11.00;</t>
+          <t>基础返利6.00;满20.00返18.00;</t>
         </is>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M28" s="1" t="inlineStr">
@@ -3700,24 +3700,24 @@
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P28" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q28" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q28" s="1" t="inlineStr">
+      <c r="R28" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R28" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S28" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -3725,12 +3725,12 @@
       </c>
       <c r="T28" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U28" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V28" s="1" t="inlineStr">
@@ -3745,19 +3745,19 @@
       </c>
       <c r="X28" s="1" t="inlineStr">
         <is>
-          <t>148.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="Y28" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="29" customHeight="true" ht="14.0">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
+          <t>泰滋味·泰式海南鸡（高新店）</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -3792,17 +3792,17 @@
       </c>
       <c r="H29" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满40.00返20.00;</t>
+          <t>基础返利6.00;满26.00返12.00;</t>
         </is>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
@@ -3837,12 +3837,12 @@
       </c>
       <c r="Q29" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S29" s="1" t="inlineStr">
@@ -3852,12 +3852,12 @@
       </c>
       <c r="T29" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U29" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V29" s="1" t="inlineStr">
@@ -3872,19 +3872,19 @@
       </c>
       <c r="X29" s="1" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>75.00</t>
         </is>
       </c>
       <c r="Y29" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="30" customHeight="true" ht="14.0">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>食·浅尝（现炒小碗菜·盖浇饭·鄞州店）</t>
+          <t>鱼你在一起（宁波港隆时代广场店）</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -3919,22 +3919,22 @@
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
@@ -3954,24 +3954,24 @@
       </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P30" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q30" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q30" s="1" t="inlineStr">
+      <c r="R30" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R30" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S30" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="X30" s="1" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>112.00</t>
         </is>
       </c>
       <c r="Y30" s="1" t="inlineStr">
@@ -4011,17 +4011,17 @@
     <row r="31" customHeight="true" ht="14.0">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>平价烧烤小吃</t>
+          <t>八闽寻味（肉燕盖浇饭）透明餐厅</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
@@ -4046,22 +4046,22 @@
       </c>
       <c r="H31" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满110.00返52.00;</t>
+          <t>基础返利6.00;满50.00返25.00;</t>
         </is>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>58.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
@@ -4081,22 +4081,22 @@
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P31" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q31" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q31" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S31" s="1" t="inlineStr">
@@ -4106,12 +4106,12 @@
       </c>
       <c r="T31" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U31" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V31" s="1" t="inlineStr">
@@ -4126,29 +4126,29 @@
       </c>
       <c r="X31" s="1" t="inlineStr">
         <is>
-          <t>57.00</t>
+          <t>150.00</t>
         </is>
       </c>
       <c r="Y31" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="32" customHeight="true" ht="14.0">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>烤博士炸串·面·凉皮（宁波大学店）</t>
+          <t>BELLACAKE蛋糕·甜品</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
@@ -4173,22 +4173,22 @@
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满23.00返10.00;</t>
+          <t>基础返利6.00;满30.00返23.00;</t>
         </is>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
@@ -4208,24 +4208,24 @@
       </c>
       <c r="O32" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P32" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q32" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q32" s="1" t="inlineStr">
+      <c r="R32" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="R32" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="S32" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -4233,12 +4233,12 @@
       </c>
       <c r="T32" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U32" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V32" s="1" t="inlineStr">
@@ -4253,20 +4253,19 @@
       </c>
       <c r="X32" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="Y32" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="33" customHeight="true" ht="14.0">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（
-高新店）</t>
+          <t>南雲上品·瓦香鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -4276,7 +4275,7 @@
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
@@ -4291,7 +4290,7 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
@@ -4301,17 +4300,17 @@
       </c>
       <c r="H33" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满26.00返12.00;</t>
+          <t>基础返利6.00;满25.00返12.00;</t>
         </is>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
@@ -4341,17 +4340,17 @@
       </c>
       <c r="P33" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q33" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q33" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S33" s="1" t="inlineStr">
@@ -4361,12 +4360,12 @@
       </c>
       <c r="T33" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U33" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V33" s="1" t="inlineStr">
@@ -4381,29 +4380,29 @@
       </c>
       <c r="X33" s="1" t="inlineStr">
         <is>
-          <t>57.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y33" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="34" customHeight="true" ht="14.0">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
+          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
@@ -4418,7 +4417,7 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
@@ -4428,17 +4427,17 @@
       </c>
       <c r="H34" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返13.00;</t>
+          <t>基础返利6.00;满30.00返18.00;</t>
         </is>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
@@ -4448,37 +4447,37 @@
       </c>
       <c r="L34" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M34" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N34" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P34" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q34" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q34" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S34" s="1" t="inlineStr">
@@ -4508,7 +4507,7 @@
       </c>
       <c r="X34" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y34" s="1" t="inlineStr">
@@ -4520,12 +4519,12 @@
     <row r="35" customHeight="true" ht="14.0">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>韩之味.石锅拌饭</t>
+          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
@@ -4545,7 +4544,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
@@ -4555,22 +4554,22 @@
       </c>
       <c r="H35" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返8.00;</t>
+          <t>基础返利6.00;满30.00返18.00;</t>
         </is>
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
@@ -4590,22 +4589,22 @@
       </c>
       <c r="O35" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P35" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q35" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q35" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="R35" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S35" s="1" t="inlineStr">
@@ -4615,12 +4614,12 @@
       </c>
       <c r="T35" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U35" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V35" s="1" t="inlineStr">
@@ -4635,24 +4634,24 @@
       </c>
       <c r="X35" s="1" t="inlineStr">
         <is>
-          <t>120.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y35" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="36" customHeight="true" ht="14.0">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>BELLACAKE蛋糕·甜品</t>
+          <t>鑫悦衢州鸭头</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
@@ -4672,7 +4671,7 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>慈溪市</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
@@ -4682,17 +4681,17 @@
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返20.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
@@ -4722,19 +4721,19 @@
       </c>
       <c r="P36" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q36" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q36" s="1" t="inlineStr">
+      <c r="R36" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="R36" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="S36" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -4742,12 +4741,12 @@
       </c>
       <c r="T36" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U36" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V36" s="1" t="inlineStr">
@@ -4762,29 +4761,29 @@
       </c>
       <c r="X36" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="Y36" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="37" customHeight="true" ht="14.0">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>鑫悦衢州鸭头</t>
+          <t>哆味鲜烧爆汁饭</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
@@ -4799,7 +4798,7 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>慈溪市</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
@@ -4809,17 +4808,17 @@
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满25.00返15.00;</t>
         </is>
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
@@ -4849,17 +4848,17 @@
       </c>
       <c r="P37" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q37" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q37" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="R37" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S37" s="1" t="inlineStr">
@@ -4889,7 +4888,7 @@
       </c>
       <c r="X37" s="1" t="inlineStr">
         <is>
-          <t>65.00</t>
+          <t>160.00</t>
         </is>
       </c>
       <c r="Y37" s="1" t="inlineStr">
@@ -4901,7 +4900,7 @@
     <row r="38" customHeight="true" ht="14.0">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>哆味鲜烧爆汁饭</t>
+          <t>皖北地锅鸡·炒鸡</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -4911,7 +4910,7 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
@@ -4936,22 +4935,22 @@
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-20</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L38" s="1" t="inlineStr">
@@ -4961,19 +4960,19 @@
       </c>
       <c r="M38" s="1" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N38" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O38" s="1" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N38" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O38" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="P38" s="1" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -4981,12 +4980,12 @@
       </c>
       <c r="Q38" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R38" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S38" s="1" t="inlineStr">
@@ -4996,12 +4995,12 @@
       </c>
       <c r="T38" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U38" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V38" s="1" t="inlineStr">
@@ -5016,24 +5015,24 @@
       </c>
       <c r="X38" s="1" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>57.00</t>
         </is>
       </c>
       <c r="Y38" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="39" customHeight="true" ht="14.0">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>嫣然苡茉（柳州城中万达店）</t>
+          <t>新重庆鸡公煲（翠柏店）</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
@@ -5043,17 +5042,17 @@
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>广西壮族自治区</t>
+          <t>浙江省</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>柳州市</t>
+          <t>宁波市</t>
         </is>
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>城中区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
@@ -5063,90 +5062,979 @@
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返22.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I39" s="1" t="inlineStr">
         <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="J39" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="K39" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L39" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M39" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N39" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O39" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P39" s="1" t="inlineStr">
+        <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
-        <is>
-          <t>2024-11-08</t>
-        </is>
-      </c>
-      <c r="K39" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L39" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="M39" s="1" t="inlineStr">
+      <c r="Q39" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R39" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S39" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T39" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U39" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V39" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W39" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X39" s="1" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="Y39" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" customHeight="true" ht="14.0">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>乇娘拌粉（世纪东方店）</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G40" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H40" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满20.00返18.00;</t>
+        </is>
+      </c>
+      <c r="I40" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J40" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="K40" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L40" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M40" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N40" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O40" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="P40" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q40" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R40" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S40" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T40" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U40" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V40" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W40" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X40" s="1" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="Y40" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" customHeight="true" ht="14.0">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>皖北地锅鸡（炒鸡）透明餐厅</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>饿了么</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H41" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满20.00返15.00;</t>
+        </is>
+      </c>
+      <c r="I41" s="1" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J41" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="K41" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L41" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M41" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N41" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O41" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P41" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q41" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R41" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S41" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T41" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="U41" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="V41" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W41" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X41" s="1" t="inlineStr">
+        <is>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="Y41" s="1" t="inlineStr">
+        <is>
+          <t>业务员:张洁茹</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" customHeight="true" ht="14.0">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>思念酒馆（现调鸡尾酒）</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H42" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满20.00返15.00;</t>
+        </is>
+      </c>
+      <c r="I42" s="1" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J42" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="K42" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L42" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M42" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N42" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O42" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P42" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q42" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R42" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S42" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T42" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V42" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W42" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X42" s="1" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="Y42" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" customHeight="true" ht="14.0">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>思念酒馆·现调鸡尾酒</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>饿了么</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H43" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满20.00返15.00;</t>
+        </is>
+      </c>
+      <c r="I43" s="1" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J43" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="K43" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L43" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M43" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N43" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O43" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P43" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q43" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R43" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S43" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T43" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="V43" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W43" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X43" s="1" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="Y43" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" customHeight="true" ht="14.0">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>隆江猪脚饭（慈海南路店）</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>镇海区</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="inlineStr">
+        <is>
+          <t>无需品鉴意见</t>
+        </is>
+      </c>
+      <c r="H44" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返20.00;</t>
+        </is>
+      </c>
+      <c r="I44" s="1" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J44" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="K44" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L44" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M44" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N44" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O44" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P44" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q44" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R44" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S44" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T44" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U44" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V44" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W44" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X44" s="1" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+      <c r="Y44" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" customHeight="true" ht="14.0">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>隆江猪脚饭（慈海南路店）</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>镇海区</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H45" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返20.00;</t>
+        </is>
+      </c>
+      <c r="I45" s="1" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J45" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="K45" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L45" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M45" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N45" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O45" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P45" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q45" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R45" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S45" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T45" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U45" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V45" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W45" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X45" s="1" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+      <c r="Y45" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" customHeight="true" ht="14.0">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>奉化牛肉面（双面煎·海鲜面）</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H46" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满20.00返13.00;</t>
+        </is>
+      </c>
+      <c r="I46" s="1" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="J46" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="K46" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L46" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N39" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O39" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P39" s="1" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="Q39" s="1" t="inlineStr">
+      <c r="M46" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N46" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O46" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P46" s="1" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="R39" s="1" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="S39" s="1" t="inlineStr">
+      <c r="Q46" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R46" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S46" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
         </is>
       </c>
-      <c r="T39" s="1" t="inlineStr">
+      <c r="T46" s="1" t="inlineStr">
         <is>
           <t>曾坤丽</t>
         </is>
       </c>
-      <c r="U39" s="1" t="inlineStr">
-        <is>
-          <t>肖莹</t>
-        </is>
-      </c>
-      <c r="V39" s="1" t="inlineStr">
+      <c r="U46" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V46" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="W39" s="1" t="inlineStr">
+      <c r="W46" s="1" t="inlineStr">
         <is>
           <t>预授权类型</t>
         </is>
       </c>
-      <c r="X39" s="1" t="inlineStr">
-        <is>
-          <t>300.00</t>
-        </is>
-      </c>
-      <c r="Y39" s="1" t="inlineStr">
+      <c r="X46" s="1" t="inlineStr">
+        <is>
+          <t>67.00</t>
+        </is>
+      </c>
+      <c r="Y46" s="1" t="inlineStr">
         <is>
           <t>业务员:曾坤丽</t>
         </is>

--- a/data/门店发布统计.xlsx
+++ b/data/门店发布统计.xlsx
@@ -328,12 +328,12 @@
     <row r="2" customHeight="true" ht="14.0">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜…</t>
+          <t>吉小果（果切·果捞·灵峰路店）</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>水果果切</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -353,7 +353,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>北仑区</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -363,22 +363,22 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满15.00返10.00;满25.00返15.00;</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.00;10.00</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -398,19 +398,19 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
@@ -423,12 +423,12 @@
       </c>
       <c r="T2" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U2" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>王瑛</t>
         </is>
       </c>
       <c r="V2" s="1" t="inlineStr">
@@ -438,29 +438,29 @@
       </c>
       <c r="W2" s="1" t="inlineStr">
         <is>
-          <t>预授权类型</t>
+          <t>预充值类型</t>
         </is>
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>118.00</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>商户:13545368898</t>
         </is>
       </c>
     </row>
     <row r="3" customHeight="true" ht="14.0">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>云燕芳·姨妈热饮·鲜…</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -490,17 +490,17 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="U3" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V3" s="1" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="X3" s="1" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="Y3" s="1" t="inlineStr">
@@ -582,12 +582,12 @@
     <row r="4" customHeight="true" ht="14.0">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
+          <t>密斯金韩餐（吾悦广场店）</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>奉化区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S4" s="1" t="inlineStr">
@@ -677,12 +677,12 @@
       </c>
       <c r="T4" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U4" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>王瑛</t>
         </is>
       </c>
       <c r="V4" s="1" t="inlineStr">
@@ -697,19 +697,19 @@
       </c>
       <c r="X4" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y4" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>商户:15988600122</t>
         </is>
       </c>
     </row>
     <row r="5" customHeight="true" ht="14.0">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕</t>
+          <t>密斯金韩餐（吾悦广场店）</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="U5" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王瑛</t>
         </is>
       </c>
       <c r="V5" s="1" t="inlineStr">
@@ -824,29 +824,29 @@
       </c>
       <c r="X5" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y5" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>商户:15988600122</t>
         </is>
       </c>
     </row>
     <row r="6" customHeight="true" ht="14.0">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>梁弄大糕呆呆美糕（清湖路店）</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -871,47 +871,47 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N6" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S6" s="1" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>108.00</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
@@ -963,12 +963,12 @@
     <row r="7" customHeight="true" ht="14.0">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>西施凉皮（宁波大学店）</t>
+          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>奉化区</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -998,27 +998,27 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返12.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="U7" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V7" s="1" t="inlineStr">
@@ -1090,7 +1090,7 @@
     <row r="8" customHeight="true" ht="14.0">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>西施·凉皮（宁波大学店）</t>
+          <t>胖虎手作汉堡</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
@@ -1125,22 +1125,22 @@
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S8" s="1" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="U8" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V8" s="1" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
@@ -1217,17 +1217,17 @@
     <row r="9" customHeight="true" ht="14.0">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
+          <t>胖虎手作汉堡（天一店）</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>余姚市</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -1252,22 +1252,22 @@
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返18.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1287,12 +1287,12 @@
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S9" s="1" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="U9" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V9" s="1" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
@@ -1344,17 +1344,17 @@
     <row r="10" customHeight="true" ht="14.0">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>西施凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
@@ -1379,22 +1379,22 @@
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满24.00返10.00;</t>
+          <t>基础返利6.00;满20.00返12.00;</t>
         </is>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="T10" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U10" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V10" s="1" t="inlineStr">
@@ -1464,24 +1464,24 @@
       </c>
       <c r="Y10" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="11" customHeight="true" ht="14.0">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>西施·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
@@ -1506,17 +1506,17 @@
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满50.00返30.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>20.00;5.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S11" s="1" t="inlineStr">
@@ -1566,12 +1566,12 @@
       </c>
       <c r="T11" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U11" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V11" s="1" t="inlineStr">
@@ -1586,24 +1586,24 @@
       </c>
       <c r="X11" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y11" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="12" customHeight="true" ht="14.0">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>余姚市</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
@@ -1633,17 +1633,17 @@
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满20.00返18.00;</t>
         </is>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
@@ -1693,12 +1693,12 @@
       </c>
       <c r="T12" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U12" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V12" s="1" t="inlineStr">
@@ -1713,29 +1713,29 @@
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>62.00</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="13" customHeight="true" ht="14.0">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
@@ -1760,17 +1760,17 @@
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返10.00;</t>
+          <t>基础返利6.00;满24.00返10.00;</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
@@ -1800,19 +1800,19 @@
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q13" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q13" s="1" t="inlineStr">
+      <c r="R13" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R13" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S13" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -1820,12 +1820,12 @@
       </c>
       <c r="T13" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U13" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V13" s="1" t="inlineStr">
@@ -1840,24 +1840,24 @@
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y13" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="14" customHeight="true" ht="14.0">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>九幺妹·现炒湘菜（海曙店）</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -1887,27 +1887,27 @@
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满20.00返15.00;满50.00返30.00;</t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>5.00;20.00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M14" s="1" t="inlineStr">
@@ -1922,22 +1922,22 @@
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q14" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q14" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S14" s="1" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">
@@ -1979,7 +1979,7 @@
     <row r="15" customHeight="true" ht="14.0">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返15.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
@@ -2024,12 +2024,12 @@
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -2049,12 +2049,12 @@
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S15" s="1" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y15" s="1" t="inlineStr">
@@ -2106,12 +2106,12 @@
     <row r="16" customHeight="true" ht="14.0">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>十一的大骨米线</t>
+          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -2141,17 +2141,17 @@
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满30.00返10.00;</t>
         </is>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="T16" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U16" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V16" s="1" t="inlineStr">
@@ -2221,19 +2221,19 @@
       </c>
       <c r="X16" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y16" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="17" customHeight="true" ht="14.0">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>鲁爷·生炒鸡（骆驼店）</t>
+          <t>九幺妹·现炒湘菜（海曙店）</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
@@ -2268,17 +2268,17 @@
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
@@ -2308,19 +2308,19 @@
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q17" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q17" s="1" t="inlineStr">
+      <c r="R17" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R17" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S17" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>82.50</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
@@ -2360,7 +2360,7 @@
     <row r="18" customHeight="true" ht="14.0">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>西引手作意面焗饭（骆驼店）透明餐厅</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
@@ -2395,22 +2395,22 @@
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满23.00返13.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -2430,12 +2430,12 @@
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S18" s="1" t="inlineStr">
@@ -2455,12 +2455,12 @@
       </c>
       <c r="T18" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U18" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V18" s="1" t="inlineStr">
@@ -2475,19 +2475,19 @@
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="19" customHeight="true" ht="14.0">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
@@ -2522,22 +2522,22 @@
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2557,12 +2557,12 @@
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S19" s="1" t="inlineStr">
@@ -2582,12 +2582,12 @@
       </c>
       <c r="T19" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U19" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V19" s="1" t="inlineStr">
@@ -2602,19 +2602,19 @@
       </c>
       <c r="X19" s="1" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="Y19" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="20" customHeight="true" ht="14.0">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>饭香木桶饭</t>
+          <t>十一的大骨米线</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
@@ -2649,22 +2649,22 @@
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S20" s="1" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="U20" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V20" s="1" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="X20" s="1" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>170.00</t>
         </is>
       </c>
       <c r="Y20" s="1" t="inlineStr">
@@ -2741,7 +2741,7 @@
     <row r="21" customHeight="true" ht="14.0">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>西引①手作意面·焗饭</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="L21" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M21" s="1" t="inlineStr">
@@ -2811,12 +2811,12 @@
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S21" s="1" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>32.00</t>
+          <t>57.00</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
@@ -2868,12 +2868,12 @@
     <row r="22" customHeight="true" ht="14.0">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>袁小姐冒菜·小火锅</t>
+          <t>饭香木桶饭</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>⽕锅冒菜</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>北仑区</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
@@ -2903,27 +2903,27 @@
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返12.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M22" s="1" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
@@ -2963,12 +2963,12 @@
       </c>
       <c r="T22" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U22" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V22" s="1" t="inlineStr">
@@ -2983,12 +2983,12 @@
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>140.00</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>120.00</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="L24" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M24" s="1" t="inlineStr">
@@ -3192,24 +3192,24 @@
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P24" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q24" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q24" s="1" t="inlineStr">
+      <c r="R24" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R24" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S24" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>120.00</t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M25" s="1" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P25" s="1" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>61.00</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="X26" s="1" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>61.00</t>
         </is>
       </c>
       <c r="Y26" s="1" t="inlineStr">
@@ -3538,17 +3538,17 @@
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满110.00返52.00;</t>
+          <t>基础返利6.00;满110.00返55.00;</t>
         </is>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>58.00</t>
+          <t>55.00</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M27" s="1" t="inlineStr">
@@ -3573,22 +3573,22 @@
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P27" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q27" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q27" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S27" s="1" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="X27" s="1" t="inlineStr">
         <is>
-          <t>57.00</t>
+          <t>52.00</t>
         </is>
       </c>
       <c r="Y27" s="1" t="inlineStr">
@@ -3665,47 +3665,47 @@
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返18.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L28" s="1" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L28" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M28" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N28" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P28" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q28" s="1" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S28" s="1" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="X28" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="Y28" s="1" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M29" s="1" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P29" s="1" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="X29" s="1" t="inlineStr">
         <is>
-          <t>75.00</t>
+          <t>64.00</t>
         </is>
       </c>
       <c r="Y29" s="1" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="P30" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q30" s="1" t="inlineStr">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S30" s="1" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="X30" s="1" t="inlineStr">
         <is>
-          <t>112.00</t>
+          <t>150.00</t>
         </is>
       </c>
       <c r="Y30" s="1" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="X31" s="1" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>120.00</t>
         </is>
       </c>
       <c r="Y31" s="1" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="X32" s="1" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y32" s="1" t="inlineStr">
@@ -4310,7 +4310,7 @@
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="P33" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q33" s="1" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S33" s="1" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
@@ -4646,12 +4646,12 @@
     <row r="36" customHeight="true" ht="14.0">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>鑫悦衢州鸭头</t>
+          <t>新重庆鸡公煲（翠柏店）</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>慈溪市</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
@@ -4681,22 +4681,22 @@
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L36" s="1" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P36" s="1" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="X36" s="1" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y36" s="1" t="inlineStr">
@@ -4773,7 +4773,7 @@
     <row r="37" customHeight="true" ht="14.0">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>哆味鲜烧爆汁饭</t>
+          <t>乇娘拌粉（世纪东方店）</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
@@ -4808,17 +4808,17 @@
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返15.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="L37" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M37" s="1" t="inlineStr">
@@ -4843,12 +4843,12 @@
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P37" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q37" s="1" t="inlineStr">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="R37" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S37" s="1" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="X37" s="1" t="inlineStr">
         <is>
-          <t>160.00</t>
+          <t>42.00</t>
         </is>
       </c>
       <c r="Y37" s="1" t="inlineStr">
@@ -4900,12 +4900,12 @@
     <row r="38" customHeight="true" ht="14.0">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>皖北地锅鸡·炒鸡</t>
+          <t>思念酒馆（现调鸡尾酒）</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="L38" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M38" s="1" t="inlineStr">
@@ -4970,22 +4970,22 @@
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P38" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q38" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q38" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R38" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S38" s="1" t="inlineStr">
@@ -4995,12 +4995,12 @@
       </c>
       <c r="T38" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U38" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V38" s="1" t="inlineStr">
@@ -5015,29 +5015,29 @@
       </c>
       <c r="X38" s="1" t="inlineStr">
         <is>
-          <t>57.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="Y38" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="39" customHeight="true" ht="14.0">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>新重庆鸡公煲（翠柏店）</t>
+          <t>思念酒馆·现调鸡尾酒</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
@@ -5062,22 +5062,22 @@
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J39" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L39" s="1" t="inlineStr">
@@ -5097,12 +5097,12 @@
       </c>
       <c r="O39" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P39" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q39" s="1" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="R39" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S39" s="1" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="U39" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V39" s="1" t="inlineStr">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="X39" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="Y39" s="1" t="inlineStr">
@@ -5154,12 +5154,12 @@
     <row r="40" customHeight="true" ht="14.0">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>乇娘拌粉（世纪东方店）</t>
+          <t>M2蛋糕·面包</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>慈溪市</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
@@ -5189,22 +5189,22 @@
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返18.00;</t>
+          <t>基础返利6.00;满20.00返7.00;</t>
         </is>
       </c>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J40" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L40" s="1" t="inlineStr">
@@ -5224,19 +5224,19 @@
       </c>
       <c r="O40" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P40" s="1" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q40" s="1" t="inlineStr">
+        <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="Q40" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R40" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
@@ -5249,12 +5249,12 @@
       </c>
       <c r="T40" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U40" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V40" s="1" t="inlineStr">
@@ -5269,19 +5269,19 @@
       </c>
       <c r="X40" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y40" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="41" customHeight="true" ht="14.0">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>皖北地锅鸡（炒鸡）透明餐厅</t>
+          <t>湘巴佬·川川湘菜馆（镇海店）</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
@@ -5316,22 +5316,22 @@
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满24.00返12.00;</t>
         </is>
       </c>
       <c r="I41" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J41" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L41" s="1" t="inlineStr">
@@ -5351,22 +5351,22 @@
       </c>
       <c r="O41" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P41" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q41" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q41" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R41" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S41" s="1" t="inlineStr">
@@ -5376,12 +5376,12 @@
       </c>
       <c r="T41" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U41" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V41" s="1" t="inlineStr">
@@ -5396,24 +5396,24 @@
       </c>
       <c r="X41" s="1" t="inlineStr">
         <is>
-          <t>57.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y41" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="42" customHeight="true" ht="14.0">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>思念酒馆（现调鸡尾酒）</t>
+          <t>虾师傅·虾滑饭（北仑店）</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>北仑区</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
@@ -5443,22 +5443,22 @@
       </c>
       <c r="H42" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I42" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J42" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K42" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L42" s="1" t="inlineStr">
@@ -5478,12 +5478,12 @@
       </c>
       <c r="O42" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P42" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q42" s="1" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="R42" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S42" s="1" t="inlineStr">
@@ -5518,12 +5518,12 @@
       </c>
       <c r="W42" s="1" t="inlineStr">
         <is>
-          <t>预授权类型</t>
+          <t>预充值类型</t>
         </is>
       </c>
       <c r="X42" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>52.00</t>
         </is>
       </c>
       <c r="Y42" s="1" t="inlineStr">
@@ -5535,12 +5535,12 @@
     <row r="43" customHeight="true" ht="14.0">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>思念酒馆·现调鸡尾酒</t>
+          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr">
@@ -5580,12 +5580,12 @@
       </c>
       <c r="J43" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K43" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L43" s="1" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O43" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P43" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q43" s="1" t="inlineStr">
@@ -5620,7 +5620,7 @@
       </c>
       <c r="R43" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S43" s="1" t="inlineStr">
@@ -5630,12 +5630,12 @@
       </c>
       <c r="T43" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U43" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V43" s="1" t="inlineStr">
@@ -5650,24 +5650,24 @@
       </c>
       <c r="X43" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="Y43" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="44" customHeight="true" ht="14.0">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>隆江猪脚饭（慈海南路店）</t>
+          <t>茶禅悦·热着饮悦暖心</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr">
@@ -5677,42 +5677,42 @@
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>浙江省</t>
+          <t>广东省</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>宁波市</t>
+          <t>广州市</t>
         </is>
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>黄埔区</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>无需品鉴意见</t>
+          <t>霸王餐需品鉴意见(需图需字)</t>
         </is>
       </c>
       <c r="H44" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返20.00;</t>
+          <t>基础返利6.00;满13.00返13.00;</t>
         </is>
       </c>
       <c r="I44" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J44" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K44" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L44" s="1" t="inlineStr">
@@ -5732,22 +5732,22 @@
       </c>
       <c r="O44" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P44" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q44" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q44" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R44" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S44" s="1" t="inlineStr">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="U44" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>李启苑</t>
         </is>
       </c>
       <c r="V44" s="1" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="X44" s="1" t="inlineStr">
         <is>
-          <t>120.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Y44" s="1" t="inlineStr">
@@ -5789,7 +5789,7 @@
     <row r="45" customHeight="true" ht="14.0">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>隆江猪脚饭（慈海南路店）</t>
+          <t>西北阁手抓饭·炒面</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
@@ -5824,42 +5824,42 @@
       </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返20.00;</t>
+          <t>基础返利6.00;满20.00返14.00;</t>
         </is>
       </c>
       <c r="I45" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J45" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K45" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L45" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M45" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N45" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O45" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P45" s="1" t="inlineStr">
@@ -5869,12 +5869,12 @@
       </c>
       <c r="Q45" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R45" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S45" s="1" t="inlineStr">
@@ -5884,12 +5884,12 @@
       </c>
       <c r="T45" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U45" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V45" s="1" t="inlineStr">
@@ -5904,19 +5904,19 @@
       </c>
       <c r="X45" s="1" t="inlineStr">
         <is>
-          <t>120.00</t>
+          <t>142.00</t>
         </is>
       </c>
       <c r="Y45" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="46" customHeight="true" ht="14.0">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>奉化牛肉面（双面煎·海鲜面）</t>
+          <t>西北阁手抓饭·炒面</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -5951,90 +5951,852 @@
       </c>
       <c r="H46" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满20.00返14.00;</t>
         </is>
       </c>
       <c r="I46" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J46" s="1" t="inlineStr">
         <is>
-          <t>2024-11-20</t>
+          <t>2024-12-03</t>
         </is>
       </c>
       <c r="K46" s="1" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L46" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M46" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N46" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O46" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P46" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q46" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="R46" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S46" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T46" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="U46" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="V46" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W46" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X46" s="1" t="inlineStr">
+        <is>
+          <t>142.00</t>
+        </is>
+      </c>
+      <c r="Y46" s="1" t="inlineStr">
+        <is>
+          <t>业务员:张洁茹</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" customHeight="true" ht="14.0">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>西北阁手抓饭·炒面</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>无需品鉴意见</t>
+        </is>
+      </c>
+      <c r="H47" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满20.00返14.00;</t>
+        </is>
+      </c>
+      <c r="I47" s="1" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="J47" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="K47" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L47" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M47" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N47" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O47" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P47" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q47" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="R47" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S47" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T47" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="U47" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="V47" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W47" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X47" s="1" t="inlineStr">
+        <is>
+          <t>142.00</t>
+        </is>
+      </c>
+      <c r="Y47" s="1" t="inlineStr">
+        <is>
+          <t>业务员:张洁茹</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" customHeight="true" ht="14.0">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>西北阁手抓饭·炒面</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <t>无需品鉴意见</t>
+        </is>
+      </c>
+      <c r="H48" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满20.00返14.00;</t>
+        </is>
+      </c>
+      <c r="I48" s="1" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="J48" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="K48" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L48" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M48" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N48" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O48" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P48" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q48" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="R48" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S48" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T48" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="U48" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="V48" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W48" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X48" s="1" t="inlineStr">
+        <is>
+          <t>142.00</t>
+        </is>
+      </c>
+      <c r="Y48" s="1" t="inlineStr">
+        <is>
+          <t>业务员:张洁茹</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" customHeight="true" ht="14.0">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>饭小七·酱香鸡煲排骨煲</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>海曙区</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H49" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返12.00;</t>
+        </is>
+      </c>
+      <c r="I49" s="1" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="J49" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="K49" s="1" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L46" s="1" t="inlineStr">
+      <c r="L49" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M49" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N49" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O49" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P49" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q49" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R49" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S49" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T49" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U49" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V49" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W49" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X49" s="1" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="Y49" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" customHeight="true" ht="14.0">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>隆江猪脚饭</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G50" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H50" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满20.00返10.00;</t>
+        </is>
+      </c>
+      <c r="I50" s="1" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="J50" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="K50" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L50" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M50" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M46" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N46" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O46" s="1" t="inlineStr">
+      <c r="N50" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O50" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="P50" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q50" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="R50" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S50" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T50" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U50" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V50" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W50" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X50" s="1" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="Y50" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" customHeight="true" ht="14.0">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>百味轩私房川川湘菜</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G51" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H51" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返12.00;</t>
+        </is>
+      </c>
+      <c r="I51" s="1" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="J51" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="K51" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L51" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M51" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N51" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O51" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="P51" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q51" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R51" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S51" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T51" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U51" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V51" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W51" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X51" s="1" t="inlineStr">
+        <is>
+          <t>135.00</t>
+        </is>
+      </c>
+      <c r="Y51" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" customHeight="true" ht="14.0">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>食色（红烧牛肉面·大步街店）</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G52" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H52" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返12.00;</t>
+        </is>
+      </c>
+      <c r="I52" s="1" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="J52" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
+      </c>
+      <c r="K52" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L52" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M52" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N52" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O52" s="1" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P46" s="1" t="inlineStr">
+      <c r="P52" s="1" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q46" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R46" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S46" s="1" t="inlineStr">
+      <c r="Q52" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R52" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S52" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
         </is>
       </c>
-      <c r="T46" s="1" t="inlineStr">
+      <c r="T52" s="1" t="inlineStr">
         <is>
           <t>曾坤丽</t>
         </is>
       </c>
-      <c r="U46" s="1" t="inlineStr">
+      <c r="U52" s="1" t="inlineStr">
         <is>
           <t>曾坤丽</t>
         </is>
       </c>
-      <c r="V46" s="1" t="inlineStr">
+      <c r="V52" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="W46" s="1" t="inlineStr">
+      <c r="W52" s="1" t="inlineStr">
         <is>
           <t>预授权类型</t>
         </is>
       </c>
-      <c r="X46" s="1" t="inlineStr">
-        <is>
-          <t>67.00</t>
-        </is>
-      </c>
-      <c r="Y46" s="1" t="inlineStr">
+      <c r="X52" s="1" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="Y52" s="1" t="inlineStr">
         <is>
           <t>业务员:曾坤丽</t>
         </is>

--- a/data/门店发布统计.xlsx
+++ b/data/门店发布统计.xlsx
@@ -373,7 +373,7 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -443,7 +443,7 @@
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>118.00</t>
+          <t>51.00</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -891,22 +891,22 @@
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t>108.00</t>
+          <t>101.00</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="X7" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y7" s="1" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
@@ -1598,17 +1598,17 @@
     <row r="12" customHeight="true" ht="14.0">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>余姚市</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
@@ -1633,59 +1633,59 @@
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返18.00;</t>
+          <t>基础返利6.00;满24.00返10.00;</t>
         </is>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-10</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M12" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P12" s="1" t="inlineStr">
+        <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-03</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L12" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M12" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N12" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P12" s="1" t="inlineStr">
+      <c r="Q12" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R12" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="Q12" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R12" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S12" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="T12" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U12" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V12" s="1" t="inlineStr">
@@ -1713,29 +1713,29 @@
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>62.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="13" customHeight="true" ht="14.0">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
@@ -1760,22 +1760,22 @@
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满24.00返10.00;</t>
+          <t>基础返利6.00;满20.00返15.00;满50.00返30.00;</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>5.00;20.00</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="Y13" s="1" t="inlineStr">
@@ -1852,12 +1852,12 @@
     <row r="14" customHeight="true" ht="14.0">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;满50.00返30.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>5.00;20.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="U14" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V14" s="1" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">
@@ -1979,12 +1979,12 @@
     <row r="15" customHeight="true" ht="14.0">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
@@ -2014,22 +2014,22 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满30.00返10.00;</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -2049,19 +2049,19 @@
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q15" s="1" t="inlineStr">
+        <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="Q15" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
@@ -2074,12 +2074,12 @@
       </c>
       <c r="T15" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U15" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V15" s="1" t="inlineStr">
@@ -2099,19 +2099,19 @@
       </c>
       <c r="Y15" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="16" customHeight="true" ht="14.0">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
+          <t>九幺妹·现炒湘菜（海曙店）</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -2141,17 +2141,17 @@
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返10.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2181,19 +2181,19 @@
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q16" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q16" s="1" t="inlineStr">
+      <c r="R16" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R16" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S16" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -2201,12 +2201,12 @@
       </c>
       <c r="T16" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U16" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V16" s="1" t="inlineStr">
@@ -2221,24 +2221,24 @@
       </c>
       <c r="X16" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>82.50</t>
         </is>
       </c>
       <c r="Y16" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="17" customHeight="true" ht="14.0">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>九幺妹·现炒湘菜（海曙店）</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -2268,22 +2268,22 @@
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -2303,12 +2303,12 @@
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q17" s="1" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S17" s="1" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="U17" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V17" s="1" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>82.50</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
@@ -2360,7 +2360,7 @@
     <row r="18" customHeight="true" ht="14.0">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
@@ -2487,17 +2487,17 @@
     <row r="19" customHeight="true" ht="14.0">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>十一的大骨米线</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
@@ -2522,22 +2522,22 @@
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返15.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2557,22 +2557,22 @@
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q19" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q19" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S19" s="1" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="X19" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>170.00</t>
         </is>
       </c>
       <c r="Y19" s="1" t="inlineStr">
@@ -2614,17 +2614,17 @@
     <row r="20" customHeight="true" ht="14.0">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>十一的大骨米线</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
@@ -2649,17 +2649,17 @@
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S20" s="1" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="T20" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U20" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V20" s="1" t="inlineStr">
@@ -2729,29 +2729,29 @@
       </c>
       <c r="X20" s="1" t="inlineStr">
         <is>
-          <t>170.00</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="Y20" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="21" customHeight="true" ht="14.0">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>八闽·寻味（肉燕盖浇饭）</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
@@ -2776,27 +2776,27 @@
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满50.00返25.00;</t>
         </is>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M21" s="1" t="inlineStr">
@@ -2811,12 +2811,12 @@
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S21" s="1" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="U21" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V21" s="1" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>57.00</t>
+          <t>120.00</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
@@ -2868,12 +2868,12 @@
     <row r="22" customHeight="true" ht="14.0">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>饭香木桶饭</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
@@ -2903,27 +2903,27 @@
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M22" s="1" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="U22" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V22" s="1" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>140.00</t>
+          <t>134.00</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
@@ -2995,17 +2995,17 @@
     <row r="23" customHeight="true" ht="14.0">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>八闽·寻味（肉燕盖浇饭）</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
@@ -3030,22 +3030,22 @@
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满50.00返25.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="T23" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U23" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V23" s="1" t="inlineStr">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>120.00</t>
+          <t>134.00</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="24" customHeight="true" ht="14.0">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>酒夜王炸</t>
+          <t>平价烧烤小吃</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
@@ -3157,17 +3157,17 @@
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满110.00返55.00;</t>
         </is>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>55.00</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="P24" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q24" s="1" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S24" s="1" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t>120.00</t>
+          <t>107.00</t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
@@ -3249,12 +3249,12 @@
     <row r="25" customHeight="true" ht="14.0">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>泰滋味·泰式海南鸡（高新店）</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
@@ -3284,27 +3284,27 @@
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满26.00返12.00;</t>
         </is>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M25" s="1" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P25" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q25" s="1" t="inlineStr">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S25" s="1" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>61.00</t>
+          <t>160.00</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
@@ -3376,17 +3376,17 @@
     <row r="26" customHeight="true" ht="14.0">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>鱼你在一起（宁波港隆时代广场店）</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
@@ -3411,22 +3411,22 @@
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
@@ -3446,12 +3446,12 @@
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P26" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q26" s="1" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S26" s="1" t="inlineStr">
@@ -3471,12 +3471,12 @@
       </c>
       <c r="T26" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U26" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V26" s="1" t="inlineStr">
@@ -3491,29 +3491,29 @@
       </c>
       <c r="X26" s="1" t="inlineStr">
         <is>
-          <t>61.00</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="Y26" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="27" customHeight="true" ht="14.0">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>平价烧烤小吃</t>
+          <t>八闽寻味（肉燕盖浇饭）透明餐厅</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D27" s="1" t="inlineStr">
@@ -3538,27 +3538,27 @@
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满110.00返55.00;</t>
+          <t>基础返利6.00;满50.00返25.00;</t>
         </is>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M27" s="1" t="inlineStr">
@@ -3573,12 +3573,12 @@
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P27" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q27" s="1" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S27" s="1" t="inlineStr">
@@ -3598,12 +3598,12 @@
       </c>
       <c r="T27" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U27" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V27" s="1" t="inlineStr">
@@ -3618,29 +3618,29 @@
       </c>
       <c r="X27" s="1" t="inlineStr">
         <is>
-          <t>52.00</t>
+          <t>120.00</t>
         </is>
       </c>
       <c r="Y27" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="28" customHeight="true" ht="14.0">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>乇娘拌粉（世纪东方店）透明餐厅</t>
+          <t>BELLACAKE蛋糕·甜品</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
@@ -3665,37 +3665,37 @@
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满30.00返23.00;</t>
         </is>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M28" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N28" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O28" s="1" t="inlineStr">
@@ -3725,12 +3725,12 @@
       </c>
       <c r="T28" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U28" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V28" s="1" t="inlineStr">
@@ -3745,19 +3745,19 @@
       </c>
       <c r="X28" s="1" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y28" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="29" customHeight="true" ht="14.0">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（高新店）</t>
+          <t>南雲上品·瓦香鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
@@ -3792,17 +3792,17 @@
       </c>
       <c r="H29" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满26.00返12.00;</t>
+          <t>基础返利6.00;满25.00返12.00;</t>
         </is>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M29" s="1" t="inlineStr">
@@ -3827,22 +3827,22 @@
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P29" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q29" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q29" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S29" s="1" t="inlineStr">
@@ -3852,12 +3852,12 @@
       </c>
       <c r="T29" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U29" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V29" s="1" t="inlineStr">
@@ -3872,29 +3872,29 @@
       </c>
       <c r="X29" s="1" t="inlineStr">
         <is>
-          <t>64.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y29" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="30" customHeight="true" ht="14.0">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
+          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
@@ -3919,22 +3919,22 @@
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返15.00;</t>
+          <t>基础返利6.00;满30.00返18.00;</t>
         </is>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P30" s="1" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="X30" s="1" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y30" s="1" t="inlineStr">
@@ -4011,17 +4011,17 @@
     <row r="31" customHeight="true" ht="14.0">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>八闽寻味（肉燕盖浇饭）透明餐厅</t>
+          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
@@ -4046,17 +4046,17 @@
       </c>
       <c r="H31" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满50.00返25.00;</t>
+          <t>基础返利6.00;满30.00返18.00;</t>
         </is>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="P31" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q31" s="1" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S31" s="1" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="X31" s="1" t="inlineStr">
         <is>
-          <t>120.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y31" s="1" t="inlineStr">
@@ -4138,12 +4138,12 @@
     <row r="32" customHeight="true" ht="14.0">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>BELLACAKE蛋糕·甜品</t>
+          <t>新重庆鸡公煲（翠柏店）</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
@@ -4173,7 +4173,7 @@
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返23.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I32" s="1" t="inlineStr">
@@ -4183,12 +4183,12 @@
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="O32" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P32" s="1" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="T32" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U32" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V32" s="1" t="inlineStr">
@@ -4253,29 +4253,29 @@
       </c>
       <c r="X32" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="Y32" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="33" customHeight="true" ht="14.0">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>南雲上品·瓦香鸡（宁波大学店）</t>
+          <t>思念酒馆（现调鸡尾酒）</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
@@ -4300,22 +4300,22 @@
       </c>
       <c r="H33" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
@@ -4335,12 +4335,12 @@
       </c>
       <c r="O33" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P33" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q33" s="1" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S33" s="1" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="X33" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="Y33" s="1" t="inlineStr">
@@ -4392,12 +4392,12 @@
     <row r="34" customHeight="true" ht="14.0">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
+          <t>思念酒馆·现调鸡尾酒</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
@@ -4427,22 +4427,22 @@
       </c>
       <c r="H34" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返18.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
@@ -4462,12 +4462,12 @@
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P34" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q34" s="1" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S34" s="1" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="U34" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V34" s="1" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="X34" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="Y34" s="1" t="inlineStr">
@@ -4519,12 +4519,12 @@
     <row r="35" customHeight="true" ht="14.0">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
+          <t>M2蛋糕·面包</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>慈溪市</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
@@ -4554,22 +4554,22 @@
       </c>
       <c r="H35" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返18.00;</t>
+          <t>基础返利6.00;满20.00返7.00;</t>
         </is>
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
@@ -4589,19 +4589,19 @@
       </c>
       <c r="O35" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P35" s="1" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q35" s="1" t="inlineStr">
+        <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="Q35" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R35" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
@@ -4614,12 +4614,12 @@
       </c>
       <c r="T35" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U35" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V35" s="1" t="inlineStr">
@@ -4639,14 +4639,14 @@
       </c>
       <c r="Y35" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="36" customHeight="true" ht="14.0">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>新重庆鸡公煲（翠柏店）</t>
+          <t>湘巴佬·川川湘菜馆（镇海店）</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
@@ -4681,22 +4681,22 @@
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满24.00返12.00;</t>
         </is>
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L36" s="1" t="inlineStr">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P36" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q36" s="1" t="inlineStr">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="R36" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S36" s="1" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="X36" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>48.00</t>
         </is>
       </c>
       <c r="Y36" s="1" t="inlineStr">
@@ -4773,17 +4773,17 @@
     <row r="37" customHeight="true" ht="14.0">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>乇娘拌粉（世纪东方店）</t>
+          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
@@ -4818,17 +4818,17 @@
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L37" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M37" s="1" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P37" s="1" t="inlineStr">
@@ -4868,12 +4868,12 @@
       </c>
       <c r="T37" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U37" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V37" s="1" t="inlineStr">
@@ -4888,24 +4888,24 @@
       </c>
       <c r="X37" s="1" t="inlineStr">
         <is>
-          <t>42.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="Y37" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="38" customHeight="true" ht="14.0">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>思念酒馆（现调鸡尾酒）</t>
+          <t>百味轩私房川川湘菜</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
@@ -4935,22 +4935,22 @@
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满25.00返12.00;</t>
         </is>
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L38" s="1" t="inlineStr">
@@ -4970,22 +4970,22 @@
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P38" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q38" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R38" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S38" s="1" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="X38" s="1" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>49.00</t>
         </is>
       </c>
       <c r="Y38" s="1" t="inlineStr">
@@ -5027,17 +5027,17 @@
     <row r="39" customHeight="true" ht="14.0">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>思念酒馆·现调鸡尾酒</t>
+          <t>食色（红烧牛肉面·大步街店）</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr">
@@ -5062,22 +5062,22 @@
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满25.00返12.00;</t>
         </is>
       </c>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J39" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L39" s="1" t="inlineStr">
@@ -5097,22 +5097,22 @@
       </c>
       <c r="O39" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P39" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q39" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R39" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S39" s="1" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="U39" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V39" s="1" t="inlineStr">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="X39" s="1" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>155.00</t>
         </is>
       </c>
       <c r="Y39" s="1" t="inlineStr">
@@ -5154,12 +5154,12 @@
     <row r="40" customHeight="true" ht="14.0">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>M2蛋糕·面包</t>
+          <t>老巷子小锅米线（宁波店）</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>慈溪市</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
@@ -5189,22 +5189,22 @@
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返7.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J40" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-10</t>
         </is>
       </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L40" s="1" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O40" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P40" s="1" t="inlineStr">
@@ -5234,12 +5234,12 @@
       </c>
       <c r="Q40" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R40" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S40" s="1" t="inlineStr">
@@ -5249,12 +5249,12 @@
       </c>
       <c r="T40" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U40" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V40" s="1" t="inlineStr">
@@ -5269,1534 +5269,10 @@
       </c>
       <c r="X40" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="Y40" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" customHeight="true" ht="14.0">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>湘巴佬·川川湘菜馆（镇海店）</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F41" s="1" t="inlineStr">
-        <is>
-          <t>镇海区</t>
-        </is>
-      </c>
-      <c r="G41" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满24.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="J41" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-03</t>
-        </is>
-      </c>
-      <c r="K41" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L41" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M41" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N41" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O41" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P41" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="Q41" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R41" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="S41" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T41" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U41" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W41" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X41" s="1" t="inlineStr">
-        <is>
-          <t>60.00</t>
-        </is>
-      </c>
-      <c r="Y41" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" customHeight="true" ht="14.0">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>虾师傅·虾滑饭（北仑店）</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E42" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F42" s="1" t="inlineStr">
-        <is>
-          <t>北仑区</t>
-        </is>
-      </c>
-      <c r="G42" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="J42" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-03</t>
-        </is>
-      </c>
-      <c r="K42" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L42" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M42" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N42" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O42" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P42" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="Q42" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R42" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S42" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T42" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U42" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W42" s="1" t="inlineStr">
-        <is>
-          <t>预充值类型</t>
-        </is>
-      </c>
-      <c r="X42" s="1" t="inlineStr">
-        <is>
-          <t>52.00</t>
-        </is>
-      </c>
-      <c r="Y42" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" customHeight="true" ht="14.0">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F43" s="1" t="inlineStr">
-        <is>
-          <t>镇海区</t>
-        </is>
-      </c>
-      <c r="G43" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="J43" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-03</t>
-        </is>
-      </c>
-      <c r="K43" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L43" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M43" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N43" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O43" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P43" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="Q43" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R43" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S43" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T43" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U43" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W43" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X43" s="1" t="inlineStr">
-        <is>
-          <t>80.00</t>
-        </is>
-      </c>
-      <c r="Y43" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" customHeight="true" ht="14.0">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>茶禅悦·热着饮悦暖心</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>奶茶甜点</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>广东省</t>
-        </is>
-      </c>
-      <c r="E44" s="1" t="inlineStr">
-        <is>
-          <t>广州市</t>
-        </is>
-      </c>
-      <c r="F44" s="1" t="inlineStr">
-        <is>
-          <t>黄埔区</t>
-        </is>
-      </c>
-      <c r="G44" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满13.00返13.00;</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J44" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-03</t>
-        </is>
-      </c>
-      <c r="K44" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L44" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M44" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N44" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O44" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P44" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="Q44" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R44" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S44" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T44" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U44" s="1" t="inlineStr">
-        <is>
-          <t>李启苑</t>
-        </is>
-      </c>
-      <c r="V44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W44" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X44" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="Y44" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="45" customHeight="true" ht="14.0">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>西北阁手抓饭·炒面</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F45" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G45" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返14.00;</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="J45" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-03</t>
-        </is>
-      </c>
-      <c r="K45" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L45" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M45" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N45" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O45" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P45" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q45" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="R45" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="S45" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T45" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U45" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W45" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X45" s="1" t="inlineStr">
-        <is>
-          <t>142.00</t>
-        </is>
-      </c>
-      <c r="Y45" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="46" customHeight="true" ht="14.0">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>西北阁手抓饭·炒面</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E46" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F46" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G46" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返14.00;</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="J46" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-03</t>
-        </is>
-      </c>
-      <c r="K46" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L46" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N46" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O46" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P46" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q46" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="R46" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="S46" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T46" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U46" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W46" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X46" s="1" t="inlineStr">
-        <is>
-          <t>142.00</t>
-        </is>
-      </c>
-      <c r="Y46" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" customHeight="true" ht="14.0">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>西北阁手抓饭·炒面</t>
-        </is>
-      </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F47" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G47" s="1" t="inlineStr">
-        <is>
-          <t>无需品鉴意见</t>
-        </is>
-      </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返14.00;</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="J47" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-03</t>
-        </is>
-      </c>
-      <c r="K47" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L47" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M47" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N47" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O47" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P47" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q47" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="R47" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="S47" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T47" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U47" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W47" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X47" s="1" t="inlineStr">
-        <is>
-          <t>142.00</t>
-        </is>
-      </c>
-      <c r="Y47" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" customHeight="true" ht="14.0">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>西北阁手抓饭·炒面</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F48" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G48" s="1" t="inlineStr">
-        <is>
-          <t>无需品鉴意见</t>
-        </is>
-      </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返14.00;</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="J48" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-03</t>
-        </is>
-      </c>
-      <c r="K48" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L48" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M48" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N48" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O48" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P48" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q48" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="R48" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="S48" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T48" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U48" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W48" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X48" s="1" t="inlineStr">
-        <is>
-          <t>142.00</t>
-        </is>
-      </c>
-      <c r="Y48" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" customHeight="true" ht="14.0">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>饭小七·酱香鸡煲排骨煲</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E49" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F49" s="1" t="inlineStr">
-        <is>
-          <t>海曙区</t>
-        </is>
-      </c>
-      <c r="G49" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J49" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-03</t>
-        </is>
-      </c>
-      <c r="K49" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L49" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M49" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N49" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O49" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P49" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q49" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R49" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S49" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T49" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U49" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W49" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X49" s="1" t="inlineStr">
-        <is>
-          <t>70.00</t>
-        </is>
-      </c>
-      <c r="Y49" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" customHeight="true" ht="14.0">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>隆江猪脚饭</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E50" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F50" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G50" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="J50" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-03</t>
-        </is>
-      </c>
-      <c r="K50" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L50" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M50" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N50" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O50" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="P50" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q50" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="R50" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="S50" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T50" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U50" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W50" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X50" s="1" t="inlineStr">
-        <is>
-          <t>96.00</t>
-        </is>
-      </c>
-      <c r="Y50" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" customHeight="true" ht="14.0">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>百味轩私房川川湘菜</t>
-        </is>
-      </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E51" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F51" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G51" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J51" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-03</t>
-        </is>
-      </c>
-      <c r="K51" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L51" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M51" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N51" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O51" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="P51" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q51" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R51" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S51" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T51" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U51" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W51" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X51" s="1" t="inlineStr">
-        <is>
-          <t>135.00</t>
-        </is>
-      </c>
-      <c r="Y51" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" customHeight="true" ht="14.0">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>食色（红烧牛肉面·大步街店）</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E52" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F52" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G52" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J52" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-03</t>
-        </is>
-      </c>
-      <c r="K52" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L52" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M52" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N52" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O52" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P52" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q52" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R52" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S52" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T52" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U52" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W52" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X52" s="1" t="inlineStr">
-        <is>
-          <t>80.00</t>
-        </is>
-      </c>
-      <c r="Y52" s="1" t="inlineStr">
         <is>
           <t>业务员:曾坤丽</t>
         </is>

--- a/data/门店发布统计.xlsx
+++ b/data/门店发布统计.xlsx
@@ -328,12 +328,12 @@
     <row r="2" customHeight="true" ht="14.0">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>吉小果（果切·果捞·灵峰路店）</t>
+          <t>云燕芳·姨妈热饮·鲜…</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>水果果切</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -353,7 +353,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>北仑区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -363,22 +363,22 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满15.00返10.00;满25.00返15.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>5.00;10.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -398,24 +398,24 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="S2" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -423,12 +423,12 @@
       </c>
       <c r="T2" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U2" s="1" t="inlineStr">
         <is>
-          <t>王瑛</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V2" s="1" t="inlineStr">
@@ -438,29 +438,29 @@
       </c>
       <c r="W2" s="1" t="inlineStr">
         <is>
-          <t>预充值类型</t>
+          <t>预授权类型</t>
         </is>
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>51.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
         <is>
-          <t>商户:13545368898</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="3" customHeight="true" ht="14.0">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜…</t>
+          <t>密斯金韩餐（吾悦广场店）</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -490,22 +490,22 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -525,12 +525,12 @@
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
@@ -540,7 +540,7 @@
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S3" s="1" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="U3" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>王瑛</t>
         </is>
       </c>
       <c r="V3" s="1" t="inlineStr">
@@ -570,12 +570,12 @@
       </c>
       <c r="X3" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y3" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>商户:15988600122</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -709,17 +709,17 @@
     <row r="5" customHeight="true" ht="14.0">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>密斯金韩餐（吾悦广场店）</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -744,22 +744,22 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -779,12 +779,12 @@
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S5" s="1" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="U5" s="1" t="inlineStr">
         <is>
-          <t>王瑛</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V5" s="1" t="inlineStr">
@@ -824,24 +824,24 @@
       </c>
       <c r="X5" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>75.00</t>
         </is>
       </c>
       <c r="Y5" s="1" t="inlineStr">
         <is>
-          <t>商户:15988600122</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="6" customHeight="true" ht="14.0">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>奉化区</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -871,27 +871,27 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S6" s="1" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="T6" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U6" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V6" s="1" t="inlineStr">
@@ -951,24 +951,24 @@
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t>101.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="7" customHeight="true" ht="14.0">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
+          <t>胖虎手作汉堡</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>奉化区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -998,22 +998,22 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1033,12 +1033,12 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S7" s="1" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="X7" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="Y7" s="1" t="inlineStr">
@@ -1090,7 +1090,7 @@
     <row r="8" customHeight="true" ht="14.0">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡</t>
+          <t>胖虎手作汉堡（天一店）</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -1217,7 +1217,7 @@
     <row r="9" customHeight="true" ht="14.0">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡（天一店）</t>
+          <t>西施凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -1252,22 +1252,22 @@
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满20.00返12.00;</t>
         </is>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1287,22 +1287,22 @@
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q9" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q9" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S9" s="1" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="U9" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V9" s="1" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="10" customHeight="true" ht="14.0">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>西施凉皮（宁波大学店）</t>
+          <t>西施·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
@@ -1379,17 +1379,17 @@
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返12.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
@@ -1471,12 +1471,12 @@
     <row r="11" customHeight="true" ht="14.0">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>西施·凉皮（宁波大学店）</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
@@ -1506,22 +1506,22 @@
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满24.00返10.00;</t>
         </is>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
@@ -1566,12 +1566,12 @@
       </c>
       <c r="T11" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U11" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V11" s="1" t="inlineStr">
@@ -1591,24 +1591,24 @@
       </c>
       <c r="Y11" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="12" customHeight="true" ht="14.0">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
@@ -1633,22 +1633,22 @@
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满24.00返10.00;</t>
+          <t>基础返利6.00;满20.00返15.00;满50.00返30.00;</t>
         </is>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>5.00;20.00</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
@@ -1725,12 +1725,12 @@
     <row r="13" customHeight="true" ht="14.0">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
@@ -1760,17 +1760,17 @@
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;满50.00返30.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>5.00;20.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="U13" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V13" s="1" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y13" s="1" t="inlineStr">
@@ -1852,12 +1852,12 @@
     <row r="14" customHeight="true" ht="14.0">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
@@ -1887,22 +1887,22 @@
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满30.00返10.00;</t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1922,19 +1922,19 @@
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q14" s="1" t="inlineStr">
+        <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="Q14" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
@@ -1947,12 +1947,12 @@
       </c>
       <c r="T14" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U14" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V14" s="1" t="inlineStr">
@@ -1972,19 +1972,19 @@
       </c>
       <c r="Y14" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="15" customHeight="true" ht="14.0">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -2014,22 +2014,22 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返10.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S15" s="1" t="inlineStr">
@@ -2074,12 +2074,12 @@
       </c>
       <c r="T15" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U15" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V15" s="1" t="inlineStr">
@@ -2094,29 +2094,29 @@
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="Y15" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="16" customHeight="true" ht="14.0">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>九幺妹·现炒湘菜（海曙店）</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
@@ -2141,22 +2141,22 @@
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -2176,12 +2176,12 @@
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S16" s="1" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="U16" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V16" s="1" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="X16" s="1" t="inlineStr">
         <is>
-          <t>82.50</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="Y16" s="1" t="inlineStr">
@@ -2233,12 +2233,12 @@
     <row r="17" customHeight="true" ht="14.0">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>十一的大骨米线</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -2268,27 +2268,27 @@
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返15.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M17" s="1" t="inlineStr">
@@ -2303,22 +2303,22 @@
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q17" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q17" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S17" s="1" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>140.00</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
@@ -2360,7 +2360,7 @@
     <row r="18" customHeight="true" ht="14.0">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
@@ -2395,22 +2395,22 @@
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返15.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -2430,22 +2430,22 @@
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q18" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q18" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S18" s="1" t="inlineStr">
@@ -2455,12 +2455,12 @@
       </c>
       <c r="T18" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U18" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V18" s="1" t="inlineStr">
@@ -2475,19 +2475,19 @@
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="19" customHeight="true" ht="14.0">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>十一的大骨米线</t>
+          <t>八闽·寻味（肉燕盖浇饭）</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
@@ -2522,22 +2522,22 @@
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满50.00返25.00;</t>
         </is>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
@@ -2582,12 +2582,12 @@
       </c>
       <c r="T19" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U19" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V19" s="1" t="inlineStr">
@@ -2602,24 +2602,24 @@
       </c>
       <c r="X19" s="1" t="inlineStr">
         <is>
-          <t>170.00</t>
+          <t>114.00</t>
         </is>
       </c>
       <c r="Y19" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="20" customHeight="true" ht="14.0">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>酒夜王炸</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
@@ -2649,17 +2649,17 @@
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S20" s="1" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="T20" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U20" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V20" s="1" t="inlineStr">
@@ -2729,24 +2729,24 @@
       </c>
       <c r="X20" s="1" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y20" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="21" customHeight="true" ht="14.0">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>八闽·寻味（肉燕盖浇饭）</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
@@ -2776,27 +2776,27 @@
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满50.00返25.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M21" s="1" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
@@ -2836,12 +2836,12 @@
       </c>
       <c r="T21" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U21" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V21" s="1" t="inlineStr">
@@ -2856,19 +2856,19 @@
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>120.00</t>
+          <t>108.00</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="22" customHeight="true" ht="14.0">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>134.00</t>
+          <t>108.00</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
@@ -2995,17 +2995,17 @@
     <row r="23" customHeight="true" ht="14.0">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>平价烧烤小吃</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
@@ -3030,17 +3030,17 @@
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满110.00返55.00;</t>
         </is>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>55.00</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S23" s="1" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>134.00</t>
+          <t>107.00</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
@@ -3122,17 +3122,17 @@
     <row r="24" customHeight="true" ht="14.0">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>平价烧烤小吃</t>
+          <t>乇娘拌粉（世纪东方店）透明餐厅</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
@@ -3157,22 +3157,22 @@
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满110.00返55.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P24" s="1" t="inlineStr">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="T24" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U24" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V24" s="1" t="inlineStr">
@@ -3237,12 +3237,12 @@
       </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t>107.00</t>
+          <t>152.50</t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
@@ -3431,22 +3431,22 @@
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M26" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N26" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="P26" s="1" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="X26" s="1" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="Y26" s="1" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="X27" s="1" t="inlineStr">
         <is>
-          <t>120.00</t>
+          <t>114.00</t>
         </is>
       </c>
       <c r="Y27" s="1" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="X32" s="1" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="Y32" s="1" t="inlineStr">
@@ -4265,12 +4265,12 @@
     <row r="33" customHeight="true" ht="14.0">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>思念酒馆（现调鸡尾酒）</t>
+          <t>乇娘拌粉（世纪东方店）</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
@@ -4310,37 +4310,37 @@
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M33" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N33" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O33" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P33" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q33" s="1" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S33" s="1" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="X33" s="1" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>152.50</t>
         </is>
       </c>
       <c r="Y33" s="1" t="inlineStr">
@@ -4392,7 +4392,7 @@
     <row r="34" customHeight="true" ht="14.0">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>思念酒馆·现调鸡尾酒</t>
+          <t>思念酒馆（现调鸡尾酒）</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="U34" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V34" s="1" t="inlineStr">
@@ -4519,17 +4519,17 @@
     <row r="35" customHeight="true" ht="14.0">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>M2蛋糕·面包</t>
+          <t>思念酒馆·现调鸡尾酒</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>慈溪市</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
@@ -4554,17 +4554,17 @@
       </c>
       <c r="H35" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返7.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
@@ -4594,17 +4594,17 @@
       </c>
       <c r="P35" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q35" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q35" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="R35" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S35" s="1" t="inlineStr">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="T35" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U35" s="1" t="inlineStr">
@@ -4634,24 +4634,24 @@
       </c>
       <c r="X35" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="Y35" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="36" customHeight="true" ht="14.0">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>湘巴佬·川川湘菜馆（镇海店）</t>
+          <t>M2蛋糕·面包</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>慈溪市</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
@@ -4681,22 +4681,22 @@
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满24.00返12.00;</t>
+          <t>基础返利6.00;满20.00返7.00;</t>
         </is>
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L36" s="1" t="inlineStr">
@@ -4716,22 +4716,22 @@
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P36" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q36" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R36" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S36" s="1" t="inlineStr">
@@ -4741,12 +4741,12 @@
       </c>
       <c r="T36" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U36" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V36" s="1" t="inlineStr">
@@ -4761,29 +4761,29 @@
       </c>
       <c r="X36" s="1" t="inlineStr">
         <is>
-          <t>48.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y36" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="37" customHeight="true" ht="14.0">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
+          <t>湘巴佬·川川湘菜馆（镇海店）</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
@@ -4808,17 +4808,17 @@
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满24.00返12.00;</t>
         </is>
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="P37" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q37" s="1" t="inlineStr">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="R37" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S37" s="1" t="inlineStr">
@@ -4868,12 +4868,12 @@
       </c>
       <c r="T37" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U37" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V37" s="1" t="inlineStr">
@@ -4888,29 +4888,29 @@
       </c>
       <c r="X37" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>48.00</t>
         </is>
       </c>
       <c r="Y37" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="38" customHeight="true" ht="14.0">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>百味轩私房川川湘菜</t>
+          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
@@ -4935,22 +4935,22 @@
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L38" s="1" t="inlineStr">
@@ -4970,24 +4970,24 @@
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P38" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q38" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q38" s="1" t="inlineStr">
+      <c r="R38" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="R38" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="S38" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -4995,12 +4995,12 @@
       </c>
       <c r="T38" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U38" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V38" s="1" t="inlineStr">
@@ -5015,19 +5015,19 @@
       </c>
       <c r="X38" s="1" t="inlineStr">
         <is>
-          <t>49.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="Y38" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="39" customHeight="true" ht="14.0">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>食色（红烧牛肉面·大步街店）</t>
+          <t>西北阁手抓饭·炒面</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
@@ -5062,42 +5062,42 @@
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
+          <t>基础返利6.00;满20.00返14.00;</t>
         </is>
       </c>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J39" s="1" t="inlineStr">
         <is>
-          <t>2024-12-10</t>
+          <t>2024-12-11</t>
         </is>
       </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L39" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M39" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N39" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O39" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P39" s="1" t="inlineStr">
@@ -5107,12 +5107,12 @@
       </c>
       <c r="Q39" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R39" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S39" s="1" t="inlineStr">
@@ -5122,12 +5122,12 @@
       </c>
       <c r="T39" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U39" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V39" s="1" t="inlineStr">
@@ -5142,137 +5142,1280 @@
       </c>
       <c r="X39" s="1" t="inlineStr">
         <is>
-          <t>155.00</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="Y39" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="40" customHeight="true" ht="14.0">
       <c r="A40" s="1" t="inlineStr">
         <is>
+          <t>西北阁手抓饭·炒面</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G40" s="1" t="inlineStr">
+        <is>
+          <t>无需品鉴意见</t>
+        </is>
+      </c>
+      <c r="H40" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满20.00返11.00;</t>
+        </is>
+      </c>
+      <c r="I40" s="1" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="J40" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="K40" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L40" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M40" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N40" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O40" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P40" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q40" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="R40" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S40" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T40" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="U40" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="V40" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W40" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X40" s="1" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="Y40" s="1" t="inlineStr">
+        <is>
+          <t>业务员:张洁茹</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" customHeight="true" ht="14.0">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>百味轩私房川川湘菜</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H41" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返12.00;</t>
+        </is>
+      </c>
+      <c r="I41" s="1" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="J41" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="K41" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L41" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M41" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N41" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O41" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P41" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q41" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R41" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S41" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T41" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U41" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V41" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W41" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X41" s="1" t="inlineStr">
+        <is>
+          <t>265.00</t>
+        </is>
+      </c>
+      <c r="Y41" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" customHeight="true" ht="14.0">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>食色（红烧牛肉面·大步街店）</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H42" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返12.00;</t>
+        </is>
+      </c>
+      <c r="I42" s="1" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="J42" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="K42" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L42" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M42" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N42" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O42" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P42" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q42" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R42" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S42" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T42" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V42" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W42" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X42" s="1" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="Y42" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" customHeight="true" ht="14.0">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>绍兴小笼</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>⾯粉粥包</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>饿了么</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>海曙区</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H43" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满20.00返13.00;</t>
+        </is>
+      </c>
+      <c r="I43" s="1" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="J43" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="K43" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L43" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M43" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N43" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O43" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P43" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q43" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R43" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S43" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T43" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="V43" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W43" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X43" s="1" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="Y43" s="1" t="inlineStr">
+        <is>
+          <t>业务员:张洁茹</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" customHeight="true" ht="14.0">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>肉上头煲仔饭</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>饿了么</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>镇海区</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H44" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满20.00返9.00;</t>
+        </is>
+      </c>
+      <c r="I44" s="1" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="J44" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="K44" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L44" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M44" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N44" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O44" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P44" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q44" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R44" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S44" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T44" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="U44" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="V44" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W44" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X44" s="1" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="Y44" s="1" t="inlineStr">
+        <is>
+          <t>业务员:张洁茹</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" customHeight="true" ht="14.0">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>肉上头煲仔饭</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>镇海区</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H45" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返12.00;</t>
+        </is>
+      </c>
+      <c r="I45" s="1" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="J45" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="K45" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L45" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M45" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N45" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O45" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P45" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q45" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R45" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S45" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T45" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U45" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V45" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W45" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X45" s="1" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+      <c r="Y45" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" customHeight="true" ht="14.0">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
           <t>老巷子小锅米线（宁波店）</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>中餐便餐</t>
         </is>
       </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
       </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="D46" s="1" t="inlineStr">
         <is>
           <t>浙江省</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E46" s="1" t="inlineStr">
         <is>
           <t>宁波市</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F46" s="1" t="inlineStr">
         <is>
           <t>镇海区</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G46" s="1" t="inlineStr">
         <is>
           <t>霸王餐需品鉴意见(需图需字)</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
+      <c r="H46" s="1" t="inlineStr">
         <is>
           <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="I46" s="1" t="inlineStr">
         <is>
           <t>10.00</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-10</t>
-        </is>
-      </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="J46" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="K46" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L40" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M40" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N40" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O40" s="1" t="inlineStr">
+      <c r="L46" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M46" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N46" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O46" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P40" s="1" t="inlineStr">
+      <c r="P46" s="1" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q40" s="1" t="inlineStr">
+      <c r="Q46" s="1" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="R40" s="1" t="inlineStr">
+      <c r="R46" s="1" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="S40" s="1" t="inlineStr">
+      <c r="S46" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
         </is>
       </c>
-      <c r="T40" s="1" t="inlineStr">
+      <c r="T46" s="1" t="inlineStr">
         <is>
           <t>曾坤丽</t>
         </is>
       </c>
-      <c r="U40" s="1" t="inlineStr">
+      <c r="U46" s="1" t="inlineStr">
         <is>
           <t>曾坤丽</t>
         </is>
       </c>
-      <c r="V40" s="1" t="inlineStr">
+      <c r="V46" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="W40" s="1" t="inlineStr">
+      <c r="W46" s="1" t="inlineStr">
         <is>
           <t>预授权类型</t>
         </is>
       </c>
-      <c r="X40" s="1" t="inlineStr">
+      <c r="X46" s="1" t="inlineStr">
         <is>
           <t>20.00</t>
         </is>
       </c>
-      <c r="Y40" s="1" t="inlineStr">
+      <c r="Y46" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" customHeight="true" ht="14.0">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>口口香北京片皮烤鸭</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>饿了么</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>镇海区</t>
+        </is>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H47" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返10.00;</t>
+        </is>
+      </c>
+      <c r="I47" s="1" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="J47" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="K47" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L47" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M47" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N47" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O47" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P47" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q47" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R47" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S47" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T47" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U47" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V47" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W47" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X47" s="1" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="Y47" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" customHeight="true" ht="14.0">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>7%Cake·蛋糕·糖水甜品·咖啡（儿童公园店）</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>生日蛋糕</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>饿了么</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H48" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返12.00;</t>
+        </is>
+      </c>
+      <c r="I48" s="1" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="J48" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="K48" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L48" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M48" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N48" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O48" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P48" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q48" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R48" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S48" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T48" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U48" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V48" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W48" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X48" s="1" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="Y48" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" customHeight="true" ht="14.0">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>7%cake(糖水甜品·生日蛋糕·咖啡）</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>生日蛋糕</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H49" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返12.00;</t>
+        </is>
+      </c>
+      <c r="I49" s="1" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="J49" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-11</t>
+        </is>
+      </c>
+      <c r="K49" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L49" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M49" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N49" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O49" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P49" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q49" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R49" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S49" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T49" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U49" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V49" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W49" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X49" s="1" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="Y49" s="1" t="inlineStr">
         <is>
           <t>业务员:曾坤丽</t>
         </is>

--- a/data/门店发布统计.xlsx
+++ b/data/门店发布统计.xlsx
@@ -373,7 +373,7 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="X5" s="1" t="inlineStr">
         <is>
-          <t>75.00</t>
+          <t>88.00</t>
         </is>
       </c>
       <c r="Y5" s="1" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="X7" s="1" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y7" s="1" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
@@ -1471,17 +1471,17 @@
     <row r="11" customHeight="true" ht="14.0">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>余姚市</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
@@ -1506,22 +1506,22 @@
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满24.00返10.00;</t>
+          <t>基础返利6.00;满20.00返18.00;</t>
         </is>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
@@ -1566,12 +1566,12 @@
       </c>
       <c r="T11" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U11" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V11" s="1" t="inlineStr">
@@ -1586,29 +1586,29 @@
       </c>
       <c r="X11" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="Y11" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="12" customHeight="true" ht="14.0">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
@@ -1633,22 +1633,22 @@
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;满50.00返30.00;</t>
+          <t>基础返利6.00;满24.00返10.00;</t>
         </is>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>5.00;20.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
@@ -1725,12 +1725,12 @@
     <row r="13" customHeight="true" ht="14.0">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
@@ -1760,17 +1760,17 @@
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满20.00返15.00;满50.00返30.00;</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>5.00;20.00</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="U13" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V13" s="1" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>65.00</t>
         </is>
       </c>
       <c r="Y13" s="1" t="inlineStr">
@@ -1852,12 +1852,12 @@
     <row r="14" customHeight="true" ht="14.0">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
@@ -1887,22 +1887,22 @@
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返10.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1922,24 +1922,24 @@
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q14" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q14" s="1" t="inlineStr">
+      <c r="R14" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R14" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S14" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -1947,12 +1947,12 @@
       </c>
       <c r="T14" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U14" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V14" s="1" t="inlineStr">
@@ -1967,24 +1967,24 @@
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="15" customHeight="true" ht="14.0">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -2014,22 +2014,22 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返15.00;</t>
+          <t>基础返利6.00;满30.00返10.00;</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S15" s="1" t="inlineStr">
@@ -2074,12 +2074,12 @@
       </c>
       <c r="T15" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U15" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V15" s="1" t="inlineStr">
@@ -2094,19 +2094,19 @@
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y15" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="16" customHeight="true" ht="14.0">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="X16" s="1" t="inlineStr">
         <is>
-          <t>35.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="Y16" s="1" t="inlineStr">
@@ -2233,17 +2233,17 @@
     <row r="17" customHeight="true" ht="14.0">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>十一的大骨米线</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
@@ -2268,27 +2268,27 @@
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M17" s="1" t="inlineStr">
@@ -2303,12 +2303,12 @@
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q17" s="1" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S17" s="1" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>140.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
@@ -2360,17 +2360,17 @@
     <row r="18" customHeight="true" ht="14.0">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>十一的大骨米线</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
@@ -2395,17 +2395,17 @@
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
@@ -2415,27 +2415,27 @@
       </c>
       <c r="L18" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M18" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N18" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S18" s="1" t="inlineStr">
@@ -2455,12 +2455,12 @@
       </c>
       <c r="T18" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U18" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V18" s="1" t="inlineStr">
@@ -2475,29 +2475,29 @@
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>110.00</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="19" customHeight="true" ht="14.0">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>八闽·寻味（肉燕盖浇饭）</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
@@ -2522,22 +2522,22 @@
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满50.00返25.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2557,12 +2557,12 @@
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S19" s="1" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="U19" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V19" s="1" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="X19" s="1" t="inlineStr">
         <is>
-          <t>114.00</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="Y19" s="1" t="inlineStr">
@@ -2614,17 +2614,17 @@
     <row r="20" customHeight="true" ht="14.0">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>酒夜王炸</t>
+          <t>八闽·寻味（肉燕盖浇饭）</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
@@ -2649,22 +2649,22 @@
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满50.00返25.00;</t>
         </is>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="T20" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U20" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V20" s="1" t="inlineStr">
@@ -2729,29 +2729,29 @@
       </c>
       <c r="X20" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>114.00</t>
         </is>
       </c>
       <c r="Y20" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="21" customHeight="true" ht="14.0">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>酒夜王炸</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
@@ -2776,17 +2776,17 @@
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="L21" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M21" s="1" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>108.00</t>
+          <t>87.00</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
@@ -2868,7 +2868,7 @@
     <row r="22" customHeight="true" ht="14.0">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>108.00</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
@@ -2995,17 +2995,17 @@
     <row r="23" customHeight="true" ht="14.0">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>平价烧烤小吃</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
@@ -3030,17 +3030,17 @@
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满110.00返55.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S23" s="1" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>107.00</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
@@ -3122,17 +3122,17 @@
     <row r="24" customHeight="true" ht="14.0">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>乇娘拌粉（世纪东方店）透明餐厅</t>
+          <t>平价烧烤小吃</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>烧烤夜宵</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
@@ -3157,22 +3157,22 @@
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满110.00返55.00;</t>
         </is>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>55.00</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P24" s="1" t="inlineStr">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="T24" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U24" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V24" s="1" t="inlineStr">
@@ -3237,12 +3237,12 @@
       </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t>152.50</t>
+          <t>107.00</t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
@@ -3431,22 +3431,22 @@
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M26" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N26" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P26" s="1" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="X26" s="1" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="Y26" s="1" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
@@ -4138,12 +4138,12 @@
     <row r="32" customHeight="true" ht="14.0">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>新重庆鸡公煲（翠柏店）</t>
+          <t>思念酒馆（现调鸡尾酒）</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
@@ -4173,22 +4173,22 @@
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
@@ -4208,12 +4208,12 @@
       </c>
       <c r="O32" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P32" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q32" s="1" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S32" s="1" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="X32" s="1" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="Y32" s="1" t="inlineStr">
@@ -4265,17 +4265,17 @@
     <row r="33" customHeight="true" ht="14.0">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>乇娘拌粉（世纪东方店）</t>
+          <t>思念酒馆·现调鸡尾酒</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
@@ -4310,37 +4310,37 @@
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M33" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N33" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O33" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P33" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q33" s="1" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S33" s="1" t="inlineStr">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="U33" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V33" s="1" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="X33" s="1" t="inlineStr">
         <is>
-          <t>152.50</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="Y33" s="1" t="inlineStr">
@@ -4392,12 +4392,12 @@
     <row r="34" customHeight="true" ht="14.0">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>思念酒馆（现调鸡尾酒）</t>
+          <t>M2蛋糕·面包</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>慈溪市</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
@@ -4427,17 +4427,17 @@
       </c>
       <c r="H34" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满20.00返7.00;</t>
         </is>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
@@ -4467,17 +4467,17 @@
       </c>
       <c r="P34" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q34" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S34" s="1" t="inlineStr">
@@ -4487,12 +4487,12 @@
       </c>
       <c r="T34" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U34" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V34" s="1" t="inlineStr">
@@ -4507,24 +4507,24 @@
       </c>
       <c r="X34" s="1" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y34" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="35" customHeight="true" ht="14.0">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>思念酒馆·现调鸡尾酒</t>
+          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
@@ -4564,12 +4564,12 @@
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
@@ -4589,12 +4589,12 @@
       </c>
       <c r="O35" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P35" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q35" s="1" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="R35" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S35" s="1" t="inlineStr">
@@ -4614,12 +4614,12 @@
       </c>
       <c r="T35" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U35" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V35" s="1" t="inlineStr">
@@ -4634,24 +4634,24 @@
       </c>
       <c r="X35" s="1" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="Y35" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="36" customHeight="true" ht="14.0">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>M2蛋糕·面包</t>
+          <t>百味轩私房川川湘菜</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>慈溪市</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返7.00;</t>
+          <t>基础返利6.00;满25.00返12.00;</t>
         </is>
       </c>
       <c r="I36" s="1" t="inlineStr">
@@ -4691,12 +4691,12 @@
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L36" s="1" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P36" s="1" t="inlineStr">
@@ -4741,12 +4741,12 @@
       </c>
       <c r="T36" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U36" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V36" s="1" t="inlineStr">
@@ -4761,19 +4761,19 @@
       </c>
       <c r="X36" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>120.00</t>
         </is>
       </c>
       <c r="Y36" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="37" customHeight="true" ht="14.0">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>湘巴佬·川川湘菜馆（镇海店）</t>
+          <t>食色（红烧牛肉面·大步街店）</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
@@ -4808,22 +4808,22 @@
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满24.00返12.00;</t>
+          <t>基础返利6.00;满25.00返12.00;</t>
         </is>
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L37" s="1" t="inlineStr">
@@ -4843,22 +4843,22 @@
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P37" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q37" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R37" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S37" s="1" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="X37" s="1" t="inlineStr">
         <is>
-          <t>48.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y37" s="1" t="inlineStr">
@@ -4900,12 +4900,12 @@
     <row r="38" customHeight="true" ht="14.0">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
@@ -4935,17 +4935,17 @@
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="X38" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>88.00</t>
         </is>
       </c>
       <c r="Y38" s="1" t="inlineStr">
@@ -5027,7 +5027,7 @@
     <row r="39" customHeight="true" ht="14.0">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>西北阁手抓饭·炒面</t>
+          <t>老巷子小锅米线（宁波店）</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
@@ -5062,44 +5062,44 @@
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返14.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J39" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L39" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M39" s="1" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N39" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O39" s="1" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N39" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O39" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="P39" s="1" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -5107,12 +5107,12 @@
       </c>
       <c r="Q39" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R39" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S39" s="1" t="inlineStr">
@@ -5122,12 +5122,12 @@
       </c>
       <c r="T39" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U39" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V39" s="1" t="inlineStr">
@@ -5142,19 +5142,19 @@
       </c>
       <c r="X39" s="1" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="Y39" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="40" customHeight="true" ht="14.0">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>西北阁手抓饭·炒面</t>
+          <t>口口香北京片皮烤鸭</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
@@ -5179,52 +5179,52 @@
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>无需品鉴意见</t>
+          <t>霸王餐需品鉴意见(需图需字)</t>
         </is>
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返11.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J40" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L40" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M40" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N40" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O40" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P40" s="1" t="inlineStr">
@@ -5234,12 +5234,12 @@
       </c>
       <c r="Q40" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R40" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S40" s="1" t="inlineStr">
@@ -5249,12 +5249,12 @@
       </c>
       <c r="T40" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U40" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V40" s="1" t="inlineStr">
@@ -5269,29 +5269,29 @@
       </c>
       <c r="X40" s="1" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>124.00</t>
         </is>
       </c>
       <c r="Y40" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="41" customHeight="true" ht="14.0">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>百味轩私房川川湘菜</t>
+          <t>7%Cake·蛋糕·糖水甜品·咖啡（儿童公园店）</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="J41" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
@@ -5336,22 +5336,22 @@
       </c>
       <c r="L41" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M41" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N41" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O41" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P41" s="1" t="inlineStr">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="X41" s="1" t="inlineStr">
         <is>
-          <t>265.00</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="Y41" s="1" t="inlineStr">
@@ -5408,12 +5408,12 @@
     <row r="42" customHeight="true" ht="14.0">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>食色（红烧牛肉面·大步街店）</t>
+          <t>7%cake(糖水甜品·生日蛋糕·咖啡）</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="J42" s="1" t="inlineStr">
         <is>
-          <t>2024-12-11</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="K42" s="1" t="inlineStr">
@@ -5523,899 +5523,10 @@
       </c>
       <c r="X42" s="1" t="inlineStr">
         <is>
-          <t>75.00</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="Y42" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" customHeight="true" ht="14.0">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>绍兴小笼</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>⾯粉粥包</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F43" s="1" t="inlineStr">
-        <is>
-          <t>海曙区</t>
-        </is>
-      </c>
-      <c r="G43" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="J43" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-11</t>
-        </is>
-      </c>
-      <c r="K43" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L43" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M43" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N43" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O43" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P43" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="Q43" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R43" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S43" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T43" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U43" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W43" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X43" s="1" t="inlineStr">
-        <is>
-          <t>75.00</t>
-        </is>
-      </c>
-      <c r="Y43" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" customHeight="true" ht="14.0">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>肉上头煲仔饭</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E44" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F44" s="1" t="inlineStr">
-        <is>
-          <t>镇海区</t>
-        </is>
-      </c>
-      <c r="G44" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返9.00;</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="J44" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-11</t>
-        </is>
-      </c>
-      <c r="K44" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L44" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M44" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N44" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O44" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P44" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q44" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R44" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S44" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T44" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U44" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W44" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X44" s="1" t="inlineStr">
-        <is>
-          <t>40.00</t>
-        </is>
-      </c>
-      <c r="Y44" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="45" customHeight="true" ht="14.0">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>肉上头煲仔饭</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F45" s="1" t="inlineStr">
-        <is>
-          <t>镇海区</t>
-        </is>
-      </c>
-      <c r="G45" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J45" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-11</t>
-        </is>
-      </c>
-      <c r="K45" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L45" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M45" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N45" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O45" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P45" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q45" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R45" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S45" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T45" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U45" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W45" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X45" s="1" t="inlineStr">
-        <is>
-          <t>55.00</t>
-        </is>
-      </c>
-      <c r="Y45" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="46" customHeight="true" ht="14.0">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>老巷子小锅米线（宁波店）</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E46" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F46" s="1" t="inlineStr">
-        <is>
-          <t>镇海区</t>
-        </is>
-      </c>
-      <c r="G46" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="J46" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-11</t>
-        </is>
-      </c>
-      <c r="K46" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L46" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N46" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O46" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P46" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q46" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R46" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S46" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T46" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U46" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W46" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X46" s="1" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="Y46" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" customHeight="true" ht="14.0">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>口口香北京片皮烤鸭</t>
-        </is>
-      </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F47" s="1" t="inlineStr">
-        <is>
-          <t>镇海区</t>
-        </is>
-      </c>
-      <c r="G47" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="J47" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-11</t>
-        </is>
-      </c>
-      <c r="K47" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L47" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M47" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N47" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O47" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P47" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q47" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R47" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S47" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T47" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U47" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W47" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X47" s="1" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
-      <c r="Y47" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" customHeight="true" ht="14.0">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>7%Cake·蛋糕·糖水甜品·咖啡（儿童公园店）</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F48" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G48" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J48" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-11</t>
-        </is>
-      </c>
-      <c r="K48" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L48" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M48" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N48" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O48" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P48" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q48" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R48" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S48" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T48" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U48" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W48" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X48" s="1" t="inlineStr">
-        <is>
-          <t>45.00</t>
-        </is>
-      </c>
-      <c r="Y48" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" customHeight="true" ht="14.0">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>7%cake(糖水甜品·生日蛋糕·咖啡）</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E49" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F49" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G49" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J49" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-11</t>
-        </is>
-      </c>
-      <c r="K49" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L49" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M49" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N49" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O49" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P49" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q49" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R49" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S49" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T49" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U49" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W49" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X49" s="1" t="inlineStr">
-        <is>
-          <t>45.00</t>
-        </is>
-      </c>
-      <c r="Y49" s="1" t="inlineStr">
         <is>
           <t>业务员:曾坤丽</t>
         </is>

--- a/data/门店发布统计.xlsx
+++ b/data/门店发布统计.xlsx
@@ -328,12 +328,12 @@
     <row r="2" customHeight="true" ht="14.0">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜…</t>
+          <t>衢州鸭头·鸭脖·卤味小吃</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -353,7 +353,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -363,22 +363,22 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满28.00返12.00;</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -398,19 +398,19 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
@@ -428,7 +428,7 @@
       </c>
       <c r="U2" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V2" s="1" t="inlineStr">
@@ -443,7 +443,7 @@
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>120.00</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
@@ -455,12 +455,12 @@
     <row r="3" customHeight="true" ht="14.0">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>密斯金韩餐（吾悦广场店）</t>
+          <t>冒千味成都火锅麻辣烫..</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -490,17 +490,17 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满28.00返10.00;</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -530,17 +530,17 @@
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S3" s="1" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="U3" s="1" t="inlineStr">
         <is>
-          <t>王瑛</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V3" s="1" t="inlineStr">
@@ -570,19 +570,19 @@
       </c>
       <c r="X3" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y3" s="1" t="inlineStr">
         <is>
-          <t>商户:15988600122</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="4" customHeight="true" ht="14.0">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>密斯金韩餐（吾悦广场店）</t>
+          <t>冒千味成都火锅麻辣烫·冒菜</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
@@ -617,17 +617,17 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满28.00返12.00;</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -657,17 +657,17 @@
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S4" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="U4" s="1" t="inlineStr">
         <is>
-          <t>王瑛</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V4" s="1" t="inlineStr">
@@ -697,24 +697,24 @@
       </c>
       <c r="X4" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y4" s="1" t="inlineStr">
         <is>
-          <t>商户:15988600122</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="5" customHeight="true" ht="14.0">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>云燕芳·姨妈热饮·鲜…</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="U5" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V5" s="1" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="X5" s="1" t="inlineStr">
         <is>
-          <t>88.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y5" s="1" t="inlineStr">
@@ -836,12 +836,12 @@
     <row r="6" customHeight="true" ht="14.0">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
+          <t>密斯金韩餐（吾悦广场店）</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>奉化区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="T6" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U6" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>王瑛</t>
         </is>
       </c>
       <c r="V6" s="1" t="inlineStr">
@@ -951,19 +951,19 @@
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>商户:15988600122</t>
         </is>
       </c>
     </row>
     <row r="7" customHeight="true" ht="14.0">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡</t>
+          <t>密斯金韩餐（吾悦广场店）</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -998,22 +998,22 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1033,22 +1033,22 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q7" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S7" s="1" t="inlineStr">
@@ -1058,12 +1058,12 @@
       </c>
       <c r="T7" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U7" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>王瑛</t>
         </is>
       </c>
       <c r="V7" s="1" t="inlineStr">
@@ -1078,19 +1078,19 @@
       </c>
       <c r="X7" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y7" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>商户:15988600122</t>
         </is>
       </c>
     </row>
     <row r="8" customHeight="true" ht="14.0">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡（天一店）</t>
+          <t>衢州鸭头鸭脖卤味小吃（联丰中路店）</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -1125,22 +1125,22 @@
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满28.00返12.00;</t>
         </is>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
@@ -1170,12 +1170,12 @@
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S8" s="1" t="inlineStr">
@@ -1185,12 +1185,12 @@
       </c>
       <c r="T8" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U8" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V8" s="1" t="inlineStr">
@@ -1205,24 +1205,24 @@
       </c>
       <c r="X8" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>120.00</t>
         </is>
       </c>
       <c r="Y8" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="9" customHeight="true" ht="14.0">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>西施凉皮（宁波大学店）</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -1252,47 +1252,47 @@
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返12.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" s="1" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L9" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M9" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N9" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S9" s="1" t="inlineStr">
@@ -1312,12 +1312,12 @@
       </c>
       <c r="T9" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U9" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V9" s="1" t="inlineStr">
@@ -1332,29 +1332,29 @@
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>48.00</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="10" customHeight="true" ht="14.0">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>西施·凉皮（宁波大学店）</t>
+          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>奉化区</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
@@ -1379,22 +1379,22 @@
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="U10" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V10" s="1" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="X10" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y10" s="1" t="inlineStr">
@@ -1471,12 +1471,12 @@
     <row r="11" customHeight="true" ht="14.0">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
+          <t>恋芝糦手作披萨</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>余姚市</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
@@ -1506,22 +1506,22 @@
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返18.00;</t>
+          <t>基础返利6.00;满30.00返10.00;</t>
         </is>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1541,22 +1541,22 @@
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S11" s="1" t="inlineStr">
@@ -1566,12 +1566,12 @@
       </c>
       <c r="T11" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U11" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>刘忠伟</t>
         </is>
       </c>
       <c r="V11" s="1" t="inlineStr">
@@ -1586,29 +1586,29 @@
       </c>
       <c r="X11" s="1" t="inlineStr">
         <is>
-          <t>44.00</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="Y11" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="12" customHeight="true" ht="14.0">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>胖虎手作汉堡</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
@@ -1633,22 +1633,22 @@
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满24.00返10.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1668,12 +1668,12 @@
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S12" s="1" t="inlineStr">
@@ -1693,12 +1693,12 @@
       </c>
       <c r="T12" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U12" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V12" s="1" t="inlineStr">
@@ -1713,29 +1713,29 @@
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="13" customHeight="true" ht="14.0">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>胖虎手作汉堡（天一店）</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
@@ -1760,22 +1760,22 @@
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;满50.00返30.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>5.00;20.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S13" s="1" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="T13" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U13" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V13" s="1" t="inlineStr">
@@ -1840,19 +1840,19 @@
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>65.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y13" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="14" customHeight="true" ht="14.0">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>西施凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满20.00返12.00;</t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="T14" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U14" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V14" s="1" t="inlineStr">
@@ -1972,24 +1972,24 @@
       </c>
       <c r="Y14" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="15" customHeight="true" ht="14.0">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
+          <t>西施·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
@@ -2014,22 +2014,22 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返10.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -2049,24 +2049,24 @@
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q15" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q15" s="1" t="inlineStr">
+      <c r="R15" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="R15" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="S15" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y15" s="1" t="inlineStr">
@@ -2106,12 +2106,12 @@
     <row r="16" customHeight="true" ht="14.0">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>余姚市</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
@@ -2141,22 +2141,22 @@
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返15.00;</t>
+          <t>基础返利6.00;满22.00返18.00;</t>
         </is>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -2176,22 +2176,22 @@
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q16" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q16" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S16" s="1" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="T16" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U16" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V16" s="1" t="inlineStr">
@@ -2221,24 +2221,24 @@
       </c>
       <c r="X16" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="Y16" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="17" customHeight="true" ht="14.0">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
@@ -2268,22 +2268,22 @@
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返15.00;</t>
+          <t>基础返利6.00;满24.00返10.00;</t>
         </is>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -2303,22 +2303,22 @@
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q17" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q17" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S17" s="1" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="U17" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V17" s="1" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="18" customHeight="true" ht="14.0">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>十一的大骨米线</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
@@ -2395,17 +2395,17 @@
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满20.00返15.00;满50.00返30.00;</t>
         </is>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.00;20.00</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
@@ -2415,22 +2415,22 @@
       </c>
       <c r="L18" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M18" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N18" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="U18" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V18" s="1" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>110.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
@@ -2487,7 +2487,7 @@
     <row r="19" customHeight="true" ht="14.0">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
@@ -2522,17 +2522,17 @@
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S19" s="1" t="inlineStr">
@@ -2582,12 +2582,12 @@
       </c>
       <c r="T19" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U19" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V19" s="1" t="inlineStr">
@@ -2602,24 +2602,24 @@
       </c>
       <c r="X19" s="1" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y19" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="20" customHeight="true" ht="14.0">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>八闽·寻味（肉燕盖浇饭）</t>
+          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
@@ -2649,17 +2649,17 @@
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满50.00返25.00;</t>
+          <t>基础返利6.00;满30.00返10.00;</t>
         </is>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
@@ -2689,14 +2689,14 @@
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q20" s="1" t="inlineStr">
+        <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="Q20" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="X20" s="1" t="inlineStr">
         <is>
-          <t>114.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y20" s="1" t="inlineStr">
@@ -2741,12 +2741,12 @@
     <row r="21" customHeight="true" ht="14.0">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>酒夜王炸</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
@@ -2776,22 +2776,22 @@
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2811,12 +2811,12 @@
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S21" s="1" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
@@ -2868,7 +2868,7 @@
     <row r="22" customHeight="true" ht="14.0">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
@@ -2903,17 +2903,17 @@
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q22" s="1" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S22" s="1" t="inlineStr">
@@ -2963,12 +2963,12 @@
       </c>
       <c r="T22" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U22" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V22" s="1" t="inlineStr">
@@ -2983,19 +2983,19 @@
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="23" customHeight="true" ht="14.0">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>超能鹿战队·轻食·减脂餐</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
@@ -3030,17 +3030,17 @@
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S23" s="1" t="inlineStr">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="T23" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U23" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V23" s="1" t="inlineStr">
@@ -3110,29 +3110,29 @@
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="24" customHeight="true" ht="14.0">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>平价烧烤小吃</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>烧烤夜宵</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
@@ -3157,17 +3157,17 @@
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满110.00返55.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="T24" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U24" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V24" s="1" t="inlineStr">
@@ -3237,19 +3237,19 @@
       </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t>107.00</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="25" customHeight="true" ht="14.0">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（高新店）</t>
+          <t>八闽·寻味（肉燕盖浇饭）</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -3284,17 +3284,17 @@
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满26.00返12.00;</t>
+          <t>基础返利6.00;满50.00返25.00;</t>
         </is>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
@@ -3324,64 +3324,64 @@
       </c>
       <c r="P25" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q25" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q25" s="1" t="inlineStr">
+      <c r="R25" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S25" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T25" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V25" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W25" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X25" s="1" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="R25" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S25" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T25" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U25" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W25" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X25" s="1" t="inlineStr">
-        <is>
-          <t>160.00</t>
-        </is>
-      </c>
       <c r="Y25" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="26" customHeight="true" ht="14.0">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
@@ -3411,22 +3411,22 @@
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返15.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
@@ -3446,12 +3446,12 @@
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P26" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q26" s="1" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S26" s="1" t="inlineStr">
@@ -3471,12 +3471,12 @@
       </c>
       <c r="T26" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U26" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V26" s="1" t="inlineStr">
@@ -3491,24 +3491,24 @@
       </c>
       <c r="X26" s="1" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>134.00</t>
         </is>
       </c>
       <c r="Y26" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="27" customHeight="true" ht="14.0">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>八闽寻味（肉燕盖浇饭）透明餐厅</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
@@ -3538,22 +3538,22 @@
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满50.00返25.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P27" s="1" t="inlineStr">
@@ -3598,12 +3598,12 @@
       </c>
       <c r="T27" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U27" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V27" s="1" t="inlineStr">
@@ -3618,29 +3618,29 @@
       </c>
       <c r="X27" s="1" t="inlineStr">
         <is>
-          <t>114.00</t>
+          <t>134.00</t>
         </is>
       </c>
       <c r="Y27" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="28" customHeight="true" ht="14.0">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>BELLACAKE蛋糕·甜品</t>
+          <t>重庆小面（小味道美食城店）透明餐厅</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返23.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I28" s="1" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
@@ -3725,12 +3725,12 @@
       </c>
       <c r="T28" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U28" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V28" s="1" t="inlineStr">
@@ -3745,24 +3745,24 @@
       </c>
       <c r="X28" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>38.00</t>
         </is>
       </c>
       <c r="Y28" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="29" customHeight="true" ht="14.0">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>南雲上品·瓦香鸡（宁波大学店）</t>
+          <t>乇娘拌粉（世纪东方店）透明餐厅</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
@@ -3792,17 +3792,17 @@
       </c>
       <c r="H29" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M29" s="1" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P29" s="1" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="U29" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V29" s="1" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="X29" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>102.50</t>
         </is>
       </c>
       <c r="Y29" s="1" t="inlineStr">
@@ -3884,17 +3884,17 @@
     <row r="30" customHeight="true" ht="14.0">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
+          <t>泰滋味·泰式海南鸡（高新店）</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
@@ -3919,17 +3919,17 @@
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返18.00;</t>
+          <t>基础返利6.00;满26.00返12.00;</t>
         </is>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="P30" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q30" s="1" t="inlineStr">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S30" s="1" t="inlineStr">
@@ -3979,12 +3979,12 @@
       </c>
       <c r="T30" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U30" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V30" s="1" t="inlineStr">
@@ -3999,24 +3999,24 @@
       </c>
       <c r="X30" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>160.00</t>
         </is>
       </c>
       <c r="Y30" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="31" customHeight="true" ht="14.0">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>禾式美妆护肤全球甄选·口红香水（宁波店）</t>
+          <t>鱼你在一起（宁波港隆时代广场店）</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
@@ -4046,22 +4046,22 @@
       </c>
       <c r="H31" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返18.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P31" s="1" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="X31" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>110.00</t>
         </is>
       </c>
       <c r="Y31" s="1" t="inlineStr">
@@ -4138,12 +4138,12 @@
     <row r="32" customHeight="true" ht="14.0">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>思念酒馆（现调鸡尾酒）</t>
+          <t>重庆小面（第6档口小味道美食城店）</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
@@ -4173,17 +4173,17 @@
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="P32" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q32" s="1" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S32" s="1" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="X32" s="1" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>38.00</t>
         </is>
       </c>
       <c r="Y32" s="1" t="inlineStr">
@@ -4265,17 +4265,17 @@
     <row r="33" customHeight="true" ht="14.0">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>思念酒馆·现调鸡尾酒</t>
+          <t>BELLACAKE蛋糕·甜品</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
@@ -4300,17 +4300,17 @@
       </c>
       <c r="H33" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满30.00返23.00;</t>
         </is>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="P33" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q33" s="1" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S33" s="1" t="inlineStr">
@@ -4360,12 +4360,12 @@
       </c>
       <c r="T33" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U33" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V33" s="1" t="inlineStr">
@@ -4380,29 +4380,29 @@
       </c>
       <c r="X33" s="1" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>46.00</t>
         </is>
       </c>
       <c r="Y33" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="34" customHeight="true" ht="14.0">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>M2蛋糕·面包</t>
+          <t>南雲上品·瓦香鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>慈溪市</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="H34" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返7.00;</t>
+          <t>基础返利6.00;满25.00返12.00;</t>
         </is>
       </c>
       <c r="I34" s="1" t="inlineStr">
@@ -4437,12 +4437,12 @@
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
@@ -4462,24 +4462,24 @@
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P34" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q34" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q34" s="1" t="inlineStr">
+      <c r="R34" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="R34" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="S34" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
@@ -4487,12 +4487,12 @@
       </c>
       <c r="T34" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U34" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V34" s="1" t="inlineStr">
@@ -4507,29 +4507,29 @@
       </c>
       <c r="X34" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y34" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="35" customHeight="true" ht="14.0">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
+          <t>乇娘拌粉（世纪东方店）</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
@@ -4564,17 +4564,17 @@
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M35" s="1" t="inlineStr">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="O35" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P35" s="1" t="inlineStr">
@@ -4614,12 +4614,12 @@
       </c>
       <c r="T35" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U35" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V35" s="1" t="inlineStr">
@@ -4634,24 +4634,24 @@
       </c>
       <c r="X35" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>102.50</t>
         </is>
       </c>
       <c r="Y35" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="36" customHeight="true" ht="14.0">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>百味轩私房川川湘菜</t>
+          <t>思念酒馆（现调鸡尾酒）</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
@@ -4681,22 +4681,22 @@
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L36" s="1" t="inlineStr">
@@ -4716,22 +4716,22 @@
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P36" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q36" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q36" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="R36" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S36" s="1" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="X36" s="1" t="inlineStr">
         <is>
-          <t>120.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="Y36" s="1" t="inlineStr">
@@ -4773,17 +4773,17 @@
     <row r="37" customHeight="true" ht="14.0">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>食色（红烧牛肉面·大步街店）</t>
+          <t>思念酒馆·现调鸡尾酒</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
@@ -4808,22 +4808,22 @@
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L37" s="1" t="inlineStr">
@@ -4843,22 +4843,22 @@
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P37" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q37" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q37" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
       <c r="R37" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S37" s="1" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="U37" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V37" s="1" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="X37" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="Y37" s="1" t="inlineStr">
@@ -4900,17 +4900,17 @@
     <row r="38" customHeight="true" ht="14.0">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>M2蛋糕·面包</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>慈溪市</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
@@ -4935,22 +4935,22 @@
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满20.00返7.00;</t>
         </is>
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L38" s="1" t="inlineStr">
@@ -4970,19 +4970,19 @@
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P38" s="1" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q38" s="1" t="inlineStr">
+        <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="Q38" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R38" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
@@ -5000,7 +5000,7 @@
       </c>
       <c r="U38" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V38" s="1" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="X38" s="1" t="inlineStr">
         <is>
-          <t>88.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y38" s="1" t="inlineStr">
@@ -5027,17 +5027,17 @@
     <row r="39" customHeight="true" ht="14.0">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>老巷子小锅米线（宁波店）</t>
+          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr">
@@ -5062,22 +5062,22 @@
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J39" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K39" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L39" s="1" t="inlineStr">
@@ -5097,22 +5097,22 @@
       </c>
       <c r="O39" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P39" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q39" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q39" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R39" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S39" s="1" t="inlineStr">
@@ -5122,12 +5122,12 @@
       </c>
       <c r="T39" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U39" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V39" s="1" t="inlineStr">
@@ -5142,19 +5142,19 @@
       </c>
       <c r="X39" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y39" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="40" customHeight="true" ht="14.0">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>口口香北京片皮烤鸭</t>
+          <t>西北阁手抓饭·炒面</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
@@ -5189,22 +5189,22 @@
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满20.00返14.00;</t>
         </is>
       </c>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J40" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L40" s="1" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O40" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P40" s="1" t="inlineStr">
@@ -5234,12 +5234,12 @@
       </c>
       <c r="Q40" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R40" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S40" s="1" t="inlineStr">
@@ -5249,12 +5249,12 @@
       </c>
       <c r="T40" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U40" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V40" s="1" t="inlineStr">
@@ -5269,29 +5269,29 @@
       </c>
       <c r="X40" s="1" t="inlineStr">
         <is>
-          <t>124.00</t>
+          <t>78.00</t>
         </is>
       </c>
       <c r="Y40" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="41" customHeight="true" ht="14.0">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>7%Cake·蛋糕·糖水甜品·咖啡（儿童公园店）</t>
+          <t>西北阁手抓饭·炒面</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
@@ -5311,22 +5311,22 @@
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
+          <t>无需品鉴意见</t>
         </is>
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
+          <t>基础返利6.00;满20.00返14.00;</t>
         </is>
       </c>
       <c r="I41" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J41" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
@@ -5361,12 +5361,12 @@
       </c>
       <c r="Q41" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R41" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S41" s="1" t="inlineStr">
@@ -5376,12 +5376,12 @@
       </c>
       <c r="T41" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U41" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V41" s="1" t="inlineStr">
@@ -5396,139 +5396,1282 @@
       </c>
       <c r="X41" s="1" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>78.00</t>
         </is>
       </c>
       <c r="Y41" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="42" customHeight="true" ht="14.0">
       <c r="A42" s="1" t="inlineStr">
         <is>
+          <t>百味轩私房川川湘菜</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H42" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返12.00;</t>
+        </is>
+      </c>
+      <c r="I42" s="1" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="J42" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="K42" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L42" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M42" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N42" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O42" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P42" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q42" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R42" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S42" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T42" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V42" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W42" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X42" s="1" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="Y42" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" customHeight="true" ht="14.0">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>食色（红烧牛肉面·大步街店）</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H43" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返12.00;</t>
+        </is>
+      </c>
+      <c r="I43" s="1" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="J43" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="K43" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L43" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M43" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N43" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O43" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P43" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q43" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R43" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S43" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T43" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V43" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W43" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X43" s="1" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+      <c r="Y43" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" customHeight="true" ht="14.0">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>绍兴小笼</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>⾯粉粥包</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>饿了么</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>海曙区</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H44" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满20.00返13.00;</t>
+        </is>
+      </c>
+      <c r="I44" s="1" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="J44" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="K44" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L44" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M44" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N44" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O44" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P44" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q44" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R44" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S44" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T44" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="U44" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="V44" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W44" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X44" s="1" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="Y44" s="1" t="inlineStr">
+        <is>
+          <t>业务员:张洁茹</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" customHeight="true" ht="14.0">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>老巷子小锅米线（宁波店）</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>镇海区</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H45" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满20.00返10.00;</t>
+        </is>
+      </c>
+      <c r="I45" s="1" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="J45" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="K45" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L45" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M45" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N45" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O45" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P45" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q45" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R45" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S45" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T45" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U45" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V45" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W45" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X45" s="1" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="Y45" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" customHeight="true" ht="14.0">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>口口香北京片皮烤鸭</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>饿了么</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>镇海区</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H46" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返12.00;</t>
+        </is>
+      </c>
+      <c r="I46" s="1" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="J46" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="K46" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L46" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M46" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N46" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O46" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P46" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q46" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R46" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S46" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T46" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U46" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V46" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W46" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X46" s="1" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+      <c r="Y46" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" customHeight="true" ht="14.0">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>7%Cake·蛋糕·糖水甜品·咖啡（儿童公园店）</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>生日蛋糕</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>饿了么</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>鄞州区</t>
+        </is>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H47" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返12.00;</t>
+        </is>
+      </c>
+      <c r="I47" s="1" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="J47" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="K47" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L47" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M47" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N47" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O47" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P47" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q47" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R47" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S47" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T47" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U47" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V47" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W47" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X47" s="1" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="Y47" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" customHeight="true" ht="14.0">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
           <t>7%cake(糖水甜品·生日蛋糕·咖啡）</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>生日蛋糕</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>美团</t>
         </is>
       </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="D48" s="1" t="inlineStr">
         <is>
           <t>浙江省</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E48" s="1" t="inlineStr">
         <is>
           <t>宁波市</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F48" s="1" t="inlineStr">
         <is>
           <t>鄞州区</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G48" s="1" t="inlineStr">
         <is>
           <t>霸王餐需品鉴意见(需图需字)</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
+      <c r="H48" s="1" t="inlineStr">
         <is>
           <t>基础返利6.00;满25.00返12.00;</t>
         </is>
       </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="I48" s="1" t="inlineStr">
         <is>
           <t>13.00</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-13</t>
-        </is>
-      </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="J48" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="K48" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L42" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M42" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N42" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O42" s="1" t="inlineStr">
+      <c r="L48" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M48" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N48" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O48" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P42" s="1" t="inlineStr">
+      <c r="P48" s="1" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q42" s="1" t="inlineStr">
+      <c r="Q48" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="R42" s="1" t="inlineStr">
+      <c r="R48" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="S42" s="1" t="inlineStr">
+      <c r="S48" s="1" t="inlineStr">
         <is>
           <t>宁波A代理商</t>
         </is>
       </c>
-      <c r="T42" s="1" t="inlineStr">
+      <c r="T48" s="1" t="inlineStr">
         <is>
           <t>曾坤丽</t>
         </is>
       </c>
-      <c r="U42" s="1" t="inlineStr">
+      <c r="U48" s="1" t="inlineStr">
         <is>
           <t>曾坤丽</t>
         </is>
       </c>
-      <c r="V42" s="1" t="inlineStr">
+      <c r="V48" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="W42" s="1" t="inlineStr">
+      <c r="W48" s="1" t="inlineStr">
         <is>
           <t>预授权类型</t>
         </is>
       </c>
-      <c r="X42" s="1" t="inlineStr">
+      <c r="X48" s="1" t="inlineStr">
         <is>
           <t>70.00</t>
         </is>
       </c>
-      <c r="Y42" s="1" t="inlineStr">
+      <c r="Y48" s="1" t="inlineStr">
         <is>
           <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" customHeight="true" ht="14.0">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>百味轩私房川湘菜（慈溪店）</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>中餐便餐</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>慈溪市</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H49" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满25.00返10.00;</t>
+        </is>
+      </c>
+      <c r="I49" s="1" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="J49" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="K49" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L49" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M49" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N49" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O49" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P49" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q49" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R49" s="1" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="S49" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T49" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="U49" s="1" t="inlineStr">
+        <is>
+          <t>曾坤丽</t>
+        </is>
+      </c>
+      <c r="V49" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W49" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X49" s="1" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="Y49" s="1" t="inlineStr">
+        <is>
+          <t>业务员:曾坤丽</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" customHeight="true" ht="14.0">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>花生烘焙·蛋糕·甜品</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>生日蛋糕</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>美团</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>宁海县</t>
+        </is>
+      </c>
+      <c r="G50" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H50" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满30.00返10.00;</t>
+        </is>
+      </c>
+      <c r="I50" s="1" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="J50" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="K50" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L50" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M50" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N50" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O50" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P50" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q50" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="R50" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S50" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T50" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="U50" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="V50" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W50" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X50" s="1" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="Y50" s="1" t="inlineStr">
+        <is>
+          <t>业务员:张洁茹</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" customHeight="true" ht="14.0">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>花生烘焙（甜品·蛋糕）</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>生日蛋糕</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>饿了么</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>浙江省</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>宁波市</t>
+        </is>
+      </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>宁海县</t>
+        </is>
+      </c>
+      <c r="G51" s="1" t="inlineStr">
+        <is>
+          <t>霸王餐需品鉴意见(需图需字)</t>
+        </is>
+      </c>
+      <c r="H51" s="1" t="inlineStr">
+        <is>
+          <t>基础返利6.00;满30.00返10.00;</t>
+        </is>
+      </c>
+      <c r="I51" s="1" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="J51" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="K51" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L51" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M51" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N51" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O51" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P51" s="1" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q51" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="R51" s="1" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="S51" s="1" t="inlineStr">
+        <is>
+          <t>宁波A代理商</t>
+        </is>
+      </c>
+      <c r="T51" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="U51" s="1" t="inlineStr">
+        <is>
+          <t>张洁茹</t>
+        </is>
+      </c>
+      <c r="V51" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W51" s="1" t="inlineStr">
+        <is>
+          <t>预授权类型</t>
+        </is>
+      </c>
+      <c r="X51" s="1" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="Y51" s="1" t="inlineStr">
+        <is>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>

--- a/data/门店发布统计.xlsx
+++ b/data/门店发布统计.xlsx
@@ -373,7 +373,7 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
@@ -1217,12 +1217,12 @@
     <row r="9" customHeight="true" ht="14.0">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>绍兴小笼</t>
+          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>⾯粉粥包</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>奉化区</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -1252,32 +1252,32 @@
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N9" s="1" t="inlineStr">
@@ -1287,12 +1287,12 @@
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S9" s="1" t="inlineStr">
@@ -1312,12 +1312,12 @@
       </c>
       <c r="T9" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U9" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V9" s="1" t="inlineStr">
@@ -1332,24 +1332,24 @@
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>48.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="10" customHeight="true" ht="14.0">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
+          <t>胖虎手作汉堡</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>奉化区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
@@ -1379,22 +1379,22 @@
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S10" s="1" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="X10" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>74.00</t>
         </is>
       </c>
       <c r="Y10" s="1" t="inlineStr">
@@ -1471,7 +1471,7 @@
     <row r="11" customHeight="true" ht="14.0">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>恋芝糦手作披萨</t>
+          <t>胖虎手作汉堡（天一店）</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
@@ -1506,22 +1506,22 @@
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返10.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S11" s="1" t="inlineStr">
@@ -1566,12 +1566,12 @@
       </c>
       <c r="T11" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U11" s="1" t="inlineStr">
         <is>
-          <t>刘忠伟</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V11" s="1" t="inlineStr">
@@ -1586,19 +1586,19 @@
       </c>
       <c r="X11" s="1" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>74.00</t>
         </is>
       </c>
       <c r="Y11" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="12" customHeight="true" ht="14.0">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡</t>
+          <t>西施凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
@@ -1633,22 +1633,22 @@
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满20.00返12.00;</t>
         </is>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1668,22 +1668,22 @@
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q12" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q12" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R12" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S12" s="1" t="inlineStr">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="U12" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V12" s="1" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
@@ -1725,7 +1725,7 @@
     <row r="13" customHeight="true" ht="14.0">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡（天一店）</t>
+          <t>西施·凉皮（宁波大学店）</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
@@ -1760,22 +1760,22 @@
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1795,22 +1795,22 @@
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q13" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q13" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S13" s="1" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="U13" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V13" s="1" t="inlineStr">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y13" s="1" t="inlineStr">
@@ -1852,12 +1852,12 @@
     <row r="14" customHeight="true" ht="14.0">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>西施凉皮（宁波大学店）</t>
+          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>奶茶甜点</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>余姚市</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返12.00;</t>
+          <t>基础返利6.00;满22.00返18.00;</t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>62.00</t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">
@@ -1979,12 +1979,12 @@
     <row r="15" customHeight="true" ht="14.0">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>西施·凉皮（宁波大学店）</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
@@ -2014,22 +2014,22 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满24.00返10.00;</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
@@ -2074,12 +2074,12 @@
       </c>
       <c r="T15" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U15" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V15" s="1" t="inlineStr">
@@ -2099,19 +2099,19 @@
       </c>
       <c r="Y15" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="16" customHeight="true" ht="14.0">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>余姚市</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
@@ -2141,17 +2141,17 @@
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满22.00返18.00;</t>
+          <t>基础返利6.00;满50.00返30.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>20.00;5.00</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="T16" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U16" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V16" s="1" t="inlineStr">
@@ -2226,24 +2226,24 @@
       </c>
       <c r="Y16" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="17" customHeight="true" ht="14.0">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
@@ -2268,22 +2268,22 @@
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满24.00返10.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="U17" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V17" s="1" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="18" customHeight="true" ht="14.0">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>电商产品</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
@@ -2395,22 +2395,22 @@
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;满50.00返30.00;</t>
+          <t>基础返利6.00;满30.00返10.00;</t>
         </is>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>5.00;20.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -2430,19 +2430,19 @@
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q18" s="1" t="inlineStr">
+        <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="Q18" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
@@ -2455,12 +2455,12 @@
       </c>
       <c r="T18" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U18" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V18" s="1" t="inlineStr">
@@ -2475,19 +2475,19 @@
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="19" customHeight="true" ht="14.0">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I19" s="1" t="inlineStr">
@@ -2532,12 +2532,12 @@
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2557,12 +2557,12 @@
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S19" s="1" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="X19" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y19" s="1" t="inlineStr">
@@ -2614,17 +2614,17 @@
     <row r="20" customHeight="true" ht="14.0">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
@@ -2649,22 +2649,22 @@
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返10.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2684,22 +2684,22 @@
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q20" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q20" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S20" s="1" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="T20" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U20" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V20" s="1" t="inlineStr">
@@ -2729,19 +2729,19 @@
       </c>
       <c r="X20" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y20" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="21" customHeight="true" ht="14.0">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>嵊州小吃</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
@@ -2776,22 +2776,22 @@
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返15.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2811,22 +2811,22 @@
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q21" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q21" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S21" s="1" t="inlineStr">
@@ -2836,12 +2836,12 @@
       </c>
       <c r="T21" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U21" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王雨婷</t>
         </is>
       </c>
       <c r="V21" s="1" t="inlineStr">
@@ -2856,19 +2856,19 @@
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="22" customHeight="true" ht="14.0">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐（鄞州店）透明餐厅</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
@@ -2903,17 +2903,17 @@
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返15.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q22" s="1" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S22" s="1" t="inlineStr">
@@ -2963,12 +2963,12 @@
       </c>
       <c r="T22" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U22" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V22" s="1" t="inlineStr">
@@ -2983,19 +2983,19 @@
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>134.00</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="23" customHeight="true" ht="14.0">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>超能鹿战队·轻食·减脂餐</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
@@ -3030,17 +3030,17 @@
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返15.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S23" s="1" t="inlineStr">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="T23" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U23" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V23" s="1" t="inlineStr">
@@ -3110,29 +3110,29 @@
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>134.00</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="24" customHeight="true" ht="14.0">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>泰滋味·泰式海南鸡（高新店）</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
@@ -3157,22 +3157,22 @@
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满26.00返12.00;</t>
         </is>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -3192,12 +3192,12 @@
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P24" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q24" s="1" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S24" s="1" t="inlineStr">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="T24" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U24" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V24" s="1" t="inlineStr">
@@ -3237,19 +3237,19 @@
       </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>112.00</t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="25" customHeight="true" ht="14.0">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>八闽·寻味（肉燕盖浇饭）</t>
+          <t>鱼你在一起（宁波港隆时代广场店）</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -3284,22 +3284,22 @@
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满50.00返25.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P25" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q25" s="1" t="inlineStr">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S25" s="1" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80.00</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
@@ -3376,12 +3376,12 @@
     <row r="26" customHeight="true" ht="14.0">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>BELLACAKE蛋糕·甜品</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
@@ -3411,17 +3411,17 @@
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满30.00返23.00;</t>
         </is>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="P26" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q26" s="1" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S26" s="1" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="X26" s="1" t="inlineStr">
         <is>
-          <t>134.00</t>
+          <t>46.00</t>
         </is>
       </c>
       <c r="Y26" s="1" t="inlineStr">
@@ -3503,12 +3503,12 @@
     <row r="27" customHeight="true" ht="14.0">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>南雲上品·瓦香鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
@@ -3538,22 +3538,22 @@
       </c>
       <c r="H27" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满25.00返12.00;</t>
         </is>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
@@ -3573,12 +3573,12 @@
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P27" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q27" s="1" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="R27" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S27" s="1" t="inlineStr">
@@ -3598,12 +3598,12 @@
       </c>
       <c r="T27" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U27" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V27" s="1" t="inlineStr">
@@ -3618,29 +3618,29 @@
       </c>
       <c r="X27" s="1" t="inlineStr">
         <is>
-          <t>134.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y27" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="28" customHeight="true" ht="14.0">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>重庆小面（小味道美食城店）透明餐厅</t>
+          <t>思念酒馆（现调鸡尾酒）</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
@@ -3665,17 +3665,17 @@
       </c>
       <c r="H28" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="P28" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q28" s="1" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S28" s="1" t="inlineStr">
@@ -3730,7 +3730,7 @@
       </c>
       <c r="U28" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V28" s="1" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="X28" s="1" t="inlineStr">
         <is>
-          <t>38.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="Y28" s="1" t="inlineStr">
@@ -3757,12 +3757,12 @@
     <row r="29" customHeight="true" ht="14.0">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>乇娘拌粉（世纪东方店）透明餐厅</t>
+          <t>思念酒馆·现调鸡尾酒</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
@@ -3802,17 +3802,17 @@
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M29" s="1" t="inlineStr">
@@ -3827,12 +3827,12 @@
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P29" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="Q29" s="1" t="inlineStr">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S29" s="1" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="U29" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V29" s="1" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="X29" s="1" t="inlineStr">
         <is>
-          <t>102.50</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="Y29" s="1" t="inlineStr">
@@ -3884,12 +3884,12 @@
     <row r="30" customHeight="true" ht="14.0">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（高新店）</t>
+          <t>M2蛋糕·面包</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>慈溪市</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
@@ -3919,22 +3919,22 @@
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满26.00返12.00;</t>
+          <t>基础返利6.00;满20.00返7.00;</t>
         </is>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P30" s="1" t="inlineStr">
@@ -3964,12 +3964,12 @@
       </c>
       <c r="Q30" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S30" s="1" t="inlineStr">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="U30" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V30" s="1" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="X30" s="1" t="inlineStr">
         <is>
-          <t>160.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y30" s="1" t="inlineStr">
@@ -4011,17 +4011,17 @@
     <row r="31" customHeight="true" ht="14.0">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
+          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
@@ -4046,22 +4046,22 @@
       </c>
       <c r="H31" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返15.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P31" s="1" t="inlineStr">
@@ -4106,12 +4106,12 @@
       </c>
       <c r="T31" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U31" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V31" s="1" t="inlineStr">
@@ -4126,19 +4126,19 @@
       </c>
       <c r="X31" s="1" t="inlineStr">
         <is>
-          <t>110.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y31" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="32" customHeight="true" ht="14.0">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>重庆小面（第6档口小味道美食城店）</t>
+          <t>食色（红烧牛肉面·大步街店）</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -4173,22 +4173,22 @@
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
+          <t>基础返利6.00;满25.00返12.00;</t>
         </is>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
@@ -4208,19 +4208,19 @@
       </c>
       <c r="O32" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P32" s="1" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q32" s="1" t="inlineStr">
+        <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="Q32" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="X32" s="1" t="inlineStr">
         <is>
-          <t>38.00</t>
+          <t>105.00</t>
         </is>
       </c>
       <c r="Y32" s="1" t="inlineStr">
@@ -4265,17 +4265,17 @@
     <row r="33" customHeight="true" ht="14.0">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>BELLACAKE蛋糕·甜品</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="H33" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返23.00;</t>
+          <t>基础返利6.00;满20.00返13.00;</t>
         </is>
       </c>
       <c r="I33" s="1" t="inlineStr">
@@ -4310,12 +4310,12 @@
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="O33" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P33" s="1" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="X33" s="1" t="inlineStr">
         <is>
-          <t>46.00</t>
+          <t>61.00</t>
         </is>
       </c>
       <c r="Y33" s="1" t="inlineStr">
@@ -4392,7 +4392,7 @@
     <row r="34" customHeight="true" ht="14.0">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>南雲上品·瓦香鸡（宁波大学店）</t>
+          <t>老巷子小锅米线（宁波店）</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
@@ -4427,22 +4427,22 @@
       </c>
       <c r="H34" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
+          <t>基础返利6.00;满20.00返10.00;</t>
         </is>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
@@ -4462,12 +4462,12 @@
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P34" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q34" s="1" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="R34" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S34" s="1" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="X34" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="Y34" s="1" t="inlineStr">
@@ -4519,7 +4519,7 @@
     <row r="35" customHeight="true" ht="14.0">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>乇娘拌粉（世纪东方店）</t>
+          <t>口口香北京片皮烤鸭</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
@@ -4554,27 +4554,27 @@
       </c>
       <c r="H35" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满25.00返12.00;</t>
         </is>
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M35" s="1" t="inlineStr">
@@ -4589,19 +4589,19 @@
       </c>
       <c r="O35" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P35" s="1" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q35" s="1" t="inlineStr">
+        <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="Q35" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R35" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="X35" s="1" t="inlineStr">
         <is>
-          <t>102.50</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y35" s="1" t="inlineStr">
@@ -4646,17 +4646,17 @@
     <row r="36" customHeight="true" ht="14.0">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>思念酒馆（现调鸡尾酒）</t>
+          <t>7%Cake·蛋糕·糖水甜品·咖啡（儿童公园店）</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D36" s="1" t="inlineStr">
@@ -4681,22 +4681,22 @@
       </c>
       <c r="H36" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满25.00返12.00;</t>
         </is>
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L36" s="1" t="inlineStr">
@@ -4716,22 +4716,22 @@
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P36" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q36" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R36" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S36" s="1" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="X36" s="1" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="Y36" s="1" t="inlineStr">
@@ -4773,17 +4773,17 @@
     <row r="37" customHeight="true" ht="14.0">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>思念酒馆·现调鸡尾酒</t>
+          <t>7%cake(糖水甜品·生日蛋糕·咖啡）</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
@@ -4808,22 +4808,22 @@
       </c>
       <c r="H37" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满25.00返12.00;</t>
         </is>
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L37" s="1" t="inlineStr">
@@ -4843,22 +4843,22 @@
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P37" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q37" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R37" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S37" s="1" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="U37" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V37" s="1" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="X37" s="1" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="Y37" s="1" t="inlineStr">
@@ -4900,12 +4900,12 @@
     <row r="38" customHeight="true" ht="14.0">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>M2蛋糕·面包</t>
+          <t>百味轩私房川湘菜（慈溪店）</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
@@ -4935,22 +4935,22 @@
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返7.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L38" s="1" t="inlineStr">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P38" s="1" t="inlineStr">
@@ -4995,12 +4995,12 @@
       </c>
       <c r="T38" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U38" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V38" s="1" t="inlineStr">
@@ -5015,29 +5015,29 @@
       </c>
       <c r="X38" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y38" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
     <row r="39" customHeight="true" ht="14.0">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
+          <t>花生烘焙·蛋糕·甜品</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>宁海县</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
@@ -5062,17 +5062,17 @@
       </c>
       <c r="H39" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满30.00返10.00;</t>
         </is>
       </c>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="J39" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K39" s="1" t="inlineStr">
@@ -5102,17 +5102,17 @@
       </c>
       <c r="P39" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q39" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R39" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S39" s="1" t="inlineStr">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="X39" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y39" s="1" t="inlineStr">
@@ -5154,17 +5154,17 @@
     <row r="40" customHeight="true" ht="14.0">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>西北阁手抓饭·炒面</t>
+          <t>花生烘焙（甜品·蛋糕）</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>宁海县</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
@@ -5189,22 +5189,22 @@
       </c>
       <c r="H40" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返14.00;</t>
+          <t>基础返利6.00;满30.00返10.00;</t>
         </is>
       </c>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="J40" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K40" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L40" s="1" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O40" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P40" s="1" t="inlineStr">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="X40" s="1" t="inlineStr">
         <is>
-          <t>78.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y40" s="1" t="inlineStr">
@@ -5281,17 +5281,17 @@
     <row r="41" customHeight="true" ht="14.0">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>西北阁手抓饭·炒面</t>
+          <t>喜菓然果切水果捞礼盒（福业街店）</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>水果果切</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
@@ -5306,32 +5306,32 @@
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>无需品鉴意见</t>
+          <t>霸王餐需品鉴意见(需图需字)</t>
         </is>
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返14.00;</t>
+          <t>基础返利6.00;满25.00返12.00;</t>
         </is>
       </c>
       <c r="I41" s="1" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J41" s="1" t="inlineStr">
         <is>
-          <t>2024-12-17</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="K41" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L41" s="1" t="inlineStr">
@@ -5351,7 +5351,7 @@
       </c>
       <c r="O41" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P41" s="1" t="inlineStr">
@@ -5361,12 +5361,12 @@
       </c>
       <c r="Q41" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R41" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S41" s="1" t="inlineStr">
@@ -5376,12 +5376,12 @@
       </c>
       <c r="T41" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U41" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="V41" s="1" t="inlineStr">
@@ -5396,1282 +5396,12 @@
       </c>
       <c r="X41" s="1" t="inlineStr">
         <is>
-          <t>78.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y41" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" customHeight="true" ht="14.0">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>百味轩私房川川湘菜</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E42" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F42" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G42" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J42" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="K42" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="L42" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M42" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N42" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O42" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P42" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q42" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R42" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S42" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T42" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U42" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W42" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X42" s="1" t="inlineStr">
-        <is>
-          <t>90.00</t>
-        </is>
-      </c>
-      <c r="Y42" s="1" t="inlineStr">
-        <is>
           <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" customHeight="true" ht="14.0">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>食色（红烧牛肉面·大步街店）</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F43" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G43" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J43" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="K43" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L43" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M43" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N43" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O43" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P43" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q43" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R43" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S43" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T43" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U43" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W43" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X43" s="1" t="inlineStr">
-        <is>
-          <t>120.00</t>
-        </is>
-      </c>
-      <c r="Y43" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" customHeight="true" ht="14.0">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>绍兴小笼</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>⾯粉粥包</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E44" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F44" s="1" t="inlineStr">
-        <is>
-          <t>海曙区</t>
-        </is>
-      </c>
-      <c r="G44" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="J44" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="K44" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L44" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M44" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N44" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O44" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P44" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="Q44" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R44" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S44" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T44" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U44" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W44" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X44" s="1" t="inlineStr">
-        <is>
-          <t>48.00</t>
-        </is>
-      </c>
-      <c r="Y44" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="45" customHeight="true" ht="14.0">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>老巷子小锅米线（宁波店）</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F45" s="1" t="inlineStr">
-        <is>
-          <t>镇海区</t>
-        </is>
-      </c>
-      <c r="G45" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="J45" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="K45" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L45" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M45" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N45" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O45" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P45" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q45" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R45" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S45" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T45" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U45" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W45" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X45" s="1" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="Y45" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="46" customHeight="true" ht="14.0">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>口口香北京片皮烤鸭</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E46" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F46" s="1" t="inlineStr">
-        <is>
-          <t>镇海区</t>
-        </is>
-      </c>
-      <c r="G46" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J46" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="K46" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L46" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N46" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O46" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P46" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q46" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R46" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S46" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T46" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U46" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W46" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X46" s="1" t="inlineStr">
-        <is>
-          <t>120.00</t>
-        </is>
-      </c>
-      <c r="Y46" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" customHeight="true" ht="14.0">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>7%Cake·蛋糕·糖水甜品·咖啡（儿童公园店）</t>
-        </is>
-      </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F47" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G47" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J47" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="K47" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L47" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M47" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N47" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O47" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P47" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q47" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R47" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S47" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T47" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U47" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W47" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X47" s="1" t="inlineStr">
-        <is>
-          <t>70.00</t>
-        </is>
-      </c>
-      <c r="Y47" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" customHeight="true" ht="14.0">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>7%cake(糖水甜品·生日蛋糕·咖啡）</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F48" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G48" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J48" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="K48" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L48" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M48" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N48" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O48" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P48" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q48" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R48" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S48" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T48" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U48" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W48" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X48" s="1" t="inlineStr">
-        <is>
-          <t>70.00</t>
-        </is>
-      </c>
-      <c r="Y48" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" customHeight="true" ht="14.0">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>百味轩私房川湘菜（慈溪店）</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E49" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F49" s="1" t="inlineStr">
-        <is>
-          <t>慈溪市</t>
-        </is>
-      </c>
-      <c r="G49" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="J49" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="K49" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L49" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M49" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N49" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O49" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P49" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q49" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R49" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S49" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T49" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U49" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W49" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X49" s="1" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="Y49" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" customHeight="true" ht="14.0">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>花生烘焙·蛋糕·甜品</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E50" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F50" s="1" t="inlineStr">
-        <is>
-          <t>宁海县</t>
-        </is>
-      </c>
-      <c r="G50" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满30.00返10.00;</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="J50" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="K50" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L50" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M50" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N50" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O50" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P50" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q50" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="R50" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="S50" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T50" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U50" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W50" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X50" s="1" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="Y50" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" customHeight="true" ht="14.0">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>花生烘焙（甜品·蛋糕）</t>
-        </is>
-      </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E51" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F51" s="1" t="inlineStr">
-        <is>
-          <t>宁海县</t>
-        </is>
-      </c>
-      <c r="G51" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满30.00返10.00;</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="J51" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-17</t>
-        </is>
-      </c>
-      <c r="K51" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L51" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M51" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N51" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O51" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P51" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q51" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="R51" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="S51" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T51" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U51" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W51" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X51" s="1" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="Y51" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>

--- a/data/门店发布统计.xlsx
+++ b/data/门店发布统计.xlsx
@@ -328,17 +328,17 @@
     <row r="2" customHeight="true" ht="14.0">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>衢州鸭头·鸭脖·卤味小吃</t>
+          <t>吉小果新鲜水果</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>水果果切</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -353,32 +353,32 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>北仑区</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
+          <t>需品鉴意见</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满28.00返12.00;</t>
+          <t>基础返利6.00;满25.00返18.00;满15.00返8.00;</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>7.00;7.00</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L2" s="1" t="inlineStr">
@@ -398,7 +398,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -423,12 +423,12 @@
       </c>
       <c r="T2" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>曾坤丽</t>
         </is>
       </c>
       <c r="U2" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>王瑛</t>
         </is>
       </c>
       <c r="V2" s="1" t="inlineStr">
@@ -438,29 +438,29 @@
       </c>
       <c r="W2" s="1" t="inlineStr">
         <is>
-          <t>预授权类型</t>
+          <t>预充值类型</t>
         </is>
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>120.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>商户:13545368898</t>
         </is>
       </c>
     </row>
     <row r="3" customHeight="true" ht="14.0">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>冒千味成都火锅麻辣烫..</t>
+          <t>衢州鸭头·鸭脖·卤味小吃</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>⽕锅冒菜</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -490,17 +490,17 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满28.00返10.00;</t>
+          <t>基础返利6.00;满28.00返12.00;</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="X3" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>105.00</t>
         </is>
       </c>
       <c r="Y3" s="1" t="inlineStr">
@@ -582,17 +582,17 @@
     <row r="4" customHeight="true" ht="14.0">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>冒千味成都火锅麻辣烫·冒菜</t>
+          <t>冒千味成都火锅麻辣烫..</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⽕锅冒菜</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
@@ -617,17 +617,17 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满28.00返12.00;</t>
+          <t>基础返利6.00;满28.00返10.00;</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
@@ -637,22 +637,22 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N4" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="X4" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>75.69</t>
         </is>
       </c>
       <c r="Y4" s="1" t="inlineStr">
@@ -709,17 +709,17 @@
     <row r="5" customHeight="true" ht="14.0">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>云燕芳·姨妈热饮·鲜…</t>
+          <t>冒千味成都火锅麻辣烫·冒菜</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>咖啡</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -744,22 +744,22 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满28.00返12.00;</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -779,19 +779,19 @@
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
@@ -809,7 +809,7 @@
       </c>
       <c r="U5" s="1" t="inlineStr">
         <is>
-          <t>宁波A代理商</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V5" s="1" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="X5" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y5" s="1" t="inlineStr">
@@ -836,12 +836,12 @@
     <row r="6" customHeight="true" ht="14.0">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>密斯金韩餐（吾悦广场店）</t>
+          <t>云燕芳·姨妈热饮·鲜…</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>咖啡</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -871,27 +871,27 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S6" s="1" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="U6" s="1" t="inlineStr">
         <is>
-          <t>王瑛</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V6" s="1" t="inlineStr">
@@ -951,19 +951,19 @@
       </c>
       <c r="X6" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="Y6" s="1" t="inlineStr">
         <is>
-          <t>商户:15988600122</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="7" customHeight="true" ht="14.0">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>密斯金韩餐（吾悦广场店）</t>
+          <t>衢州鸭头鸭脖卤味小吃（联丰中路店）</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -998,17 +998,17 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满28.00返12.00;</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
@@ -1038,17 +1038,17 @@
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S7" s="1" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="U7" s="1" t="inlineStr">
         <is>
-          <t>王瑛</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V7" s="1" t="inlineStr">
@@ -1078,29 +1078,29 @@
       </c>
       <c r="X7" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>105.00</t>
         </is>
       </c>
       <c r="Y7" s="1" t="inlineStr">
         <is>
-          <t>商户:15988600122</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="8" customHeight="true" ht="14.0">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>衢州鸭头鸭脖卤味小吃（联丰中路店）</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
@@ -1125,22 +1125,22 @@
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满28.00返12.00;</t>
+          <t>基础返利6.00;满30.00返13.00;</t>
         </is>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q8" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q8" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
@@ -1217,12 +1217,12 @@
     <row r="9" customHeight="true" ht="14.0">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>露露黄焖鸡米饭·猪肘烩饭（万达店）</t>
+          <t>恋芝糦手作披萨</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>奉化区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
@@ -1252,17 +1252,17 @@
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
+          <t>基础返利6.00;满30.00返10.00;</t>
         </is>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
@@ -1292,17 +1292,17 @@
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S9" s="1" t="inlineStr">
@@ -1312,12 +1312,12 @@
       </c>
       <c r="T9" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U9" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>刘忠伟</t>
         </is>
       </c>
       <c r="V9" s="1" t="inlineStr">
@@ -1332,29 +1332,29 @@
       </c>
       <c r="X9" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="Y9" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="10" customHeight="true" ht="14.0">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡</t>
+          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>江北区</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
@@ -1379,22 +1379,22 @@
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满24.00返10.00;</t>
         </is>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1414,22 +1414,22 @@
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q10" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q10" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S10" s="1" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="T10" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U10" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V10" s="1" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="X10" s="1" t="inlineStr">
         <is>
-          <t>74.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y10" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="11" customHeight="true" ht="14.0">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>胖虎手作汉堡（天一店）</t>
+          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -1506,22 +1506,22 @@
       </c>
       <c r="H11" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满50.00返30.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>20.00;5.00</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1541,22 +1541,22 @@
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q11" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q11" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S11" s="1" t="inlineStr">
@@ -1566,12 +1566,12 @@
       </c>
       <c r="T11" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U11" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>吕鑫</t>
         </is>
       </c>
       <c r="V11" s="1" t="inlineStr">
@@ -1586,19 +1586,19 @@
       </c>
       <c r="X11" s="1" t="inlineStr">
         <is>
-          <t>74.00</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="Y11" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="12" customHeight="true" ht="14.0">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>西施凉皮（宁波大学店）</t>
+          <t>日食己餐</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
@@ -1633,17 +1633,17 @@
       </c>
       <c r="H12" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返12.00;</t>
+          <t>基础返利6.00;满25.00返10.00;</t>
         </is>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
@@ -1693,12 +1693,12 @@
       </c>
       <c r="T12" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U12" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V12" s="1" t="inlineStr">
@@ -1713,19 +1713,19 @@
       </c>
       <c r="X12" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="Y12" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="13" customHeight="true" ht="14.0">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>西施·凉皮（宁波大学店）</t>
+          <t>无敌爪爪（秘制凤爪.）</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>镇海区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
@@ -1760,22 +1760,22 @@
       </c>
       <c r="H13" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S13" s="1" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="T13" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U13" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V13" s="1" t="inlineStr">
@@ -1840,29 +1840,29 @@
       </c>
       <c r="X13" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y13" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="14" customHeight="true" ht="14.0">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>云燕芳：女神姨妈伴侣（余姚店）</t>
+          <t>无敌爪爪秘制凤爪</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>奶茶甜点</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>余姚市</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
@@ -1887,22 +1887,22 @@
       </c>
       <c r="H14" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满22.00返18.00;</t>
+          <t>基础返利6.00;满30.00返15.00;</t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1922,12 +1922,12 @@
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S14" s="1" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="T14" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U14" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V14" s="1" t="inlineStr">
@@ -1967,29 +1967,29 @@
       </c>
       <c r="X14" s="1" t="inlineStr">
         <is>
-          <t>62.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y14" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="15" customHeight="true" ht="14.0">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>BBK·优选汉堡炸鸡（宁波大学店）</t>
+          <t>慕玛披萨（联丰店）</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>饿了么</t>
+          <t>美团</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
@@ -2014,22 +2014,22 @@
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满24.00返10.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="U15" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V15" s="1" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="X15" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>121.00</t>
         </is>
       </c>
       <c r="Y15" s="1" t="inlineStr">
@@ -2106,17 +2106,17 @@
     <row r="16" customHeight="true" ht="14.0">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>酒小六Club.现调鸡尾酒.洋酒.啤酒</t>
+          <t>慕玛披萨（联丰中路店）</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
@@ -2141,17 +2141,17 @@
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满50.00返30.00;满20.00返15.00;</t>
+          <t>基础返利6.00;满25.00返13.00;</t>
         </is>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>20.00;5.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="U16" s="1" t="inlineStr">
         <is>
-          <t>吕鑫</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V16" s="1" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="X16" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>121.00</t>
         </is>
       </c>
       <c r="Y16" s="1" t="inlineStr">
@@ -2233,12 +2233,12 @@
     <row r="17" customHeight="true" ht="14.0">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>日食己餐</t>
+          <t>泰滋味·泰式海南鸡（高新店）</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -2268,22 +2268,22 @@
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
+          <t>基础返利6.00;满26.00返12.00;</t>
         </is>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -2303,12 +2303,12 @@
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q17" s="1" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S17" s="1" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="X17" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>160.00</t>
         </is>
       </c>
       <c r="Y17" s="1" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="18" customHeight="true" ht="14.0">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>MeeTu全球美妆集合店（宁波海曙店）</t>
+          <t>BELLACAKE蛋糕·甜品</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>电商产品</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>鄞州区</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
@@ -2395,22 +2395,22 @@
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返10.00;</t>
+          <t>基础返利6.00;满30.00返23.00;</t>
         </is>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -2430,22 +2430,22 @@
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="Q18" s="1" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="Q18" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S18" s="1" t="inlineStr">
@@ -2455,12 +2455,12 @@
       </c>
       <c r="T18" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U18" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V18" s="1" t="inlineStr">
@@ -2475,24 +2475,24 @@
       </c>
       <c r="X18" s="1" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>46.00</t>
         </is>
       </c>
       <c r="Y18" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="19" customHeight="true" ht="14.0">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪（秘制凤爪.）</t>
+          <t>M2蛋糕·面包</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>慈溪市</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
@@ -2522,22 +2522,22 @@
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返15.00;</t>
+          <t>基础返利6.00;满20.00返7.00;</t>
         </is>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q19" s="1" t="inlineStr">
+        <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="Q19" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
           <t>3.00</t>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="U19" s="1" t="inlineStr">
         <is>
-          <t>张洁茹</t>
+          <t>宁波A代理商</t>
         </is>
       </c>
       <c r="V19" s="1" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="X19" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="Y19" s="1" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="20" customHeight="true" ht="14.0">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>无敌爪爪秘制凤爪</t>
+          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
@@ -2649,17 +2649,17 @@
       </c>
       <c r="H20" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返15.00;</t>
+          <t>基础返利6.00;满20.00返15.00;</t>
         </is>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="X20" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="Y20" s="1" t="inlineStr">
@@ -2741,12 +2741,12 @@
     <row r="21" customHeight="true" ht="14.0">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>嵊州小吃</t>
+          <t>绍兴小笼</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>⾯粉粥包</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>江北区</t>
+          <t>海曙区</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
@@ -2776,22 +2776,22 @@
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>基础返利6.00;满30.00返13.00;</t>
         </is>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
@@ -2836,12 +2836,12 @@
       </c>
       <c r="T21" s="1" t="inlineStr">
         <is>
-          <t>曾坤丽</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="U21" s="1" t="inlineStr">
         <is>
-          <t>王雨婷</t>
+          <t>张洁茹</t>
         </is>
       </c>
       <c r="V21" s="1" t="inlineStr">
@@ -2856,24 +2856,24 @@
       </c>
       <c r="X21" s="1" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>120.00</t>
         </is>
       </c>
       <c r="Y21" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>业务员:张洁茹</t>
         </is>
       </c>
     </row>
     <row r="22" customHeight="true" ht="14.0">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰店）</t>
+          <t>花生烘焙·蛋糕·甜品</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -2893,32 +2893,32 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>宁海县</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
+          <t>需品鉴意见</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>每单返利7.00</t>
         </is>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t/>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2938,19 +2938,19 @@
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q22" s="1" t="inlineStr">
+        <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="Q22" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="X22" s="1" t="inlineStr">
         <is>
-          <t>134.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y22" s="1" t="inlineStr">
@@ -2995,12 +2995,12 @@
     <row r="23" customHeight="true" ht="14.0">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>慕玛披萨（联丰中路店）</t>
+          <t>花生烘焙（甜品·蛋糕）</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>特色小吃</t>
+          <t>生日蛋糕</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
@@ -3020,32 +3020,32 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>海曙区</t>
+          <t>宁海县</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
+          <t>需品鉴意见</t>
         </is>
       </c>
       <c r="H23" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满25.00返13.00;</t>
+          <t>每单返利7.00</t>
         </is>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t/>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -3065,19 +3065,19 @@
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q23" s="1" t="inlineStr">
+        <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="Q23" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
           <t>2.00</t>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="X23" s="1" t="inlineStr">
         <is>
-          <t>134.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="Y23" s="1" t="inlineStr">
@@ -3122,12 +3122,12 @@
     <row r="24" customHeight="true" ht="14.0">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>泰滋味·泰式海南鸡（高新店）</t>
+          <t>驴肉火烧.大饼卷肉</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -3147,52 +3147,52 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>慈溪市</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
+          <t>需品鉴意见</t>
         </is>
       </c>
       <c r="H24" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满26.00返12.00;</t>
+          <t>基础返利6.00;满20.00返20.00;</t>
         </is>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M24" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N24" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P24" s="1" t="inlineStr">
@@ -3202,12 +3202,12 @@
       </c>
       <c r="Q24" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="S24" s="1" t="inlineStr">
@@ -3232,29 +3232,29 @@
       </c>
       <c r="W24" s="1" t="inlineStr">
         <is>
-          <t>预授权类型</t>
+          <t>预充值类型</t>
         </is>
       </c>
       <c r="X24" s="1" t="inlineStr">
         <is>
-          <t>112.00</t>
+          <t>31.66</t>
         </is>
       </c>
       <c r="Y24" s="1" t="inlineStr">
         <is>
-          <t>业务员:张洁茹</t>
+          <t>商户:18851475317</t>
         </is>
       </c>
     </row>
     <row r="25" customHeight="true" ht="14.0">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>鱼你在一起（宁波港隆时代广场店）</t>
+          <t>羊洋洋·黄膘牛排·草原蒸羊排</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>中餐便餐</t>
+          <t>特色小吃</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
@@ -3274,57 +3274,57 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>镇海区</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
+          <t>需品鉴意见</t>
         </is>
       </c>
       <c r="H25" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返15.00;</t>
+          <t>基础返利6.00;满40.00返37.00;</t>
         </is>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M25" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N25" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P25" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q25" s="1" t="inlineStr">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="R25" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S25" s="1" t="inlineStr">
@@ -3359,34 +3359,34 @@
       </c>
       <c r="W25" s="1" t="inlineStr">
         <is>
-          <t>预授权类型</t>
+          <t>预充值类型</t>
         </is>
       </c>
       <c r="X25" s="1" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>74.00</t>
         </is>
       </c>
       <c r="Y25" s="1" t="inlineStr">
         <is>
-          <t>业务员:曾坤丽</t>
+          <t>商户:18951501960</t>
         </is>
       </c>
     </row>
     <row r="26" customHeight="true" ht="14.0">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>BELLACAKE蛋糕·甜品</t>
+          <t>莉婷大排档·本地小海鲜·农家菜</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>生日蛋糕</t>
+          <t>中餐便餐</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>美团</t>
+          <t>饿了么</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
@@ -3401,32 +3401,32 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>鄞州区</t>
+          <t>慈溪市</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
+          <t>需品鉴意见</t>
         </is>
       </c>
       <c r="H26" s="1" t="inlineStr">
         <is>
-          <t>基础返利6.00;满30.00返23.00;</t>
+          <t>基础返利6.00;满15.00返10.00;</t>
         </is>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
@@ -3446,22 +3446,22 @@
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P26" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q26" s="1" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S26" s="1" t="inlineStr">
@@ -3491,1917 +3491,12 @@
       </c>
       <c r="X26" s="1" t="inlineStr">
         <is>
-          <t>46.00</t>
+          <t>65.00</t>
         </is>
       </c>
       <c r="Y26" s="1" t="inlineStr">
         <is>
           <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" customHeight="true" ht="14.0">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>南雲上品·瓦香鸡（宁波大学店）</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F27" s="1" t="inlineStr">
-        <is>
-          <t>江北区</t>
-        </is>
-      </c>
-      <c r="G27" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J27" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="K27" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L27" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M27" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N27" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O27" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P27" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="Q27" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R27" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S27" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T27" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U27" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W27" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X27" s="1" t="inlineStr">
-        <is>
-          <t>60.00</t>
-        </is>
-      </c>
-      <c r="Y27" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" customHeight="true" ht="14.0">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>思念酒馆（现调鸡尾酒）</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F28" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="J28" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="K28" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L28" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M28" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N28" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O28" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P28" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="Q28" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R28" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="S28" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T28" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U28" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W28" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X28" s="1" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="Y28" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" customHeight="true" ht="14.0">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>思念酒馆·现调鸡尾酒</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F29" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G29" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="J29" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="K29" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L29" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M29" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N29" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O29" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P29" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="Q29" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R29" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="S29" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T29" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U29" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="V29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W29" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X29" s="1" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="Y29" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" customHeight="true" ht="14.0">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>M2蛋糕·面包</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E30" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F30" s="1" t="inlineStr">
-        <is>
-          <t>慈溪市</t>
-        </is>
-      </c>
-      <c r="G30" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返7.00;</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J30" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="K30" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L30" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M30" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N30" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O30" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P30" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q30" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R30" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S30" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T30" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U30" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="V30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W30" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X30" s="1" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
-      <c r="Y30" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" customHeight="true" ht="14.0">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>云燕芳·姨妈热饮·鲜炖燕窝</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>特色小吃</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E31" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F31" s="1" t="inlineStr">
-        <is>
-          <t>镇海区</t>
-        </is>
-      </c>
-      <c r="G31" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返15.00;</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="J31" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="K31" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L31" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M31" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N31" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O31" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P31" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="Q31" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R31" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S31" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T31" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U31" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W31" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X31" s="1" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
-      <c r="Y31" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" customHeight="true" ht="14.0">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>食色（红烧牛肉面·大步街店）</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E32" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F32" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G32" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J32" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="K32" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L32" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M32" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N32" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O32" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P32" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q32" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R32" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S32" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T32" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U32" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W32" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X32" s="1" t="inlineStr">
-        <is>
-          <t>105.00</t>
-        </is>
-      </c>
-      <c r="Y32" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" customHeight="true" ht="14.0">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>绍兴小笼</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>⾯粉粥包</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E33" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F33" s="1" t="inlineStr">
-        <is>
-          <t>海曙区</t>
-        </is>
-      </c>
-      <c r="G33" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返13.00;</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="J33" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="K33" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L33" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M33" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N33" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O33" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P33" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="Q33" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R33" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S33" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T33" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U33" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W33" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X33" s="1" t="inlineStr">
-        <is>
-          <t>61.00</t>
-        </is>
-      </c>
-      <c r="Y33" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" customHeight="true" ht="14.0">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>老巷子小锅米线（宁波店）</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E34" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F34" s="1" t="inlineStr">
-        <is>
-          <t>镇海区</t>
-        </is>
-      </c>
-      <c r="G34" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满20.00返10.00;</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L34" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M34" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N34" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O34" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P34" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q34" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R34" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S34" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T34" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U34" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W34" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X34" s="1" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="Y34" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" customHeight="true" ht="14.0">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>口口香北京片皮烤鸭</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F35" s="1" t="inlineStr">
-        <is>
-          <t>镇海区</t>
-        </is>
-      </c>
-      <c r="G35" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J35" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="K35" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L35" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M35" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N35" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O35" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P35" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q35" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R35" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S35" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T35" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U35" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W35" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X35" s="1" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="Y35" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" customHeight="true" ht="14.0">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>7%Cake·蛋糕·糖水甜品·咖啡（儿童公园店）</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E36" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F36" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G36" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J36" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="K36" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L36" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M36" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N36" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O36" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P36" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q36" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R36" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S36" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T36" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U36" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W36" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X36" s="1" t="inlineStr">
-        <is>
-          <t>70.00</t>
-        </is>
-      </c>
-      <c r="Y36" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" customHeight="true" ht="14.0">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>7%cake(糖水甜品·生日蛋糕·咖啡）</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E37" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F37" s="1" t="inlineStr">
-        <is>
-          <t>鄞州区</t>
-        </is>
-      </c>
-      <c r="G37" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J37" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="K37" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L37" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M37" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N37" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O37" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P37" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q37" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R37" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S37" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T37" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U37" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W37" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X37" s="1" t="inlineStr">
-        <is>
-          <t>70.00</t>
-        </is>
-      </c>
-      <c r="Y37" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" customHeight="true" ht="14.0">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>百味轩私房川湘菜（慈溪店）</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>中餐便餐</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E38" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F38" s="1" t="inlineStr">
-        <is>
-          <t>慈溪市</t>
-        </is>
-      </c>
-      <c r="G38" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返10.00;</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="J38" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="K38" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L38" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M38" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N38" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O38" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="P38" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q38" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R38" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S38" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T38" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U38" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W38" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X38" s="1" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="Y38" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" customHeight="true" ht="14.0">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>花生烘焙·蛋糕·甜品</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>美团</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E39" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F39" s="1" t="inlineStr">
-        <is>
-          <t>宁海县</t>
-        </is>
-      </c>
-      <c r="G39" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满30.00返10.00;</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="J39" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="K39" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L39" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M39" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N39" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O39" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P39" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q39" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="R39" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="S39" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T39" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U39" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W39" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X39" s="1" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="Y39" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" customHeight="true" ht="14.0">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>花生烘焙（甜品·蛋糕）</t>
-        </is>
-      </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>生日蛋糕</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E40" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F40" s="1" t="inlineStr">
-        <is>
-          <t>宁海县</t>
-        </is>
-      </c>
-      <c r="G40" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满30.00返10.00;</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="J40" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="K40" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L40" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M40" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N40" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O40" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P40" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q40" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="R40" s="1" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="S40" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T40" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="U40" s="1" t="inlineStr">
-        <is>
-          <t>张洁茹</t>
-        </is>
-      </c>
-      <c r="V40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W40" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X40" s="1" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="Y40" s="1" t="inlineStr">
-        <is>
-          <t>业务员:张洁茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" customHeight="true" ht="14.0">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>喜菓然果切水果捞礼盒（福业街店）</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>水果果切</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>饿了么</t>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t>宁波市</t>
-        </is>
-      </c>
-      <c r="F41" s="1" t="inlineStr">
-        <is>
-          <t>镇海区</t>
-        </is>
-      </c>
-      <c r="G41" s="1" t="inlineStr">
-        <is>
-          <t>霸王餐需品鉴意见(需图需字)</t>
-        </is>
-      </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>基础返利6.00;满25.00返12.00;</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J41" s="1" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
-      <c r="K41" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L41" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M41" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N41" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O41" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="P41" s="1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q41" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="R41" s="1" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="S41" s="1" t="inlineStr">
-        <is>
-          <t>宁波A代理商</t>
-        </is>
-      </c>
-      <c r="T41" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="U41" s="1" t="inlineStr">
-        <is>
-          <t>曾坤丽</t>
-        </is>
-      </c>
-      <c r="V41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W41" s="1" t="inlineStr">
-        <is>
-          <t>预授权类型</t>
-        </is>
-      </c>
-      <c r="X41" s="1" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="Y41" s="1" t="inlineStr">
-        <is>
-          <t>业务员:曾坤丽</t>
         </is>
       </c>
     </row>
